--- a/BackTest/2020-01-14 BackTest BTG.xlsx
+++ b/BackTest/2020-01-14 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,16 +439,16 @@
         <v>7465</v>
       </c>
       <c r="D2" t="n">
-        <v>7470</v>
+        <v>7465</v>
       </c>
       <c r="E2" t="n">
         <v>7465</v>
       </c>
       <c r="F2" t="n">
-        <v>1028.0003</v>
+        <v>13.1946</v>
       </c>
       <c r="G2" t="n">
-        <v>7550.166666666667</v>
+        <v>7551.166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7460</v>
+        <v>7465</v>
       </c>
       <c r="C3" t="n">
-        <v>7430</v>
+        <v>7465</v>
       </c>
       <c r="D3" t="n">
-        <v>7460</v>
+        <v>7470</v>
       </c>
       <c r="E3" t="n">
-        <v>7430</v>
+        <v>7465</v>
       </c>
       <c r="F3" t="n">
-        <v>657.2107999999999</v>
+        <v>1028.0003</v>
       </c>
       <c r="G3" t="n">
-        <v>7547.833333333333</v>
+        <v>7550.166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7430</v>
+        <v>7460</v>
       </c>
       <c r="C4" t="n">
         <v>7430</v>
       </c>
       <c r="D4" t="n">
-        <v>7430</v>
+        <v>7460</v>
       </c>
       <c r="E4" t="n">
         <v>7430</v>
       </c>
       <c r="F4" t="n">
-        <v>45.8283</v>
+        <v>657.2107999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>7545.5</v>
+        <v>7547.833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>7430</v>
       </c>
       <c r="C5" t="n">
-        <v>7420</v>
+        <v>7430</v>
       </c>
       <c r="D5" t="n">
         <v>7430</v>
       </c>
       <c r="E5" t="n">
-        <v>7420</v>
+        <v>7430</v>
       </c>
       <c r="F5" t="n">
-        <v>47.6627</v>
+        <v>45.8283</v>
       </c>
       <c r="G5" t="n">
-        <v>7543.083333333333</v>
+        <v>7545.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7420</v>
+        <v>7430</v>
       </c>
       <c r="C6" t="n">
         <v>7420</v>
       </c>
       <c r="D6" t="n">
-        <v>7420</v>
+        <v>7430</v>
       </c>
       <c r="E6" t="n">
         <v>7420</v>
       </c>
       <c r="F6" t="n">
-        <v>20.27</v>
+        <v>47.6627</v>
       </c>
       <c r="G6" t="n">
-        <v>7540.583333333333</v>
+        <v>7543.083333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>7420</v>
       </c>
       <c r="C7" t="n">
-        <v>7430</v>
+        <v>7420</v>
       </c>
       <c r="D7" t="n">
-        <v>7430</v>
+        <v>7420</v>
       </c>
       <c r="E7" t="n">
         <v>7420</v>
       </c>
       <c r="F7" t="n">
-        <v>60.9284</v>
+        <v>20.27</v>
       </c>
       <c r="G7" t="n">
-        <v>7538.25</v>
+        <v>7540.583333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7430</v>
+        <v>7420</v>
       </c>
       <c r="C8" t="n">
         <v>7430</v>
@@ -652,26 +652,22 @@
         <v>7430</v>
       </c>
       <c r="E8" t="n">
-        <v>7430</v>
+        <v>7420</v>
       </c>
       <c r="F8" t="n">
-        <v>10.25</v>
+        <v>60.9284</v>
       </c>
       <c r="G8" t="n">
-        <v>7536.666666666667</v>
+        <v>7538.25</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>7430</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7430</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -694,2787 +690,2383 @@
         <v>7430</v>
       </c>
       <c r="F9" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7536.666666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7430</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7430</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7430</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F10" t="n">
         <v>134.388</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>7535.166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7430</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7430</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F11" t="n">
+        <v>73.52589999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7534.666666666667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7475</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7475</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7475</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7475</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7533.916666666667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7533.333333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7435</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7440</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7435</v>
+      </c>
+      <c r="F14" t="n">
+        <v>34.5966</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7530.916666666667</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7435</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7430</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7435</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F15" t="n">
+        <v>207.6892</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7528.333333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7480</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7475</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7480</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F16" t="n">
+        <v>63.43</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7526.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7470</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7480</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7470</v>
+      </c>
+      <c r="F17" t="n">
+        <v>59.17</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7524.833333333333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F18" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7522.916666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F19" t="n">
+        <v>64.45999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7520.333333333333</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7490</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7490</v>
+      </c>
+      <c r="F20" t="n">
+        <v>46.76</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7518.083333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7490</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7490</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7515.833333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7535</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7535</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7535</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9796</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7514.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7520</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7520</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7440</v>
+      </c>
+      <c r="F23" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7513.916666666667</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7512.75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7530</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7530</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7530</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7512.166666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7530</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7530</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7530</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7511.833333333333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7525</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7530</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7525</v>
+      </c>
+      <c r="F27" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7510.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7530</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7530</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7530</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7509.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7535</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7535</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7535</v>
+      </c>
+      <c r="F29" t="n">
+        <v>23.4391</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7508.083333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7530</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7530</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7530</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7506.916666666667</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7535</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7535</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7535</v>
+      </c>
+      <c r="F31" t="n">
+        <v>49.8978</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7506.666666666667</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7525</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7530</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7425</v>
+      </c>
+      <c r="F32" t="n">
+        <v>740.8869999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7505.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7505</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7505</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7505.166666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7510</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7510</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7510</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7510</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7503.833333333333</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7502.166666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7535</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7535</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7535</v>
+      </c>
+      <c r="F36" t="n">
+        <v>564.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7501.166666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F37" t="n">
+        <v>80.85209999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7499.583333333333</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7497.916666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7435</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7435</v>
+      </c>
+      <c r="F39" t="n">
+        <v>70</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7495.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7490</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7490</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15.8261</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7493.583333333333</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7492.416666666667</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7492.25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7525</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7525</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7525</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7525</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7492.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7525</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7525</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7535</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7515</v>
+      </c>
+      <c r="F44" t="n">
+        <v>51</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7492.166666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7520</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7530</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7530</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7520</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7491.916666666667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7555</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7555</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7530</v>
+      </c>
+      <c r="F46" t="n">
+        <v>224</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7492.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7550</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7550</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7550</v>
+      </c>
+      <c r="F47" t="n">
+        <v>66.0598</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7492.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7555</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7555</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7555</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7555</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7493.25</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7550</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7555</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7555</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7540</v>
+      </c>
+      <c r="F49" t="n">
+        <v>75</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7494</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7555</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7545</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7555</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7545</v>
+      </c>
+      <c r="F50" t="n">
+        <v>54</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7494.75</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7545</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12.9279</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7494.75</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>7505</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7505</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F52" t="n">
+        <v>66.96850000000001</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7494.75</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7550</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F53" t="n">
+        <v>70</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7495.583333333333</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7550</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7550</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7550</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7496.416666666667</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7550</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7550</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7550</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7497.25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7550</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7510</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F56" t="n">
+        <v>235.0091</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7497.416666666667</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7510</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7510</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F57" t="n">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7497.583333333333</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>7540</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7540</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7540</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7540</v>
+      </c>
+      <c r="F58" t="n">
+        <v>15</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7498.333333333333</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7540</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7545</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7540</v>
+      </c>
+      <c r="F59" t="n">
+        <v>228</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7499.166666666667</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7505</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7505</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7505</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7505</v>
+      </c>
+      <c r="F60" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7499.416666666667</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>7505</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7545</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7545</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7500.333333333333</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F62" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7500.916666666667</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F63" t="n">
+        <v>96.7226</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7501.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F64" t="n">
+        <v>361.0968</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7502.666666666667</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F65" t="n">
+        <v>307.8804</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7503.583333333333</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F66" t="n">
+        <v>270.56</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7504.916666666667</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7490</v>
+      </c>
+      <c r="F67" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7506.083333333333</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F68" t="n">
+        <v>187.16</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7507</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7460</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F69" t="n">
+        <v>254.2349</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7507.5</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7460</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7460</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7460</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F70" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7508</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7460</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7450</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7460</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7445</v>
+      </c>
+      <c r="F71" t="n">
+        <v>216.42</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7507.416666666667</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7450</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7450</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7450</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7450</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7507</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7450</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7430</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7450</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F73" t="n">
+        <v>125.3892</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7506.083333333333</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7430</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7430</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7430</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F74" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7506</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7430</v>
+      </c>
+      <c r="K74" t="n">
+        <v>7430</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7425</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7425</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7425</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7425</v>
+      </c>
+      <c r="F75" t="n">
+        <v>68.1662</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7505.916666666667</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7430</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7430</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7430</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7430</v>
-      </c>
-      <c r="F10" t="n">
-        <v>73.52589999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7534.666666666667</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7430</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7425</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7420</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7425</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7420</v>
+      </c>
+      <c r="F76" t="n">
+        <v>62.8585</v>
+      </c>
+      <c r="G76" t="n">
+        <v>7505</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>7430</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7475</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7475</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7475</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7475</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7533.916666666667</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7485</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7533.333333333333</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7475</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7440</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7435</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7440</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7435</v>
-      </c>
-      <c r="F13" t="n">
-        <v>34.5966</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7530.916666666667</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7435</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7430</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7435</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7430</v>
-      </c>
-      <c r="F14" t="n">
-        <v>207.6892</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7528.333333333333</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7480</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7475</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7480</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7430</v>
-      </c>
-      <c r="F15" t="n">
-        <v>63.43</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7526.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7430</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7470</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7480</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7470</v>
-      </c>
-      <c r="F16" t="n">
-        <v>59.17</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7524.833333333333</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F17" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7522.916666666667</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7480</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F18" t="n">
-        <v>64.45999999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7520.333333333333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7485</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7490</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7490</v>
-      </c>
-      <c r="F19" t="n">
-        <v>46.76</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7518.083333333333</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7490</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7490</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7515.833333333333</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7535</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7535</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7535</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7535</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9796</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7514.75</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7440</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7520</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7520</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7440</v>
-      </c>
-      <c r="F22" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7513.916666666667</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7512.75</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7530</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7530</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7530</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7530</v>
-      </c>
-      <c r="F24" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7512.166666666667</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7530</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7530</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7530</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7530</v>
-      </c>
-      <c r="F25" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7511.833333333333</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7530</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7525</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7530</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7525</v>
-      </c>
-      <c r="F26" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7510.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>7530</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7530</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7530</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7530</v>
-      </c>
-      <c r="F27" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7509.25</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7535</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7535</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7535</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7535</v>
-      </c>
-      <c r="F28" t="n">
-        <v>23.4391</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7508.083333333333</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7530</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7530</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7530</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7530</v>
-      </c>
-      <c r="F29" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7506.916666666667</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>7535</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7535</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7535</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7535</v>
-      </c>
-      <c r="F30" t="n">
-        <v>49.8978</v>
-      </c>
-      <c r="G30" t="n">
-        <v>7506.666666666667</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>7530</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7525</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7530</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7425</v>
-      </c>
-      <c r="F31" t="n">
-        <v>740.8869999999999</v>
-      </c>
-      <c r="G31" t="n">
-        <v>7505.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C32" t="n">
-        <v>7505</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7505</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F32" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7505.166666666667</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>7510</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7510</v>
-      </c>
-      <c r="D33" t="n">
-        <v>7510</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7510</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>7503.833333333333</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D34" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F34" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="G34" t="n">
-        <v>7502.166666666667</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>7535</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7535</v>
-      </c>
-      <c r="D35" t="n">
-        <v>7535</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7535</v>
-      </c>
-      <c r="F35" t="n">
-        <v>564.1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7501.166666666667</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C36" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F36" t="n">
-        <v>80.85209999999999</v>
-      </c>
-      <c r="G36" t="n">
-        <v>7499.583333333333</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C37" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D37" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F37" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7497.916666666667</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7435</v>
-      </c>
-      <c r="D38" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7435</v>
-      </c>
-      <c r="F38" t="n">
-        <v>70</v>
-      </c>
-      <c r="G38" t="n">
-        <v>7495.25</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>7490</v>
-      </c>
-      <c r="C39" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D39" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7490</v>
-      </c>
-      <c r="F39" t="n">
-        <v>15.8261</v>
-      </c>
-      <c r="G39" t="n">
-        <v>7493.583333333333</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D40" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F40" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="G40" t="n">
-        <v>7492.416666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C41" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D41" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E41" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G41" t="n">
-        <v>7492.25</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>7525</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7525</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7525</v>
-      </c>
-      <c r="E42" t="n">
-        <v>7525</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.243</v>
-      </c>
-      <c r="G42" t="n">
-        <v>7492.5</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>7525</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7525</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7535</v>
-      </c>
-      <c r="E43" t="n">
-        <v>7515</v>
-      </c>
-      <c r="F43" t="n">
-        <v>51</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7492.166666666667</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>7520</v>
-      </c>
-      <c r="C44" t="n">
-        <v>7530</v>
-      </c>
-      <c r="D44" t="n">
-        <v>7530</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7520</v>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
-      </c>
-      <c r="G44" t="n">
-        <v>7491.916666666667</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>7530</v>
-      </c>
-      <c r="C45" t="n">
-        <v>7555</v>
-      </c>
-      <c r="D45" t="n">
-        <v>7555</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7530</v>
-      </c>
-      <c r="F45" t="n">
-        <v>224</v>
-      </c>
-      <c r="G45" t="n">
-        <v>7492.5</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>7550</v>
-      </c>
-      <c r="C46" t="n">
-        <v>7550</v>
-      </c>
-      <c r="D46" t="n">
-        <v>7550</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7550</v>
-      </c>
-      <c r="F46" t="n">
-        <v>66.0598</v>
-      </c>
-      <c r="G46" t="n">
-        <v>7492.5</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>7555</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7555</v>
-      </c>
-      <c r="D47" t="n">
-        <v>7555</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7555</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" t="n">
-        <v>7493.25</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>7550</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7555</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7555</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7540</v>
-      </c>
-      <c r="F48" t="n">
-        <v>75</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7494</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>7555</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7545</v>
-      </c>
-      <c r="D49" t="n">
-        <v>7555</v>
-      </c>
-      <c r="E49" t="n">
-        <v>7545</v>
-      </c>
-      <c r="F49" t="n">
-        <v>54</v>
-      </c>
-      <c r="G49" t="n">
-        <v>7494.75</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>7545</v>
-      </c>
-      <c r="C50" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D50" t="n">
-        <v>7550</v>
-      </c>
-      <c r="E50" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F50" t="n">
-        <v>12.9279</v>
-      </c>
-      <c r="G50" t="n">
-        <v>7494.75</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>7505</v>
-      </c>
-      <c r="C51" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D51" t="n">
-        <v>7505</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F51" t="n">
-        <v>66.96850000000001</v>
-      </c>
-      <c r="G51" t="n">
-        <v>7494.75</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C52" t="n">
-        <v>7550</v>
-      </c>
-      <c r="D52" t="n">
-        <v>7550</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F52" t="n">
-        <v>70</v>
-      </c>
-      <c r="G52" t="n">
-        <v>7495.583333333333</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>7550</v>
-      </c>
-      <c r="C53" t="n">
-        <v>7550</v>
-      </c>
-      <c r="D53" t="n">
-        <v>7550</v>
-      </c>
-      <c r="E53" t="n">
-        <v>7550</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" t="n">
-        <v>7496.416666666667</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>7550</v>
-      </c>
-      <c r="C54" t="n">
-        <v>7550</v>
-      </c>
-      <c r="D54" t="n">
-        <v>7550</v>
-      </c>
-      <c r="E54" t="n">
-        <v>7550</v>
-      </c>
-      <c r="F54" t="n">
-        <v>15</v>
-      </c>
-      <c r="G54" t="n">
-        <v>7497.25</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>7550</v>
-      </c>
-      <c r="C55" t="n">
-        <v>7510</v>
-      </c>
-      <c r="D55" t="n">
-        <v>7550</v>
-      </c>
-      <c r="E55" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F55" t="n">
-        <v>235.0091</v>
-      </c>
-      <c r="G55" t="n">
-        <v>7497.416666666667</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>7510</v>
-      </c>
-      <c r="C56" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D56" t="n">
-        <v>7510</v>
-      </c>
-      <c r="E56" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F56" t="n">
-        <v>79.81999999999999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>7497.583333333333</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>7540</v>
-      </c>
-      <c r="C57" t="n">
-        <v>7540</v>
-      </c>
-      <c r="D57" t="n">
-        <v>7540</v>
-      </c>
-      <c r="E57" t="n">
-        <v>7540</v>
-      </c>
-      <c r="F57" t="n">
-        <v>15</v>
-      </c>
-      <c r="G57" t="n">
-        <v>7498.333333333333</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>7540</v>
-      </c>
-      <c r="C58" t="n">
-        <v>7545</v>
-      </c>
-      <c r="D58" t="n">
-        <v>7550</v>
-      </c>
-      <c r="E58" t="n">
-        <v>7540</v>
-      </c>
-      <c r="F58" t="n">
-        <v>228</v>
-      </c>
-      <c r="G58" t="n">
-        <v>7499.166666666667</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>7505</v>
-      </c>
-      <c r="C59" t="n">
-        <v>7505</v>
-      </c>
-      <c r="D59" t="n">
-        <v>7505</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7505</v>
-      </c>
-      <c r="F59" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="G59" t="n">
-        <v>7499.416666666667</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>7505</v>
-      </c>
-      <c r="C60" t="n">
-        <v>7545</v>
-      </c>
-      <c r="D60" t="n">
-        <v>7545</v>
-      </c>
-      <c r="E60" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F60" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="G60" t="n">
-        <v>7500.333333333333</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C61" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D61" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E61" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F61" t="n">
-        <v>37.34</v>
-      </c>
-      <c r="G61" t="n">
-        <v>7500.916666666667</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C62" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D62" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E62" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F62" t="n">
-        <v>96.7226</v>
-      </c>
-      <c r="G62" t="n">
-        <v>7501.5</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C63" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D63" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E63" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F63" t="n">
-        <v>361.0968</v>
-      </c>
-      <c r="G63" t="n">
-        <v>7502.666666666667</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C64" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D64" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E64" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F64" t="n">
-        <v>307.8804</v>
-      </c>
-      <c r="G64" t="n">
-        <v>7503.583333333333</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D65" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E65" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F65" t="n">
-        <v>270.56</v>
-      </c>
-      <c r="G65" t="n">
-        <v>7504.916666666667</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C66" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D66" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7490</v>
-      </c>
-      <c r="F66" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="G66" t="n">
-        <v>7506.083333333333</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C67" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D67" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E67" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F67" t="n">
-        <v>187.16</v>
-      </c>
-      <c r="G67" t="n">
-        <v>7507</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C68" t="n">
-        <v>7460</v>
-      </c>
-      <c r="D68" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7460</v>
-      </c>
-      <c r="F68" t="n">
-        <v>254.2349</v>
-      </c>
-      <c r="G68" t="n">
-        <v>7507.5</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>7460</v>
-      </c>
-      <c r="C69" t="n">
-        <v>7460</v>
-      </c>
-      <c r="D69" t="n">
-        <v>7460</v>
-      </c>
-      <c r="E69" t="n">
-        <v>7460</v>
-      </c>
-      <c r="F69" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="G69" t="n">
-        <v>7508</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>7460</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7450</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7460</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7445</v>
-      </c>
-      <c r="F70" t="n">
-        <v>216.42</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7507.416666666667</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>7450</v>
-      </c>
-      <c r="C71" t="n">
-        <v>7450</v>
-      </c>
-      <c r="D71" t="n">
-        <v>7450</v>
-      </c>
-      <c r="E71" t="n">
-        <v>7450</v>
-      </c>
-      <c r="F71" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="G71" t="n">
-        <v>7507</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>7450</v>
-      </c>
-      <c r="C72" t="n">
-        <v>7430</v>
-      </c>
-      <c r="D72" t="n">
-        <v>7450</v>
-      </c>
-      <c r="E72" t="n">
-        <v>7430</v>
-      </c>
-      <c r="F72" t="n">
-        <v>125.3892</v>
-      </c>
-      <c r="G72" t="n">
-        <v>7506.083333333333</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>7430</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7430</v>
-      </c>
-      <c r="D73" t="n">
-        <v>7430</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7430</v>
-      </c>
-      <c r="F73" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="G73" t="n">
-        <v>7506</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>7425</v>
-      </c>
-      <c r="C74" t="n">
-        <v>7425</v>
-      </c>
-      <c r="D74" t="n">
-        <v>7425</v>
-      </c>
-      <c r="E74" t="n">
-        <v>7425</v>
-      </c>
-      <c r="F74" t="n">
-        <v>68.1662</v>
-      </c>
-      <c r="G74" t="n">
-        <v>7505.916666666667</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>7425</v>
-      </c>
-      <c r="C75" t="n">
-        <v>7420</v>
-      </c>
-      <c r="D75" t="n">
-        <v>7425</v>
-      </c>
-      <c r="E75" t="n">
-        <v>7420</v>
-      </c>
-      <c r="F75" t="n">
-        <v>62.8585</v>
-      </c>
-      <c r="G75" t="n">
-        <v>7505</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>7420</v>
-      </c>
-      <c r="C76" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7425</v>
-      </c>
-      <c r="E76" t="n">
-        <v>7390</v>
-      </c>
-      <c r="F76" t="n">
-        <v>226.4981</v>
-      </c>
-      <c r="G76" t="n">
-        <v>7503.666666666667</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3484,30 +3076,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7400</v>
+        <v>7420</v>
       </c>
       <c r="C77" t="n">
         <v>7400</v>
       </c>
       <c r="D77" t="n">
-        <v>7400</v>
+        <v>7425</v>
       </c>
       <c r="E77" t="n">
-        <v>7400</v>
+        <v>7390</v>
       </c>
       <c r="F77" t="n">
-        <v>107.5405</v>
+        <v>226.4981</v>
       </c>
       <c r="G77" t="n">
-        <v>7502.25</v>
+        <v>7503.666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>7420</v>
+      </c>
       <c r="K77" t="n">
         <v>7430</v>
       </c>
@@ -3528,27 +3122,29 @@
         <v>7400</v>
       </c>
       <c r="C78" t="n">
-        <v>7370</v>
+        <v>7400</v>
       </c>
       <c r="D78" t="n">
         <v>7400</v>
       </c>
       <c r="E78" t="n">
-        <v>7370</v>
+        <v>7400</v>
       </c>
       <c r="F78" t="n">
-        <v>328.7285</v>
+        <v>107.5405</v>
       </c>
       <c r="G78" t="n">
-        <v>7500.25</v>
+        <v>7502.25</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>7400</v>
+      </c>
       <c r="K78" t="n">
         <v>7430</v>
       </c>
@@ -3569,27 +3165,29 @@
         <v>7400</v>
       </c>
       <c r="C79" t="n">
-        <v>7400</v>
+        <v>7370</v>
       </c>
       <c r="D79" t="n">
         <v>7400</v>
       </c>
       <c r="E79" t="n">
+        <v>7370</v>
+      </c>
+      <c r="F79" t="n">
+        <v>328.7285</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7500.25</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>7400</v>
       </c>
-      <c r="F79" t="n">
-        <v>0.1084</v>
-      </c>
-      <c r="G79" t="n">
-        <v>7498.75</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>7430</v>
       </c>
@@ -3619,18 +3217,20 @@
         <v>7400</v>
       </c>
       <c r="F80" t="n">
-        <v>170</v>
+        <v>0.1084</v>
       </c>
       <c r="G80" t="n">
-        <v>7497.25</v>
+        <v>7498.75</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>7370</v>
+      </c>
       <c r="K80" t="n">
         <v>7430</v>
       </c>
@@ -3651,27 +3251,29 @@
         <v>7400</v>
       </c>
       <c r="C81" t="n">
-        <v>7480</v>
+        <v>7400</v>
       </c>
       <c r="D81" t="n">
-        <v>7480</v>
+        <v>7400</v>
       </c>
       <c r="E81" t="n">
         <v>7400</v>
       </c>
       <c r="F81" t="n">
-        <v>641.8061</v>
+        <v>170</v>
       </c>
       <c r="G81" t="n">
-        <v>7496.333333333333</v>
+        <v>7497.25</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>7400</v>
+      </c>
       <c r="K81" t="n">
         <v>7430</v>
       </c>
@@ -3689,22 +3291,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7485</v>
+        <v>7400</v>
       </c>
       <c r="C82" t="n">
-        <v>7490</v>
+        <v>7480</v>
       </c>
       <c r="D82" t="n">
-        <v>7490</v>
+        <v>7480</v>
       </c>
       <c r="E82" t="n">
-        <v>7485</v>
+        <v>7400</v>
       </c>
       <c r="F82" t="n">
-        <v>71.5</v>
+        <v>641.8061</v>
       </c>
       <c r="G82" t="n">
-        <v>7495.833333333333</v>
+        <v>7496.333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3730,30 +3332,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7445</v>
+        <v>7485</v>
       </c>
       <c r="C83" t="n">
-        <v>7430</v>
+        <v>7490</v>
       </c>
       <c r="D83" t="n">
-        <v>7445</v>
+        <v>7490</v>
       </c>
       <c r="E83" t="n">
-        <v>7430</v>
+        <v>7485</v>
       </c>
       <c r="F83" t="n">
-        <v>57.964</v>
+        <v>71.5</v>
       </c>
       <c r="G83" t="n">
-        <v>7494.666666666667</v>
+        <v>7495.833333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>7480</v>
+      </c>
       <c r="K83" t="n">
         <v>7430</v>
       </c>
@@ -3774,19 +3378,19 @@
         <v>7445</v>
       </c>
       <c r="C84" t="n">
-        <v>7445</v>
+        <v>7430</v>
       </c>
       <c r="D84" t="n">
         <v>7445</v>
       </c>
       <c r="E84" t="n">
-        <v>7445</v>
+        <v>7430</v>
       </c>
       <c r="F84" t="n">
-        <v>5.7145</v>
+        <v>57.964</v>
       </c>
       <c r="G84" t="n">
-        <v>7493.25</v>
+        <v>7494.666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3812,22 +3416,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7440</v>
+        <v>7445</v>
       </c>
       <c r="C85" t="n">
-        <v>7435</v>
+        <v>7445</v>
       </c>
       <c r="D85" t="n">
-        <v>7440</v>
+        <v>7445</v>
       </c>
       <c r="E85" t="n">
-        <v>7435</v>
+        <v>7445</v>
       </c>
       <c r="F85" t="n">
-        <v>22.711</v>
+        <v>5.7145</v>
       </c>
       <c r="G85" t="n">
-        <v>7491.666666666667</v>
+        <v>7493.25</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3853,22 +3457,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7445</v>
+        <v>7440</v>
       </c>
       <c r="C86" t="n">
-        <v>7430</v>
+        <v>7435</v>
       </c>
       <c r="D86" t="n">
-        <v>7445</v>
+        <v>7440</v>
       </c>
       <c r="E86" t="n">
-        <v>7430</v>
+        <v>7435</v>
       </c>
       <c r="F86" t="n">
-        <v>51.5643</v>
+        <v>22.711</v>
       </c>
       <c r="G86" t="n">
-        <v>7490.083333333333</v>
+        <v>7491.666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3894,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7455</v>
+        <v>7445</v>
       </c>
       <c r="C87" t="n">
-        <v>7455</v>
+        <v>7430</v>
       </c>
       <c r="D87" t="n">
-        <v>7455</v>
+        <v>7445</v>
       </c>
       <c r="E87" t="n">
-        <v>7455</v>
+        <v>7430</v>
       </c>
       <c r="F87" t="n">
-        <v>2.2094</v>
+        <v>51.5643</v>
       </c>
       <c r="G87" t="n">
-        <v>7488.833333333333</v>
+        <v>7490.083333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3935,7 +3539,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7435</v>
+        <v>7455</v>
       </c>
       <c r="C88" t="n">
         <v>7455</v>
@@ -3944,13 +3548,13 @@
         <v>7455</v>
       </c>
       <c r="E88" t="n">
-        <v>7430</v>
+        <v>7455</v>
       </c>
       <c r="F88" t="n">
-        <v>21.35</v>
+        <v>2.2094</v>
       </c>
       <c r="G88" t="n">
-        <v>7487.5</v>
+        <v>7488.833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3976,7 +3580,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7455</v>
+        <v>7435</v>
       </c>
       <c r="C89" t="n">
         <v>7455</v>
@@ -3985,13 +3589,13 @@
         <v>7455</v>
       </c>
       <c r="E89" t="n">
-        <v>7455</v>
+        <v>7430</v>
       </c>
       <c r="F89" t="n">
-        <v>28.593</v>
+        <v>21.35</v>
       </c>
       <c r="G89" t="n">
-        <v>7486.25</v>
+        <v>7487.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4020,19 +3624,19 @@
         <v>7455</v>
       </c>
       <c r="C90" t="n">
-        <v>7480</v>
+        <v>7455</v>
       </c>
       <c r="D90" t="n">
-        <v>7480</v>
+        <v>7455</v>
       </c>
       <c r="E90" t="n">
         <v>7455</v>
       </c>
       <c r="F90" t="n">
-        <v>495.5321</v>
+        <v>28.593</v>
       </c>
       <c r="G90" t="n">
-        <v>7485.333333333333</v>
+        <v>7486.25</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4058,22 +3662,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7475</v>
+        <v>7455</v>
       </c>
       <c r="C91" t="n">
-        <v>7500</v>
+        <v>7480</v>
       </c>
       <c r="D91" t="n">
-        <v>7500</v>
+        <v>7480</v>
       </c>
       <c r="E91" t="n">
-        <v>7475</v>
+        <v>7455</v>
       </c>
       <c r="F91" t="n">
-        <v>90</v>
+        <v>495.5321</v>
       </c>
       <c r="G91" t="n">
-        <v>7484.916666666667</v>
+        <v>7485.333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4099,22 +3703,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7495</v>
+        <v>7475</v>
       </c>
       <c r="C92" t="n">
-        <v>7495</v>
+        <v>7500</v>
       </c>
       <c r="D92" t="n">
         <v>7500</v>
       </c>
       <c r="E92" t="n">
-        <v>7490</v>
+        <v>7475</v>
       </c>
       <c r="F92" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G92" t="n">
-        <v>7484.75</v>
+        <v>7484.916666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4143,16 +3747,16 @@
         <v>7495</v>
       </c>
       <c r="C93" t="n">
-        <v>7510</v>
+        <v>7495</v>
       </c>
       <c r="D93" t="n">
-        <v>7515</v>
+        <v>7500</v>
       </c>
       <c r="E93" t="n">
-        <v>7495</v>
+        <v>7490</v>
       </c>
       <c r="F93" t="n">
-        <v>130.8</v>
+        <v>93</v>
       </c>
       <c r="G93" t="n">
         <v>7484.75</v>
@@ -4181,22 +3785,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C94" t="n">
         <v>7510</v>
       </c>
-      <c r="C94" t="n">
-        <v>7535</v>
-      </c>
       <c r="D94" t="n">
-        <v>7540</v>
+        <v>7515</v>
       </c>
       <c r="E94" t="n">
-        <v>7510</v>
+        <v>7495</v>
       </c>
       <c r="F94" t="n">
-        <v>33</v>
+        <v>130.8</v>
       </c>
       <c r="G94" t="n">
-        <v>7485.416666666667</v>
+        <v>7484.75</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4222,22 +3826,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7530</v>
+        <v>7510</v>
       </c>
       <c r="C95" t="n">
-        <v>7540</v>
+        <v>7535</v>
       </c>
       <c r="D95" t="n">
         <v>7540</v>
       </c>
       <c r="E95" t="n">
-        <v>7530</v>
+        <v>7510</v>
       </c>
       <c r="F95" t="n">
-        <v>641.1168</v>
+        <v>33</v>
       </c>
       <c r="G95" t="n">
-        <v>7485.5</v>
+        <v>7485.416666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4263,7 +3867,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7540</v>
+        <v>7530</v>
       </c>
       <c r="C96" t="n">
         <v>7540</v>
@@ -4272,13 +3876,13 @@
         <v>7540</v>
       </c>
       <c r="E96" t="n">
-        <v>7540</v>
+        <v>7530</v>
       </c>
       <c r="F96" t="n">
-        <v>4.13</v>
+        <v>641.1168</v>
       </c>
       <c r="G96" t="n">
-        <v>7486.166666666667</v>
+        <v>7485.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4304,7 +3908,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7460</v>
+        <v>7540</v>
       </c>
       <c r="C97" t="n">
         <v>7540</v>
@@ -4313,13 +3917,13 @@
         <v>7540</v>
       </c>
       <c r="E97" t="n">
-        <v>7460</v>
+        <v>7540</v>
       </c>
       <c r="F97" t="n">
-        <v>265.8559</v>
+        <v>4.13</v>
       </c>
       <c r="G97" t="n">
-        <v>7486.916666666667</v>
+        <v>7486.166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4345,22 +3949,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7535</v>
+        <v>7460</v>
       </c>
       <c r="C98" t="n">
-        <v>7515</v>
+        <v>7540</v>
       </c>
       <c r="D98" t="n">
-        <v>7535</v>
+        <v>7540</v>
       </c>
       <c r="E98" t="n">
-        <v>7205</v>
+        <v>7460</v>
       </c>
       <c r="F98" t="n">
-        <v>1931.9218</v>
+        <v>265.8559</v>
       </c>
       <c r="G98" t="n">
-        <v>7488.25</v>
+        <v>7486.916666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4386,19 +3990,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7520</v>
+        <v>7535</v>
       </c>
       <c r="C99" t="n">
-        <v>7490</v>
+        <v>7515</v>
       </c>
       <c r="D99" t="n">
-        <v>7520</v>
+        <v>7535</v>
       </c>
       <c r="E99" t="n">
-        <v>7475</v>
+        <v>7205</v>
       </c>
       <c r="F99" t="n">
-        <v>201.4</v>
+        <v>1931.9218</v>
       </c>
       <c r="G99" t="n">
         <v>7488.25</v>
@@ -4427,22 +4031,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7480</v>
+        <v>7520</v>
       </c>
       <c r="C100" t="n">
-        <v>7480</v>
+        <v>7490</v>
       </c>
       <c r="D100" t="n">
-        <v>7480</v>
+        <v>7520</v>
       </c>
       <c r="E100" t="n">
         <v>7475</v>
       </c>
       <c r="F100" t="n">
-        <v>43.0656</v>
+        <v>201.4</v>
       </c>
       <c r="G100" t="n">
-        <v>7488.166666666667</v>
+        <v>7488.25</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4468,22 +4072,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>7480</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7480</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7480</v>
+      </c>
+      <c r="E101" t="n">
         <v>7475</v>
       </c>
-      <c r="C101" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D101" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7465</v>
-      </c>
       <c r="F101" t="n">
-        <v>610.7525000000001</v>
+        <v>43.0656</v>
       </c>
       <c r="G101" t="n">
-        <v>7488.083333333333</v>
+        <v>7488.166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4509,22 +4113,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7445</v>
+        <v>7475</v>
       </c>
       <c r="C102" t="n">
-        <v>7445</v>
+        <v>7495</v>
       </c>
       <c r="D102" t="n">
-        <v>7445</v>
+        <v>7495</v>
       </c>
       <c r="E102" t="n">
-        <v>7445</v>
+        <v>7465</v>
       </c>
       <c r="F102" t="n">
-        <v>7.1811</v>
+        <v>610.7525000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>7486.75</v>
+        <v>7488.083333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4550,22 +4154,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7495</v>
+        <v>7445</v>
       </c>
       <c r="C103" t="n">
-        <v>7495</v>
+        <v>7445</v>
       </c>
       <c r="D103" t="n">
-        <v>7495</v>
+        <v>7445</v>
       </c>
       <c r="E103" t="n">
-        <v>7495</v>
+        <v>7445</v>
       </c>
       <c r="F103" t="n">
-        <v>94.7409</v>
+        <v>7.1811</v>
       </c>
       <c r="G103" t="n">
-        <v>7486.25</v>
+        <v>7486.75</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4594,19 +4198,19 @@
         <v>7495</v>
       </c>
       <c r="C104" t="n">
-        <v>7500</v>
+        <v>7495</v>
       </c>
       <c r="D104" t="n">
-        <v>7500</v>
+        <v>7495</v>
       </c>
       <c r="E104" t="n">
-        <v>7485</v>
+        <v>7495</v>
       </c>
       <c r="F104" t="n">
-        <v>86.00729333</v>
+        <v>94.7409</v>
       </c>
       <c r="G104" t="n">
-        <v>7485.75</v>
+        <v>7486.25</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4635,19 +4239,19 @@
         <v>7495</v>
       </c>
       <c r="C105" t="n">
-        <v>7495</v>
+        <v>7500</v>
       </c>
       <c r="D105" t="n">
-        <v>7495</v>
+        <v>7500</v>
       </c>
       <c r="E105" t="n">
-        <v>7495</v>
+        <v>7485</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>86.00729333</v>
       </c>
       <c r="G105" t="n">
-        <v>7484.75</v>
+        <v>7485.75</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4685,10 +4289,10 @@
         <v>7495</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>7483.833333333333</v>
+        <v>7484.75</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4714,22 +4318,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7440</v>
+        <v>7495</v>
       </c>
       <c r="C107" t="n">
-        <v>7440</v>
+        <v>7495</v>
       </c>
       <c r="D107" t="n">
-        <v>7440</v>
+        <v>7495</v>
       </c>
       <c r="E107" t="n">
-        <v>7440</v>
+        <v>7495</v>
       </c>
       <c r="F107" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>7481.916666666667</v>
+        <v>7483.833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4755,22 +4359,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7480</v>
+        <v>7440</v>
       </c>
       <c r="C108" t="n">
-        <v>7495</v>
+        <v>7440</v>
       </c>
       <c r="D108" t="n">
-        <v>7495</v>
+        <v>7440</v>
       </c>
       <c r="E108" t="n">
-        <v>7480</v>
+        <v>7440</v>
       </c>
       <c r="F108" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G108" t="n">
-        <v>7480.916666666667</v>
+        <v>7481.916666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4796,22 +4400,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>7480</v>
+      </c>
+      <c r="C109" t="n">
         <v>7495</v>
       </c>
-      <c r="C109" t="n">
-        <v>7500</v>
-      </c>
       <c r="D109" t="n">
-        <v>7500</v>
+        <v>7495</v>
       </c>
       <c r="E109" t="n">
-        <v>7490</v>
+        <v>7480</v>
       </c>
       <c r="F109" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G109" t="n">
-        <v>7480.166666666667</v>
+        <v>7480.916666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4837,22 +4441,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C110" t="n">
         <v>7500</v>
       </c>
-      <c r="C110" t="n">
-        <v>7505</v>
-      </c>
       <c r="D110" t="n">
-        <v>7505</v>
+        <v>7500</v>
       </c>
       <c r="E110" t="n">
-        <v>7500</v>
+        <v>7490</v>
       </c>
       <c r="F110" t="n">
         <v>90</v>
       </c>
       <c r="G110" t="n">
-        <v>7480.25</v>
+        <v>7480.166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4878,22 +4482,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C111" t="n">
         <v>7505</v>
       </c>
-      <c r="C111" t="n">
-        <v>7530</v>
-      </c>
       <c r="D111" t="n">
-        <v>7530</v>
+        <v>7505</v>
       </c>
       <c r="E111" t="n">
-        <v>7505</v>
+        <v>7500</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="G111" t="n">
-        <v>7480.75</v>
+        <v>7480.25</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4919,22 +4523,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7525</v>
+        <v>7505</v>
       </c>
       <c r="C112" t="n">
-        <v>7520</v>
+        <v>7530</v>
       </c>
       <c r="D112" t="n">
-        <v>7525</v>
+        <v>7530</v>
       </c>
       <c r="E112" t="n">
-        <v>7510</v>
+        <v>7505</v>
       </c>
       <c r="F112" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>7480.25</v>
+        <v>7480.75</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4960,22 +4564,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>7525</v>
+      </c>
+      <c r="C113" t="n">
         <v>7520</v>
       </c>
-      <c r="C113" t="n">
-        <v>7500</v>
-      </c>
       <c r="D113" t="n">
-        <v>7520</v>
+        <v>7525</v>
       </c>
       <c r="E113" t="n">
-        <v>7500</v>
+        <v>7510</v>
       </c>
       <c r="F113" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G113" t="n">
-        <v>7479.416666666667</v>
+        <v>7480.25</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5001,22 +4605,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7515</v>
+        <v>7520</v>
       </c>
       <c r="C114" t="n">
-        <v>7515</v>
+        <v>7500</v>
       </c>
       <c r="D114" t="n">
-        <v>7515</v>
+        <v>7520</v>
       </c>
       <c r="E114" t="n">
-        <v>7515</v>
+        <v>7500</v>
       </c>
       <c r="F114" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G114" t="n">
-        <v>7478.833333333333</v>
+        <v>7479.416666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5057,7 +4661,7 @@
         <v>15</v>
       </c>
       <c r="G115" t="n">
-        <v>7478.916666666667</v>
+        <v>7478.833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5083,22 +4687,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7470</v>
+        <v>7515</v>
       </c>
       <c r="C116" t="n">
-        <v>7510</v>
+        <v>7515</v>
       </c>
       <c r="D116" t="n">
         <v>7515</v>
       </c>
       <c r="E116" t="n">
-        <v>7470</v>
+        <v>7515</v>
       </c>
       <c r="F116" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G116" t="n">
-        <v>7479.083333333333</v>
+        <v>7478.916666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5124,22 +4728,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>7470</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7510</v>
+      </c>
+      <c r="D117" t="n">
         <v>7515</v>
       </c>
-      <c r="C117" t="n">
-        <v>7475</v>
-      </c>
-      <c r="D117" t="n">
-        <v>7520</v>
-      </c>
       <c r="E117" t="n">
-        <v>7475</v>
+        <v>7470</v>
       </c>
       <c r="F117" t="n">
-        <v>30.6161</v>
+        <v>47</v>
       </c>
       <c r="G117" t="n">
-        <v>7478</v>
+        <v>7479.083333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5165,22 +4769,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7520</v>
+        <v>7515</v>
       </c>
       <c r="C118" t="n">
-        <v>7515</v>
+        <v>7475</v>
       </c>
       <c r="D118" t="n">
         <v>7520</v>
       </c>
       <c r="E118" t="n">
-        <v>7515</v>
+        <v>7475</v>
       </c>
       <c r="F118" t="n">
-        <v>26</v>
+        <v>30.6161</v>
       </c>
       <c r="G118" t="n">
-        <v>7477.5</v>
+        <v>7478</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5206,22 +4810,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>7520</v>
+      </c>
+      <c r="C119" t="n">
         <v>7515</v>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>7520</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7545</v>
       </c>
       <c r="E119" t="n">
         <v>7515</v>
       </c>
       <c r="F119" t="n">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="G119" t="n">
-        <v>7477.75</v>
+        <v>7477.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5247,22 +4851,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7540</v>
+        <v>7515</v>
       </c>
       <c r="C120" t="n">
-        <v>7550</v>
+        <v>7520</v>
       </c>
       <c r="D120" t="n">
-        <v>7550</v>
+        <v>7545</v>
       </c>
       <c r="E120" t="n">
-        <v>7540</v>
+        <v>7515</v>
       </c>
       <c r="F120" t="n">
-        <v>166.0626</v>
+        <v>258</v>
       </c>
       <c r="G120" t="n">
-        <v>7477.833333333333</v>
+        <v>7477.75</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5288,22 +4892,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7510</v>
+        <v>7540</v>
       </c>
       <c r="C121" t="n">
-        <v>7510</v>
+        <v>7550</v>
       </c>
       <c r="D121" t="n">
-        <v>7510</v>
+        <v>7550</v>
       </c>
       <c r="E121" t="n">
-        <v>7510</v>
+        <v>7540</v>
       </c>
       <c r="F121" t="n">
-        <v>25.4641</v>
+        <v>166.0626</v>
       </c>
       <c r="G121" t="n">
-        <v>7478</v>
+        <v>7477.833333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5329,22 +4933,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7505</v>
+        <v>7510</v>
       </c>
       <c r="C122" t="n">
-        <v>7505</v>
+        <v>7510</v>
       </c>
       <c r="D122" t="n">
-        <v>7505</v>
+        <v>7510</v>
       </c>
       <c r="E122" t="n">
-        <v>7505</v>
+        <v>7510</v>
       </c>
       <c r="F122" t="n">
-        <v>83</v>
+        <v>25.4641</v>
       </c>
       <c r="G122" t="n">
-        <v>7478.083333333333</v>
+        <v>7478</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5373,16 +4977,16 @@
         <v>7505</v>
       </c>
       <c r="C123" t="n">
-        <v>7500</v>
+        <v>7505</v>
       </c>
       <c r="D123" t="n">
         <v>7505</v>
       </c>
       <c r="E123" t="n">
-        <v>7500</v>
+        <v>7505</v>
       </c>
       <c r="F123" t="n">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="G123" t="n">
         <v>7478.083333333333</v>
@@ -5411,22 +5015,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7500</v>
+        <v>7505</v>
       </c>
       <c r="C124" t="n">
         <v>7500</v>
       </c>
       <c r="D124" t="n">
-        <v>7500</v>
+        <v>7505</v>
       </c>
       <c r="E124" t="n">
         <v>7500</v>
       </c>
       <c r="F124" t="n">
-        <v>25.667</v>
+        <v>19</v>
       </c>
       <c r="G124" t="n">
-        <v>7478.333333333333</v>
+        <v>7478.083333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5464,7 +5068,7 @@
         <v>7500</v>
       </c>
       <c r="F125" t="n">
-        <v>29</v>
+        <v>25.667</v>
       </c>
       <c r="G125" t="n">
         <v>7478.333333333333</v>
@@ -5496,19 +5100,19 @@
         <v>7500</v>
       </c>
       <c r="C126" t="n">
-        <v>7520</v>
+        <v>7500</v>
       </c>
       <c r="D126" t="n">
-        <v>7520</v>
+        <v>7500</v>
       </c>
       <c r="E126" t="n">
         <v>7500</v>
       </c>
       <c r="F126" t="n">
-        <v>51.0258</v>
+        <v>29</v>
       </c>
       <c r="G126" t="n">
-        <v>7478.833333333333</v>
+        <v>7478.333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5534,22 +5138,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7540</v>
+        <v>7500</v>
       </c>
       <c r="C127" t="n">
-        <v>7545</v>
+        <v>7520</v>
       </c>
       <c r="D127" t="n">
-        <v>7555</v>
+        <v>7520</v>
       </c>
       <c r="E127" t="n">
-        <v>7540</v>
+        <v>7500</v>
       </c>
       <c r="F127" t="n">
-        <v>581.7155</v>
+        <v>51.0258</v>
       </c>
       <c r="G127" t="n">
-        <v>7479.833333333333</v>
+        <v>7478.833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5575,22 +5179,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>7540</v>
+      </c>
+      <c r="C128" t="n">
         <v>7545</v>
       </c>
-      <c r="C128" t="n">
-        <v>7550</v>
-      </c>
       <c r="D128" t="n">
-        <v>7550</v>
+        <v>7555</v>
       </c>
       <c r="E128" t="n">
-        <v>7545</v>
+        <v>7540</v>
       </c>
       <c r="F128" t="n">
-        <v>25.4732</v>
+        <v>581.7155</v>
       </c>
       <c r="G128" t="n">
-        <v>7481.333333333333</v>
+        <v>7479.833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5616,7 +5220,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7530</v>
+        <v>7545</v>
       </c>
       <c r="C129" t="n">
         <v>7550</v>
@@ -5625,13 +5229,13 @@
         <v>7550</v>
       </c>
       <c r="E129" t="n">
-        <v>7530</v>
+        <v>7545</v>
       </c>
       <c r="F129" t="n">
-        <v>71.4509</v>
+        <v>25.4732</v>
       </c>
       <c r="G129" t="n">
-        <v>7482.833333333333</v>
+        <v>7481.333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5657,22 +5261,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7555</v>
+        <v>7530</v>
       </c>
       <c r="C130" t="n">
-        <v>7565</v>
+        <v>7550</v>
       </c>
       <c r="D130" t="n">
-        <v>7565</v>
+        <v>7550</v>
       </c>
       <c r="E130" t="n">
-        <v>7555</v>
+        <v>7530</v>
       </c>
       <c r="F130" t="n">
-        <v>301.7682</v>
+        <v>71.4509</v>
       </c>
       <c r="G130" t="n">
-        <v>7484.75</v>
+        <v>7482.833333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5698,22 +5302,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7570</v>
+        <v>7555</v>
       </c>
       <c r="C131" t="n">
-        <v>7575</v>
+        <v>7565</v>
       </c>
       <c r="D131" t="n">
-        <v>7575</v>
+        <v>7565</v>
       </c>
       <c r="E131" t="n">
-        <v>7570</v>
+        <v>7555</v>
       </c>
       <c r="F131" t="n">
-        <v>140.4571</v>
+        <v>301.7682</v>
       </c>
       <c r="G131" t="n">
-        <v>7486.833333333333</v>
+        <v>7484.75</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5739,22 +5343,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>7570</v>
+      </c>
+      <c r="C132" t="n">
         <v>7575</v>
       </c>
-      <c r="C132" t="n">
-        <v>7580</v>
-      </c>
       <c r="D132" t="n">
-        <v>7580</v>
+        <v>7575</v>
       </c>
       <c r="E132" t="n">
         <v>7570</v>
       </c>
       <c r="F132" t="n">
-        <v>119.5744</v>
+        <v>140.4571</v>
       </c>
       <c r="G132" t="n">
-        <v>7489.333333333333</v>
+        <v>7486.833333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5780,22 +5384,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7585</v>
+        <v>7575</v>
       </c>
       <c r="C133" t="n">
-        <v>7585</v>
+        <v>7580</v>
       </c>
       <c r="D133" t="n">
-        <v>7585</v>
+        <v>7580</v>
       </c>
       <c r="E133" t="n">
-        <v>7585</v>
+        <v>7570</v>
       </c>
       <c r="F133" t="n">
-        <v>278.4529</v>
+        <v>119.5744</v>
       </c>
       <c r="G133" t="n">
-        <v>7491.916666666667</v>
+        <v>7489.333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5833,10 +5437,10 @@
         <v>7585</v>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>278.4529</v>
       </c>
       <c r="G134" t="n">
-        <v>7494.583333333333</v>
+        <v>7491.916666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5862,22 +5466,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7590</v>
+        <v>7585</v>
       </c>
       <c r="C135" t="n">
-        <v>7595</v>
+        <v>7585</v>
       </c>
       <c r="D135" t="n">
-        <v>7595</v>
+        <v>7585</v>
       </c>
       <c r="E135" t="n">
-        <v>7590</v>
+        <v>7585</v>
       </c>
       <c r="F135" t="n">
-        <v>222.5292</v>
+        <v>200</v>
       </c>
       <c r="G135" t="n">
-        <v>7497.5</v>
+        <v>7494.583333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5903,22 +5507,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7600</v>
+        <v>7590</v>
       </c>
       <c r="C136" t="n">
-        <v>7640</v>
+        <v>7595</v>
       </c>
       <c r="D136" t="n">
-        <v>7650</v>
+        <v>7595</v>
       </c>
       <c r="E136" t="n">
-        <v>7600</v>
+        <v>7590</v>
       </c>
       <c r="F136" t="n">
-        <v>378.54248823</v>
+        <v>222.5292</v>
       </c>
       <c r="G136" t="n">
-        <v>7501.5</v>
+        <v>7497.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5944,22 +5548,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C137" t="n">
         <v>7640</v>
       </c>
-      <c r="C137" t="n">
-        <v>7655</v>
-      </c>
       <c r="D137" t="n">
-        <v>7655</v>
+        <v>7650</v>
       </c>
       <c r="E137" t="n">
-        <v>7560</v>
+        <v>7600</v>
       </c>
       <c r="F137" t="n">
-        <v>1807.11631177</v>
+        <v>378.54248823</v>
       </c>
       <c r="G137" t="n">
-        <v>7505.75</v>
+        <v>7501.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5985,22 +5589,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7660</v>
+        <v>7640</v>
       </c>
       <c r="C138" t="n">
-        <v>7665</v>
+        <v>7655</v>
       </c>
       <c r="D138" t="n">
-        <v>7665</v>
+        <v>7655</v>
       </c>
       <c r="E138" t="n">
-        <v>7660</v>
+        <v>7560</v>
       </c>
       <c r="F138" t="n">
-        <v>129.555</v>
+        <v>1807.11631177</v>
       </c>
       <c r="G138" t="n">
-        <v>7510.666666666667</v>
+        <v>7505.75</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6026,22 +5630,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7590</v>
+        <v>7660</v>
       </c>
       <c r="C139" t="n">
-        <v>7565</v>
+        <v>7665</v>
       </c>
       <c r="D139" t="n">
-        <v>7590</v>
+        <v>7665</v>
       </c>
       <c r="E139" t="n">
-        <v>7565</v>
+        <v>7660</v>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>129.555</v>
       </c>
       <c r="G139" t="n">
-        <v>7513.416666666667</v>
+        <v>7510.666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6059,7 +5663,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>1.013169582772544</v>
+        <v>1.026628532974428</v>
       </c>
     </row>
     <row r="140">
@@ -6067,22 +5671,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7645</v>
+        <v>7590</v>
       </c>
       <c r="C140" t="n">
-        <v>7645</v>
+        <v>7565</v>
       </c>
       <c r="D140" t="n">
-        <v>7645</v>
+        <v>7590</v>
       </c>
       <c r="E140" t="n">
-        <v>7645</v>
+        <v>7565</v>
       </c>
       <c r="F140" t="n">
-        <v>20.07</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>7517.5</v>
+        <v>7513.416666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6102,7 +5706,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7640</v>
+        <v>7645</v>
       </c>
       <c r="C141" t="n">
         <v>7645</v>
@@ -6111,19 +5715,19 @@
         <v>7645</v>
       </c>
       <c r="E141" t="n">
-        <v>7640</v>
+        <v>7645</v>
       </c>
       <c r="F141" t="n">
-        <v>45.2117</v>
+        <v>20.07</v>
       </c>
       <c r="G141" t="n">
-        <v>7520.25</v>
+        <v>7517.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -6137,22 +5741,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7610</v>
+        <v>7640</v>
       </c>
       <c r="C142" t="n">
-        <v>7605</v>
+        <v>7645</v>
       </c>
       <c r="D142" t="n">
-        <v>7610</v>
+        <v>7645</v>
       </c>
       <c r="E142" t="n">
-        <v>7605</v>
+        <v>7640</v>
       </c>
       <c r="F142" t="n">
-        <v>41.1084</v>
+        <v>45.2117</v>
       </c>
       <c r="G142" t="n">
-        <v>7522.166666666667</v>
+        <v>7520.25</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6172,28 +5776,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7605</v>
+        <v>7610</v>
       </c>
       <c r="C143" t="n">
         <v>7605</v>
       </c>
       <c r="D143" t="n">
-        <v>7605</v>
+        <v>7610</v>
       </c>
       <c r="E143" t="n">
         <v>7605</v>
       </c>
       <c r="F143" t="n">
-        <v>146.2529</v>
+        <v>41.1084</v>
       </c>
       <c r="G143" t="n">
-        <v>7525.083333333333</v>
+        <v>7522.166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6219,16 +5823,16 @@
         <v>7605</v>
       </c>
       <c r="F144" t="n">
-        <v>159</v>
+        <v>146.2529</v>
       </c>
       <c r="G144" t="n">
-        <v>7527.75</v>
+        <v>7525.083333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6242,22 +5846,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7620</v>
+        <v>7605</v>
       </c>
       <c r="C145" t="n">
-        <v>7620</v>
+        <v>7605</v>
       </c>
       <c r="D145" t="n">
-        <v>7620</v>
+        <v>7605</v>
       </c>
       <c r="E145" t="n">
-        <v>7620</v>
+        <v>7605</v>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="G145" t="n">
-        <v>7530.833333333333</v>
+        <v>7527.75</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6277,22 +5881,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>7655</v>
+        <v>7620</v>
       </c>
       <c r="C146" t="n">
-        <v>7665</v>
+        <v>7620</v>
       </c>
       <c r="D146" t="n">
-        <v>7665</v>
+        <v>7620</v>
       </c>
       <c r="E146" t="n">
-        <v>7655</v>
+        <v>7620</v>
       </c>
       <c r="F146" t="n">
-        <v>667.7368</v>
+        <v>20</v>
       </c>
       <c r="G146" t="n">
-        <v>7534.75</v>
+        <v>7530.833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6312,22 +5916,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7670</v>
+        <v>7655</v>
       </c>
       <c r="C147" t="n">
-        <v>7670</v>
+        <v>7665</v>
       </c>
       <c r="D147" t="n">
-        <v>7670</v>
+        <v>7665</v>
       </c>
       <c r="E147" t="n">
-        <v>7670</v>
+        <v>7655</v>
       </c>
       <c r="F147" t="n">
-        <v>294.487</v>
+        <v>667.7368</v>
       </c>
       <c r="G147" t="n">
-        <v>7538.333333333333</v>
+        <v>7534.75</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6347,22 +5951,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>7615</v>
+        <v>7670</v>
       </c>
       <c r="C148" t="n">
-        <v>7585</v>
+        <v>7670</v>
       </c>
       <c r="D148" t="n">
-        <v>7615</v>
+        <v>7670</v>
       </c>
       <c r="E148" t="n">
-        <v>7585</v>
+        <v>7670</v>
       </c>
       <c r="F148" t="n">
-        <v>282.3359</v>
+        <v>294.487</v>
       </c>
       <c r="G148" t="n">
-        <v>7540.5</v>
+        <v>7538.333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6382,22 +5986,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>7585</v>
+        <v>7615</v>
       </c>
       <c r="C149" t="n">
         <v>7585</v>
       </c>
       <c r="D149" t="n">
-        <v>7585</v>
+        <v>7615</v>
       </c>
       <c r="E149" t="n">
         <v>7585</v>
       </c>
       <c r="F149" t="n">
-        <v>12.1511</v>
+        <v>282.3359</v>
       </c>
       <c r="G149" t="n">
-        <v>7542.666666666667</v>
+        <v>7540.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6417,22 +6021,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7600</v>
+        <v>7585</v>
       </c>
       <c r="C150" t="n">
-        <v>7595</v>
+        <v>7585</v>
       </c>
       <c r="D150" t="n">
-        <v>7600</v>
+        <v>7585</v>
       </c>
       <c r="E150" t="n">
-        <v>7595</v>
+        <v>7585</v>
       </c>
       <c r="F150" t="n">
-        <v>51.7591</v>
+        <v>12.1511</v>
       </c>
       <c r="G150" t="n">
-        <v>7544.583333333333</v>
+        <v>7542.666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6452,22 +6056,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7595</v>
+        <v>7600</v>
       </c>
       <c r="C151" t="n">
         <v>7595</v>
       </c>
       <c r="D151" t="n">
-        <v>7595</v>
+        <v>7600</v>
       </c>
       <c r="E151" t="n">
         <v>7595</v>
       </c>
       <c r="F151" t="n">
-        <v>358.6658</v>
+        <v>51.7591</v>
       </c>
       <c r="G151" t="n">
-        <v>7546.166666666667</v>
+        <v>7544.583333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6499,10 +6103,10 @@
         <v>7595</v>
       </c>
       <c r="F152" t="n">
-        <v>34.0941</v>
+        <v>358.6658</v>
       </c>
       <c r="G152" t="n">
-        <v>7547.833333333333</v>
+        <v>7546.166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6522,22 +6126,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>7590</v>
+        <v>7595</v>
       </c>
       <c r="C153" t="n">
-        <v>7620</v>
+        <v>7595</v>
       </c>
       <c r="D153" t="n">
-        <v>7620</v>
+        <v>7595</v>
       </c>
       <c r="E153" t="n">
-        <v>7590</v>
+        <v>7595</v>
       </c>
       <c r="F153" t="n">
-        <v>109.7854</v>
+        <v>34.0941</v>
       </c>
       <c r="G153" t="n">
-        <v>7549.666666666667</v>
+        <v>7547.833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6557,22 +6161,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>7590</v>
+      </c>
+      <c r="C154" t="n">
         <v>7620</v>
       </c>
-      <c r="C154" t="n">
-        <v>7630</v>
-      </c>
       <c r="D154" t="n">
-        <v>7630</v>
+        <v>7620</v>
       </c>
       <c r="E154" t="n">
-        <v>7620</v>
+        <v>7590</v>
       </c>
       <c r="F154" t="n">
-        <v>76.47629999999999</v>
+        <v>109.7854</v>
       </c>
       <c r="G154" t="n">
-        <v>7551.25</v>
+        <v>7549.666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6592,7 +6196,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>7630</v>
+        <v>7620</v>
       </c>
       <c r="C155" t="n">
         <v>7630</v>
@@ -6601,13 +6205,13 @@
         <v>7630</v>
       </c>
       <c r="E155" t="n">
-        <v>7630</v>
+        <v>7620</v>
       </c>
       <c r="F155" t="n">
-        <v>12.0993</v>
+        <v>76.47629999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>7552.75</v>
+        <v>7551.25</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6627,22 +6231,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="C156" t="n">
-        <v>7660</v>
+        <v>7630</v>
       </c>
       <c r="D156" t="n">
-        <v>7660</v>
+        <v>7630</v>
       </c>
       <c r="E156" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="F156" t="n">
-        <v>57.05</v>
+        <v>12.0993</v>
       </c>
       <c r="G156" t="n">
-        <v>7554.75</v>
+        <v>7552.75</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6662,22 +6266,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7655</v>
+        <v>7635</v>
       </c>
       <c r="C157" t="n">
-        <v>7655</v>
+        <v>7660</v>
       </c>
       <c r="D157" t="n">
-        <v>7655</v>
+        <v>7660</v>
       </c>
       <c r="E157" t="n">
-        <v>7655</v>
+        <v>7635</v>
       </c>
       <c r="F157" t="n">
-        <v>4.23</v>
+        <v>57.05</v>
       </c>
       <c r="G157" t="n">
-        <v>7556.666666666667</v>
+        <v>7554.75</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6697,22 +6301,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>7660</v>
+        <v>7655</v>
       </c>
       <c r="C158" t="n">
-        <v>7680</v>
+        <v>7655</v>
       </c>
       <c r="D158" t="n">
-        <v>7680</v>
+        <v>7655</v>
       </c>
       <c r="E158" t="n">
-        <v>7660</v>
+        <v>7655</v>
       </c>
       <c r="F158" t="n">
-        <v>300.9974</v>
+        <v>4.23</v>
       </c>
       <c r="G158" t="n">
-        <v>7559.416666666667</v>
+        <v>7556.666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6732,22 +6336,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>7660</v>
+      </c>
+      <c r="C159" t="n">
         <v>7680</v>
-      </c>
-      <c r="C159" t="n">
-        <v>7670</v>
       </c>
       <c r="D159" t="n">
         <v>7680</v>
       </c>
       <c r="E159" t="n">
-        <v>7670</v>
+        <v>7660</v>
       </c>
       <c r="F159" t="n">
-        <v>6</v>
+        <v>300.9974</v>
       </c>
       <c r="G159" t="n">
-        <v>7562.416666666667</v>
+        <v>7559.416666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6767,22 +6371,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>7670</v>
+        <v>7680</v>
       </c>
       <c r="C160" t="n">
         <v>7670</v>
       </c>
       <c r="D160" t="n">
-        <v>7670</v>
+        <v>7680</v>
       </c>
       <c r="E160" t="n">
         <v>7670</v>
       </c>
       <c r="F160" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="G160" t="n">
-        <v>7565.583333333333</v>
+        <v>7562.416666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6802,22 +6406,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>7615</v>
+        <v>7670</v>
       </c>
       <c r="C161" t="n">
-        <v>7615</v>
+        <v>7670</v>
       </c>
       <c r="D161" t="n">
-        <v>7615</v>
+        <v>7670</v>
       </c>
       <c r="E161" t="n">
-        <v>7615</v>
+        <v>7670</v>
       </c>
       <c r="F161" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="G161" t="n">
-        <v>7567.583333333333</v>
+        <v>7565.583333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6837,22 +6441,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>7630</v>
+        <v>7615</v>
       </c>
       <c r="C162" t="n">
-        <v>7630</v>
+        <v>7615</v>
       </c>
       <c r="D162" t="n">
-        <v>7630</v>
+        <v>7615</v>
       </c>
       <c r="E162" t="n">
-        <v>7630</v>
+        <v>7615</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1868</v>
+        <v>32</v>
       </c>
       <c r="G162" t="n">
-        <v>7570.666666666667</v>
+        <v>7567.583333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6875,19 +6479,19 @@
         <v>7630</v>
       </c>
       <c r="C163" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="D163" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="E163" t="n">
         <v>7630</v>
       </c>
       <c r="F163" t="n">
-        <v>132.5762</v>
+        <v>0.1868</v>
       </c>
       <c r="G163" t="n">
-        <v>7573</v>
+        <v>7570.666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6907,22 +6511,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>7610</v>
+        <v>7630</v>
       </c>
       <c r="C164" t="n">
-        <v>7585</v>
+        <v>7635</v>
       </c>
       <c r="D164" t="n">
-        <v>7610</v>
+        <v>7635</v>
       </c>
       <c r="E164" t="n">
-        <v>7585</v>
+        <v>7630</v>
       </c>
       <c r="F164" t="n">
-        <v>68</v>
+        <v>132.5762</v>
       </c>
       <c r="G164" t="n">
-        <v>7574.416666666667</v>
+        <v>7573</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6942,22 +6546,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7655</v>
+        <v>7610</v>
       </c>
       <c r="C165" t="n">
-        <v>7655</v>
+        <v>7585</v>
       </c>
       <c r="D165" t="n">
-        <v>7655</v>
+        <v>7610</v>
       </c>
       <c r="E165" t="n">
-        <v>7655</v>
+        <v>7585</v>
       </c>
       <c r="F165" t="n">
-        <v>130.5646</v>
+        <v>68</v>
       </c>
       <c r="G165" t="n">
-        <v>7577.083333333333</v>
+        <v>7574.416666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6977,22 +6581,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7650</v>
+        <v>7655</v>
       </c>
       <c r="C166" t="n">
-        <v>7650</v>
+        <v>7655</v>
       </c>
       <c r="D166" t="n">
-        <v>7650</v>
+        <v>7655</v>
       </c>
       <c r="E166" t="n">
-        <v>7650</v>
+        <v>7655</v>
       </c>
       <c r="F166" t="n">
-        <v>25.4412</v>
+        <v>130.5646</v>
       </c>
       <c r="G166" t="n">
-        <v>7579.666666666667</v>
+        <v>7577.083333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7012,22 +6616,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7645</v>
+        <v>7650</v>
       </c>
       <c r="C167" t="n">
-        <v>7645</v>
+        <v>7650</v>
       </c>
       <c r="D167" t="n">
-        <v>7645</v>
+        <v>7650</v>
       </c>
       <c r="E167" t="n">
-        <v>7645</v>
+        <v>7650</v>
       </c>
       <c r="F167" t="n">
-        <v>4.83</v>
+        <v>25.4412</v>
       </c>
       <c r="G167" t="n">
-        <v>7583.083333333333</v>
+        <v>7579.666666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7059,10 +6663,10 @@
         <v>7645</v>
       </c>
       <c r="F168" t="n">
-        <v>62</v>
+        <v>4.83</v>
       </c>
       <c r="G168" t="n">
-        <v>7585.583333333333</v>
+        <v>7583.083333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7094,10 +6698,10 @@
         <v>7645</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2094</v>
+        <v>62</v>
       </c>
       <c r="G169" t="n">
-        <v>7588</v>
+        <v>7585.583333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7129,10 +6733,10 @@
         <v>7645</v>
       </c>
       <c r="F170" t="n">
-        <v>2.7906</v>
+        <v>0.2094</v>
       </c>
       <c r="G170" t="n">
-        <v>7590.333333333333</v>
+        <v>7588</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7152,22 +6756,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>7650</v>
+        <v>7645</v>
       </c>
       <c r="C171" t="n">
-        <v>7650</v>
+        <v>7645</v>
       </c>
       <c r="D171" t="n">
-        <v>7650</v>
+        <v>7645</v>
       </c>
       <c r="E171" t="n">
-        <v>7650</v>
+        <v>7645</v>
       </c>
       <c r="F171" t="n">
-        <v>21</v>
+        <v>2.7906</v>
       </c>
       <c r="G171" t="n">
-        <v>7592.333333333333</v>
+        <v>7590.333333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7187,22 +6791,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>7645</v>
+        <v>7650</v>
       </c>
       <c r="C172" t="n">
-        <v>7625</v>
+        <v>7650</v>
       </c>
       <c r="D172" t="n">
-        <v>7645</v>
+        <v>7650</v>
       </c>
       <c r="E172" t="n">
-        <v>7625</v>
+        <v>7650</v>
       </c>
       <c r="F172" t="n">
-        <v>49.99</v>
+        <v>21</v>
       </c>
       <c r="G172" t="n">
-        <v>7594.083333333333</v>
+        <v>7592.333333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7222,22 +6826,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>7625</v>
+        <v>7645</v>
       </c>
       <c r="C173" t="n">
         <v>7625</v>
       </c>
       <c r="D173" t="n">
-        <v>7625</v>
+        <v>7645</v>
       </c>
       <c r="E173" t="n">
         <v>7625</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5506</v>
+        <v>49.99</v>
       </c>
       <c r="G173" t="n">
-        <v>7596.166666666667</v>
+        <v>7594.083333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7257,22 +6861,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>7655</v>
+        <v>7625</v>
       </c>
       <c r="C174" t="n">
-        <v>7660</v>
+        <v>7625</v>
       </c>
       <c r="D174" t="n">
-        <v>7660</v>
+        <v>7625</v>
       </c>
       <c r="E174" t="n">
-        <v>7655</v>
+        <v>7625</v>
       </c>
       <c r="F174" t="n">
-        <v>217.6112</v>
+        <v>0.5506</v>
       </c>
       <c r="G174" t="n">
-        <v>7598.583333333333</v>
+        <v>7596.166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7292,22 +6896,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>7675</v>
+        <v>7655</v>
       </c>
       <c r="C175" t="n">
-        <v>7685</v>
+        <v>7660</v>
       </c>
       <c r="D175" t="n">
-        <v>7685</v>
+        <v>7660</v>
       </c>
       <c r="E175" t="n">
-        <v>7675</v>
+        <v>7655</v>
       </c>
       <c r="F175" t="n">
-        <v>326.5</v>
+        <v>217.6112</v>
       </c>
       <c r="G175" t="n">
-        <v>7601.416666666667</v>
+        <v>7598.583333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7327,7 +6931,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>7685</v>
+        <v>7675</v>
       </c>
       <c r="C176" t="n">
         <v>7685</v>
@@ -7336,13 +6940,13 @@
         <v>7685</v>
       </c>
       <c r="E176" t="n">
-        <v>7685</v>
+        <v>7675</v>
       </c>
       <c r="F176" t="n">
-        <v>75.2153</v>
+        <v>326.5</v>
       </c>
       <c r="G176" t="n">
-        <v>7604.333333333333</v>
+        <v>7601.416666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7362,22 +6966,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>7675</v>
+        <v>7685</v>
       </c>
       <c r="C177" t="n">
-        <v>7660</v>
+        <v>7685</v>
       </c>
       <c r="D177" t="n">
-        <v>7675</v>
+        <v>7685</v>
       </c>
       <c r="E177" t="n">
-        <v>7660</v>
+        <v>7685</v>
       </c>
       <c r="F177" t="n">
-        <v>46.5</v>
+        <v>75.2153</v>
       </c>
       <c r="G177" t="n">
-        <v>7607.416666666667</v>
+        <v>7604.333333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7397,22 +7001,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>7700</v>
+        <v>7675</v>
       </c>
       <c r="C178" t="n">
-        <v>7700</v>
+        <v>7660</v>
       </c>
       <c r="D178" t="n">
-        <v>7700</v>
+        <v>7675</v>
       </c>
       <c r="E178" t="n">
-        <v>7700</v>
+        <v>7660</v>
       </c>
       <c r="F178" t="n">
-        <v>12.1506</v>
+        <v>46.5</v>
       </c>
       <c r="G178" t="n">
-        <v>7610.5</v>
+        <v>7607.416666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7432,22 +7036,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>7710</v>
+        <v>7700</v>
       </c>
       <c r="C179" t="n">
-        <v>7665</v>
+        <v>7700</v>
       </c>
       <c r="D179" t="n">
-        <v>7710</v>
+        <v>7700</v>
       </c>
       <c r="E179" t="n">
-        <v>7665</v>
+        <v>7700</v>
       </c>
       <c r="F179" t="n">
-        <v>689.241</v>
+        <v>12.1506</v>
       </c>
       <c r="G179" t="n">
-        <v>7612.916666666667</v>
+        <v>7610.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7467,22 +7071,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>7695</v>
+        <v>7710</v>
       </c>
       <c r="C180" t="n">
-        <v>7695</v>
+        <v>7665</v>
       </c>
       <c r="D180" t="n">
-        <v>7695</v>
+        <v>7710</v>
       </c>
       <c r="E180" t="n">
-        <v>7695</v>
+        <v>7665</v>
       </c>
       <c r="F180" t="n">
-        <v>1.35</v>
+        <v>689.241</v>
       </c>
       <c r="G180" t="n">
-        <v>7615.333333333333</v>
+        <v>7612.916666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7514,10 +7118,10 @@
         <v>7695</v>
       </c>
       <c r="F181" t="n">
-        <v>25.29</v>
+        <v>1.35</v>
       </c>
       <c r="G181" t="n">
-        <v>7618.416666666667</v>
+        <v>7615.333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7540,19 +7144,19 @@
         <v>7695</v>
       </c>
       <c r="C182" t="n">
-        <v>7665</v>
+        <v>7695</v>
       </c>
       <c r="D182" t="n">
         <v>7695</v>
       </c>
       <c r="E182" t="n">
-        <v>7665</v>
+        <v>7695</v>
       </c>
       <c r="F182" t="n">
-        <v>31.5</v>
+        <v>25.29</v>
       </c>
       <c r="G182" t="n">
-        <v>7621.083333333333</v>
+        <v>7618.416666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7572,22 +7176,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>7665</v>
+        <v>7695</v>
       </c>
       <c r="C183" t="n">
         <v>7665</v>
       </c>
       <c r="D183" t="n">
-        <v>7665</v>
+        <v>7695</v>
       </c>
       <c r="E183" t="n">
         <v>7665</v>
       </c>
       <c r="F183" t="n">
-        <v>1.9928</v>
+        <v>31.5</v>
       </c>
       <c r="G183" t="n">
-        <v>7623.833333333333</v>
+        <v>7621.083333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7607,22 +7211,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>7690</v>
+        <v>7665</v>
       </c>
       <c r="C184" t="n">
-        <v>7695</v>
+        <v>7665</v>
       </c>
       <c r="D184" t="n">
-        <v>7695</v>
+        <v>7665</v>
       </c>
       <c r="E184" t="n">
-        <v>7690</v>
+        <v>7665</v>
       </c>
       <c r="F184" t="n">
-        <v>195.8873</v>
+        <v>1.9928</v>
       </c>
       <c r="G184" t="n">
-        <v>7627.083333333333</v>
+        <v>7623.833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7642,7 +7246,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>7695</v>
+        <v>7690</v>
       </c>
       <c r="C185" t="n">
         <v>7695</v>
@@ -7651,13 +7255,13 @@
         <v>7695</v>
       </c>
       <c r="E185" t="n">
-        <v>7695</v>
+        <v>7690</v>
       </c>
       <c r="F185" t="n">
-        <v>2</v>
+        <v>195.8873</v>
       </c>
       <c r="G185" t="n">
-        <v>7630.333333333333</v>
+        <v>7627.083333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7689,10 +7293,10 @@
         <v>7695</v>
       </c>
       <c r="F186" t="n">
-        <v>5.2823</v>
+        <v>2</v>
       </c>
       <c r="G186" t="n">
-        <v>7633.25</v>
+        <v>7630.333333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7712,22 +7316,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>7700</v>
+        <v>7695</v>
       </c>
       <c r="C187" t="n">
-        <v>7700</v>
+        <v>7695</v>
       </c>
       <c r="D187" t="n">
-        <v>7700</v>
+        <v>7695</v>
       </c>
       <c r="E187" t="n">
-        <v>7700</v>
+        <v>7695</v>
       </c>
       <c r="F187" t="n">
-        <v>30.5</v>
+        <v>5.2823</v>
       </c>
       <c r="G187" t="n">
-        <v>7635.833333333333</v>
+        <v>7633.25</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7750,19 +7354,19 @@
         <v>7700</v>
       </c>
       <c r="C188" t="n">
-        <v>7710</v>
+        <v>7700</v>
       </c>
       <c r="D188" t="n">
-        <v>7710</v>
+        <v>7700</v>
       </c>
       <c r="E188" t="n">
         <v>7700</v>
       </c>
       <c r="F188" t="n">
-        <v>267.65</v>
+        <v>30.5</v>
       </c>
       <c r="G188" t="n">
-        <v>7638.5</v>
+        <v>7635.833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7782,22 +7386,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>7700</v>
+      </c>
+      <c r="C189" t="n">
         <v>7710</v>
       </c>
-      <c r="C189" t="n">
-        <v>7700</v>
-      </c>
       <c r="D189" t="n">
-        <v>7725</v>
+        <v>7710</v>
       </c>
       <c r="E189" t="n">
         <v>7700</v>
       </c>
       <c r="F189" t="n">
-        <v>626.9894</v>
+        <v>267.65</v>
       </c>
       <c r="G189" t="n">
-        <v>7641</v>
+        <v>7638.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7817,22 +7421,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>7700</v>
+        <v>7710</v>
       </c>
       <c r="C190" t="n">
         <v>7700</v>
       </c>
       <c r="D190" t="n">
-        <v>7700</v>
+        <v>7725</v>
       </c>
       <c r="E190" t="n">
         <v>7700</v>
       </c>
       <c r="F190" t="n">
-        <v>58.53</v>
+        <v>626.9894</v>
       </c>
       <c r="G190" t="n">
-        <v>7643.25</v>
+        <v>7641</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7852,22 +7456,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>7670</v>
+        <v>7700</v>
       </c>
       <c r="C191" t="n">
-        <v>7625</v>
+        <v>7700</v>
       </c>
       <c r="D191" t="n">
-        <v>7670</v>
+        <v>7700</v>
       </c>
       <c r="E191" t="n">
-        <v>7625</v>
+        <v>7700</v>
       </c>
       <c r="F191" t="n">
-        <v>666.5</v>
+        <v>58.53</v>
       </c>
       <c r="G191" t="n">
-        <v>7644.083333333333</v>
+        <v>7643.25</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7887,22 +7491,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>7645</v>
+        <v>7670</v>
       </c>
       <c r="C192" t="n">
-        <v>7645</v>
+        <v>7625</v>
       </c>
       <c r="D192" t="n">
-        <v>7645</v>
+        <v>7670</v>
       </c>
       <c r="E192" t="n">
-        <v>7645</v>
+        <v>7625</v>
       </c>
       <c r="F192" t="n">
-        <v>4.6804</v>
+        <v>666.5</v>
       </c>
       <c r="G192" t="n">
-        <v>7645.166666666667</v>
+        <v>7644.083333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7922,22 +7526,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>7630</v>
+        <v>7645</v>
       </c>
       <c r="C193" t="n">
-        <v>7580</v>
+        <v>7645</v>
       </c>
       <c r="D193" t="n">
-        <v>7630</v>
+        <v>7645</v>
       </c>
       <c r="E193" t="n">
-        <v>7580</v>
+        <v>7645</v>
       </c>
       <c r="F193" t="n">
-        <v>667.7368</v>
+        <v>4.6804</v>
       </c>
       <c r="G193" t="n">
-        <v>7645.083333333333</v>
+        <v>7645.166666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7957,22 +7561,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="C194" t="n">
+        <v>7580</v>
+      </c>
+      <c r="D194" t="n">
         <v>7630</v>
       </c>
-      <c r="D194" t="n">
-        <v>7635</v>
-      </c>
       <c r="E194" t="n">
-        <v>7630</v>
+        <v>7580</v>
       </c>
       <c r="F194" t="n">
-        <v>39.0954</v>
+        <v>667.7368</v>
       </c>
       <c r="G194" t="n">
-        <v>7645.833333333333</v>
+        <v>7645.083333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7992,22 +7596,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>7610</v>
+        <v>7635</v>
       </c>
       <c r="C195" t="n">
-        <v>7610</v>
+        <v>7630</v>
       </c>
       <c r="D195" t="n">
-        <v>7610</v>
+        <v>7635</v>
       </c>
       <c r="E195" t="n">
-        <v>7610</v>
+        <v>7630</v>
       </c>
       <c r="F195" t="n">
-        <v>30</v>
+        <v>39.0954</v>
       </c>
       <c r="G195" t="n">
-        <v>7646.083333333333</v>
+        <v>7645.833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8027,22 +7631,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>7600</v>
+        <v>7610</v>
       </c>
       <c r="C196" t="n">
-        <v>7600</v>
+        <v>7610</v>
       </c>
       <c r="D196" t="n">
-        <v>7600</v>
+        <v>7610</v>
       </c>
       <c r="E196" t="n">
-        <v>7600</v>
+        <v>7610</v>
       </c>
       <c r="F196" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G196" t="n">
-        <v>7645.416666666667</v>
+        <v>7646.083333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8062,7 +7666,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>7595</v>
+        <v>7600</v>
       </c>
       <c r="C197" t="n">
         <v>7600</v>
@@ -8071,13 +7675,13 @@
         <v>7600</v>
       </c>
       <c r="E197" t="n">
-        <v>7595</v>
+        <v>7600</v>
       </c>
       <c r="F197" t="n">
-        <v>89.4233</v>
+        <v>60</v>
       </c>
       <c r="G197" t="n">
-        <v>7644.5</v>
+        <v>7645.416666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8100,19 +7704,19 @@
         <v>7595</v>
       </c>
       <c r="C198" t="n">
-        <v>7590</v>
+        <v>7600</v>
       </c>
       <c r="D198" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E198" t="n">
         <v>7595</v>
       </c>
-      <c r="E198" t="n">
-        <v>7590</v>
-      </c>
       <c r="F198" t="n">
-        <v>147.7702</v>
+        <v>89.4233</v>
       </c>
       <c r="G198" t="n">
-        <v>7643.25</v>
+        <v>7644.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8132,22 +7736,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>7575</v>
+        <v>7595</v>
       </c>
       <c r="C199" t="n">
-        <v>7595</v>
+        <v>7590</v>
       </c>
       <c r="D199" t="n">
         <v>7595</v>
       </c>
       <c r="E199" t="n">
-        <v>7575</v>
+        <v>7590</v>
       </c>
       <c r="F199" t="n">
-        <v>13.6027</v>
+        <v>147.7702</v>
       </c>
       <c r="G199" t="n">
-        <v>7643.75</v>
+        <v>7643.25</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8167,22 +7771,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7590</v>
+        <v>7575</v>
       </c>
       <c r="C200" t="n">
-        <v>7585</v>
+        <v>7595</v>
       </c>
       <c r="D200" t="n">
-        <v>7590</v>
+        <v>7595</v>
       </c>
       <c r="E200" t="n">
-        <v>7585</v>
+        <v>7575</v>
       </c>
       <c r="F200" t="n">
-        <v>6</v>
+        <v>13.6027</v>
       </c>
       <c r="G200" t="n">
-        <v>7642.75</v>
+        <v>7643.75</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8202,22 +7806,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7595</v>
+        <v>7590</v>
       </c>
       <c r="C201" t="n">
-        <v>7595</v>
+        <v>7585</v>
       </c>
       <c r="D201" t="n">
-        <v>7595</v>
+        <v>7590</v>
       </c>
       <c r="E201" t="n">
-        <v>7595</v>
+        <v>7585</v>
       </c>
       <c r="F201" t="n">
-        <v>44.47</v>
+        <v>6</v>
       </c>
       <c r="G201" t="n">
-        <v>7641.916666666667</v>
+        <v>7642.75</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8237,22 +7841,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>7600</v>
+        <v>7595</v>
       </c>
       <c r="C202" t="n">
-        <v>7600</v>
+        <v>7595</v>
       </c>
       <c r="D202" t="n">
-        <v>7600</v>
+        <v>7595</v>
       </c>
       <c r="E202" t="n">
-        <v>7600</v>
+        <v>7595</v>
       </c>
       <c r="F202" t="n">
-        <v>36.95</v>
+        <v>44.47</v>
       </c>
       <c r="G202" t="n">
-        <v>7641.833333333333</v>
+        <v>7641.916666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8272,22 +7876,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>7575</v>
+        <v>7600</v>
       </c>
       <c r="C203" t="n">
-        <v>7575</v>
+        <v>7600</v>
       </c>
       <c r="D203" t="n">
-        <v>7575</v>
+        <v>7600</v>
       </c>
       <c r="E203" t="n">
-        <v>7575</v>
+        <v>7600</v>
       </c>
       <c r="F203" t="n">
-        <v>38.8005</v>
+        <v>36.95</v>
       </c>
       <c r="G203" t="n">
-        <v>7641.333333333333</v>
+        <v>7641.833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8307,22 +7911,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>7595</v>
+        <v>7575</v>
       </c>
       <c r="C204" t="n">
-        <v>7610</v>
+        <v>7575</v>
       </c>
       <c r="D204" t="n">
-        <v>7610</v>
+        <v>7575</v>
       </c>
       <c r="E204" t="n">
-        <v>7570</v>
+        <v>7575</v>
       </c>
       <c r="F204" t="n">
-        <v>589.7027</v>
+        <v>38.8005</v>
       </c>
       <c r="G204" t="n">
-        <v>7641.416666666667</v>
+        <v>7641.333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8342,22 +7946,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>7580</v>
+        <v>7595</v>
       </c>
       <c r="C205" t="n">
-        <v>7580</v>
+        <v>7610</v>
       </c>
       <c r="D205" t="n">
-        <v>7580</v>
+        <v>7610</v>
       </c>
       <c r="E205" t="n">
-        <v>7580</v>
+        <v>7570</v>
       </c>
       <c r="F205" t="n">
-        <v>23</v>
+        <v>589.7027</v>
       </c>
       <c r="G205" t="n">
-        <v>7640.75</v>
+        <v>7641.416666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8377,22 +7981,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7590</v>
+        <v>7580</v>
       </c>
       <c r="C206" t="n">
-        <v>7590</v>
+        <v>7580</v>
       </c>
       <c r="D206" t="n">
-        <v>7590</v>
+        <v>7580</v>
       </c>
       <c r="E206" t="n">
-        <v>7590</v>
+        <v>7580</v>
       </c>
       <c r="F206" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="G206" t="n">
-        <v>7639.5</v>
+        <v>7640.75</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8412,22 +8016,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>7595</v>
+        <v>7590</v>
       </c>
       <c r="C207" t="n">
-        <v>7595</v>
+        <v>7590</v>
       </c>
       <c r="D207" t="n">
-        <v>7595</v>
+        <v>7590</v>
       </c>
       <c r="E207" t="n">
-        <v>7595</v>
+        <v>7590</v>
       </c>
       <c r="F207" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="G207" t="n">
-        <v>7638.25</v>
+        <v>7639.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8447,22 +8051,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7605</v>
+        <v>7595</v>
       </c>
       <c r="C208" t="n">
-        <v>7605</v>
+        <v>7595</v>
       </c>
       <c r="D208" t="n">
-        <v>7605</v>
+        <v>7595</v>
       </c>
       <c r="E208" t="n">
-        <v>7605</v>
+        <v>7595</v>
       </c>
       <c r="F208" t="n">
-        <v>15.56</v>
+        <v>21</v>
       </c>
       <c r="G208" t="n">
-        <v>7638.583333333333</v>
+        <v>7638.25</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8494,10 +8098,10 @@
         <v>7605</v>
       </c>
       <c r="F209" t="n">
-        <v>75.7122</v>
+        <v>15.56</v>
       </c>
       <c r="G209" t="n">
-        <v>7638.916666666667</v>
+        <v>7638.583333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8517,22 +8121,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>7610</v>
+        <v>7605</v>
       </c>
       <c r="C210" t="n">
-        <v>7610</v>
+        <v>7605</v>
       </c>
       <c r="D210" t="n">
-        <v>7610</v>
+        <v>7605</v>
       </c>
       <c r="E210" t="n">
-        <v>7610</v>
+        <v>7605</v>
       </c>
       <c r="F210" t="n">
-        <v>167</v>
+        <v>75.7122</v>
       </c>
       <c r="G210" t="n">
-        <v>7639.166666666667</v>
+        <v>7638.916666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8564,10 +8168,10 @@
         <v>7610</v>
       </c>
       <c r="F211" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G211" t="n">
-        <v>7639.416666666667</v>
+        <v>7639.166666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8587,22 +8191,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="C212" t="n">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="D212" t="n">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="E212" t="n">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="F212" t="n">
-        <v>382.9229</v>
+        <v>169</v>
       </c>
       <c r="G212" t="n">
-        <v>7639.75</v>
+        <v>7639.416666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8634,10 +8238,10 @@
         <v>7615</v>
       </c>
       <c r="F213" t="n">
-        <v>295.4961</v>
+        <v>382.9229</v>
       </c>
       <c r="G213" t="n">
-        <v>7639.666666666667</v>
+        <v>7639.75</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8657,22 +8261,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>7610</v>
+        <v>7615</v>
       </c>
       <c r="C214" t="n">
-        <v>7575</v>
+        <v>7615</v>
       </c>
       <c r="D214" t="n">
-        <v>7610</v>
+        <v>7615</v>
       </c>
       <c r="E214" t="n">
-        <v>7575</v>
+        <v>7615</v>
       </c>
       <c r="F214" t="n">
-        <v>102</v>
+        <v>295.4961</v>
       </c>
       <c r="G214" t="n">
-        <v>7638.75</v>
+        <v>7639.666666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8692,22 +8296,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>7590</v>
+        <v>7610</v>
       </c>
       <c r="C215" t="n">
-        <v>7585</v>
+        <v>7575</v>
       </c>
       <c r="D215" t="n">
-        <v>7590</v>
+        <v>7610</v>
       </c>
       <c r="E215" t="n">
-        <v>7585</v>
+        <v>7575</v>
       </c>
       <c r="F215" t="n">
-        <v>89.5</v>
+        <v>102</v>
       </c>
       <c r="G215" t="n">
-        <v>7638</v>
+        <v>7638.75</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8727,22 +8331,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>7590</v>
+      </c>
+      <c r="C216" t="n">
         <v>7585</v>
       </c>
-      <c r="C216" t="n">
-        <v>7610</v>
-      </c>
       <c r="D216" t="n">
-        <v>7610</v>
+        <v>7590</v>
       </c>
       <c r="E216" t="n">
         <v>7585</v>
       </c>
       <c r="F216" t="n">
-        <v>62.7389</v>
+        <v>89.5</v>
       </c>
       <c r="G216" t="n">
-        <v>7637.166666666667</v>
+        <v>7638</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8762,7 +8366,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>7610</v>
+        <v>7585</v>
       </c>
       <c r="C217" t="n">
         <v>7610</v>
@@ -8771,13 +8375,13 @@
         <v>7610</v>
       </c>
       <c r="E217" t="n">
-        <v>7610</v>
+        <v>7585</v>
       </c>
       <c r="F217" t="n">
-        <v>14.6</v>
+        <v>62.7389</v>
       </c>
       <c r="G217" t="n">
-        <v>7636.416666666667</v>
+        <v>7637.166666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8809,10 +8413,10 @@
         <v>7610</v>
       </c>
       <c r="F218" t="n">
-        <v>7.54</v>
+        <v>14.6</v>
       </c>
       <c r="G218" t="n">
-        <v>7635.25</v>
+        <v>7636.416666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8832,22 +8436,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="C219" t="n">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="D219" t="n">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="E219" t="n">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="F219" t="n">
-        <v>365.8647</v>
+        <v>7.54</v>
       </c>
       <c r="G219" t="n">
-        <v>7634.333333333333</v>
+        <v>7635.25</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8867,22 +8471,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>7590</v>
+        <v>7615</v>
       </c>
       <c r="C220" t="n">
-        <v>7595</v>
+        <v>7615</v>
       </c>
       <c r="D220" t="n">
-        <v>7595</v>
+        <v>7615</v>
       </c>
       <c r="E220" t="n">
-        <v>7590</v>
+        <v>7615</v>
       </c>
       <c r="F220" t="n">
-        <v>70.17</v>
+        <v>365.8647</v>
       </c>
       <c r="G220" t="n">
-        <v>7633.083333333333</v>
+        <v>7634.333333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8905,19 +8509,19 @@
         <v>7590</v>
       </c>
       <c r="C221" t="n">
-        <v>7590</v>
+        <v>7595</v>
       </c>
       <c r="D221" t="n">
-        <v>7590</v>
+        <v>7595</v>
       </c>
       <c r="E221" t="n">
         <v>7590</v>
       </c>
       <c r="F221" t="n">
-        <v>74.02509999999999</v>
+        <v>70.17</v>
       </c>
       <c r="G221" t="n">
-        <v>7632.666666666667</v>
+        <v>7633.083333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8949,10 +8553,10 @@
         <v>7590</v>
       </c>
       <c r="F222" t="n">
-        <v>44.05</v>
+        <v>74.02509999999999</v>
       </c>
       <c r="G222" t="n">
-        <v>7632</v>
+        <v>7632.666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8975,19 +8579,19 @@
         <v>7590</v>
       </c>
       <c r="C223" t="n">
-        <v>7615</v>
+        <v>7590</v>
       </c>
       <c r="D223" t="n">
-        <v>7615</v>
+        <v>7590</v>
       </c>
       <c r="E223" t="n">
         <v>7590</v>
       </c>
       <c r="F223" t="n">
-        <v>5</v>
+        <v>44.05</v>
       </c>
       <c r="G223" t="n">
-        <v>7631.666666666667</v>
+        <v>7632</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9007,7 +8611,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>7615</v>
+        <v>7590</v>
       </c>
       <c r="C224" t="n">
         <v>7615</v>
@@ -9016,13 +8620,13 @@
         <v>7615</v>
       </c>
       <c r="E224" t="n">
-        <v>7615</v>
+        <v>7590</v>
       </c>
       <c r="F224" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G224" t="n">
-        <v>7632.166666666667</v>
+        <v>7631.666666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9042,22 +8646,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>7620</v>
+        <v>7615</v>
       </c>
       <c r="C225" t="n">
-        <v>7625</v>
+        <v>7615</v>
       </c>
       <c r="D225" t="n">
-        <v>7625</v>
+        <v>7615</v>
       </c>
       <c r="E225" t="n">
-        <v>7620</v>
+        <v>7615</v>
       </c>
       <c r="F225" t="n">
-        <v>87.2037</v>
+        <v>2</v>
       </c>
       <c r="G225" t="n">
-        <v>7631.666666666667</v>
+        <v>7632.166666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9077,22 +8681,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>7620</v>
+      </c>
+      <c r="C226" t="n">
         <v>7625</v>
       </c>
-      <c r="C226" t="n">
-        <v>7630</v>
-      </c>
       <c r="D226" t="n">
-        <v>7630</v>
+        <v>7625</v>
       </c>
       <c r="E226" t="n">
-        <v>7625</v>
+        <v>7620</v>
       </c>
       <c r="F226" t="n">
-        <v>285.5819</v>
+        <v>87.2037</v>
       </c>
       <c r="G226" t="n">
-        <v>7631.333333333333</v>
+        <v>7631.666666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9112,7 +8716,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>7630</v>
+        <v>7625</v>
       </c>
       <c r="C227" t="n">
         <v>7630</v>
@@ -9121,13 +8725,13 @@
         <v>7630</v>
       </c>
       <c r="E227" t="n">
-        <v>7630</v>
+        <v>7625</v>
       </c>
       <c r="F227" t="n">
-        <v>15.7484</v>
+        <v>285.5819</v>
       </c>
       <c r="G227" t="n">
-        <v>7631.083333333333</v>
+        <v>7631.333333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9147,22 +8751,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="C228" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="D228" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="E228" t="n">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="F228" t="n">
-        <v>6.6758</v>
+        <v>15.7484</v>
       </c>
       <c r="G228" t="n">
-        <v>7630.916666666667</v>
+        <v>7631.083333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9182,22 +8786,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>7630</v>
+        <v>7635</v>
       </c>
       <c r="C229" t="n">
-        <v>7630</v>
+        <v>7635</v>
       </c>
       <c r="D229" t="n">
         <v>7635</v>
       </c>
       <c r="E229" t="n">
-        <v>7630</v>
+        <v>7635</v>
       </c>
       <c r="F229" t="n">
-        <v>61.791</v>
+        <v>6.6758</v>
       </c>
       <c r="G229" t="n">
-        <v>7630.666666666667</v>
+        <v>7630.916666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9217,22 +8821,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>7600</v>
+        <v>7630</v>
       </c>
       <c r="C230" t="n">
-        <v>7585</v>
+        <v>7630</v>
       </c>
       <c r="D230" t="n">
-        <v>7600</v>
+        <v>7635</v>
       </c>
       <c r="E230" t="n">
-        <v>7585</v>
+        <v>7630</v>
       </c>
       <c r="F230" t="n">
-        <v>52.47</v>
+        <v>61.791</v>
       </c>
       <c r="G230" t="n">
-        <v>7629.666666666667</v>
+        <v>7630.666666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9247,6 +8851,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C231" t="n">
+        <v>7585</v>
+      </c>
+      <c r="D231" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7585</v>
+      </c>
+      <c r="F231" t="n">
+        <v>52.47</v>
+      </c>
+      <c r="G231" t="n">
+        <v>7629.666666666667</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest BTG.xlsx
+++ b/BackTest/2020-01-14 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>13.1946</v>
       </c>
       <c r="G2" t="n">
+        <v>7496.333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>7551.166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1028.0003</v>
       </c>
       <c r="G3" t="n">
+        <v>7493.333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>7550.166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>657.2107999999999</v>
       </c>
       <c r="G4" t="n">
+        <v>7488</v>
+      </c>
+      <c r="H4" t="n">
         <v>7547.833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>45.8283</v>
       </c>
       <c r="G5" t="n">
+        <v>7483.333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>7545.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>47.6627</v>
       </c>
       <c r="G6" t="n">
+        <v>7478</v>
+      </c>
+      <c r="H6" t="n">
         <v>7543.083333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>20.27</v>
       </c>
       <c r="G7" t="n">
+        <v>7472.666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>7540.583333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>60.9284</v>
       </c>
       <c r="G8" t="n">
+        <v>7468</v>
+      </c>
+      <c r="H8" t="n">
         <v>7538.25</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>10.25</v>
       </c>
       <c r="G9" t="n">
+        <v>7463.333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>7536.666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>134.388</v>
       </c>
       <c r="G10" t="n">
+        <v>7458.666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>7535.166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>73.52589999999999</v>
       </c>
       <c r="G11" t="n">
+        <v>7457.666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>7534.666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>7456.666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>7533.916666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10.99</v>
       </c>
       <c r="G13" t="n">
+        <v>7456</v>
+      </c>
+      <c r="H13" t="n">
         <v>7533.333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>34.5966</v>
       </c>
       <c r="G14" t="n">
+        <v>7452</v>
+      </c>
+      <c r="H14" t="n">
         <v>7530.916666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>207.6892</v>
       </c>
       <c r="G15" t="n">
+        <v>7448</v>
+      </c>
+      <c r="H15" t="n">
         <v>7528.333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>63.43</v>
       </c>
       <c r="G16" t="n">
+        <v>7447</v>
+      </c>
+      <c r="H16" t="n">
         <v>7526.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>59.17</v>
       </c>
       <c r="G17" t="n">
+        <v>7448</v>
+      </c>
+      <c r="H17" t="n">
         <v>7524.833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>133.5</v>
       </c>
       <c r="G18" t="n">
+        <v>7449.333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>7522.916666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>64.45999999999999</v>
       </c>
       <c r="G19" t="n">
+        <v>7453.333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>7520.333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>46.76</v>
       </c>
       <c r="G20" t="n">
+        <v>7457.333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>7518.083333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>0.0092</v>
       </c>
       <c r="G21" t="n">
+        <v>7462</v>
+      </c>
+      <c r="H21" t="n">
         <v>7515.833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>0.9796</v>
       </c>
       <c r="G22" t="n">
+        <v>7469.666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>7514.75</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>25.6</v>
       </c>
       <c r="G23" t="n">
+        <v>7475.666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>7513.916666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>5</v>
       </c>
       <c r="G24" t="n">
+        <v>7480.333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>7512.75</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>15.6</v>
       </c>
       <c r="G25" t="n">
+        <v>7487</v>
+      </c>
+      <c r="H25" t="n">
         <v>7512.166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>15.6</v>
       </c>
       <c r="G26" t="n">
+        <v>7490</v>
+      </c>
+      <c r="H26" t="n">
         <v>7511.833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>31.2</v>
       </c>
       <c r="G27" t="n">
+        <v>7493.333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>7510.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>15.6</v>
       </c>
       <c r="G28" t="n">
+        <v>7496.333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>7509.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>23.4391</v>
       </c>
       <c r="G29" t="n">
+        <v>7503</v>
+      </c>
+      <c r="H29" t="n">
         <v>7508.083333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>15.6</v>
       </c>
       <c r="G30" t="n">
+        <v>7509.666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>7506.916666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>49.8978</v>
       </c>
       <c r="G31" t="n">
+        <v>7513.666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>7506.666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>740.8869999999999</v>
       </c>
       <c r="G32" t="n">
+        <v>7516.666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>7505.5</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>15.6</v>
       </c>
       <c r="G33" t="n">
+        <v>7518</v>
+      </c>
+      <c r="H33" t="n">
         <v>7505.166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>7.3</v>
       </c>
       <c r="G34" t="n">
+        <v>7519.333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>7503.833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>7.31</v>
       </c>
       <c r="G35" t="n">
+        <v>7519.666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>7502.166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>564.1</v>
       </c>
       <c r="G36" t="n">
+        <v>7522.666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>7501.166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>80.85209999999999</v>
       </c>
       <c r="G37" t="n">
+        <v>7520.333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>7499.583333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>17.63</v>
       </c>
       <c r="G38" t="n">
+        <v>7518.666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>7497.916666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>70</v>
       </c>
       <c r="G39" t="n">
+        <v>7514.333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>7495.25</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>15.8261</v>
       </c>
       <c r="G40" t="n">
+        <v>7511.666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>7493.583333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>10.82</v>
       </c>
       <c r="G41" t="n">
+        <v>7508.666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>7492.416666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>0.0001</v>
       </c>
       <c r="G42" t="n">
+        <v>7507</v>
+      </c>
+      <c r="H42" t="n">
         <v>7492.25</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>3.243</v>
       </c>
       <c r="G43" t="n">
+        <v>7506.666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>7492.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>51</v>
       </c>
       <c r="G44" t="n">
+        <v>7506</v>
+      </c>
+      <c r="H44" t="n">
         <v>7492.166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>6</v>
       </c>
       <c r="G45" t="n">
+        <v>7506</v>
+      </c>
+      <c r="H45" t="n">
         <v>7491.916666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>224</v>
       </c>
       <c r="G46" t="n">
+        <v>7507.333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>7492.5</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>66.0598</v>
       </c>
       <c r="G47" t="n">
+        <v>7509</v>
+      </c>
+      <c r="H47" t="n">
         <v>7492.5</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>6</v>
       </c>
       <c r="G48" t="n">
+        <v>7512.333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>7493.25</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>75</v>
       </c>
       <c r="G49" t="n">
+        <v>7515.333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>7494</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>54</v>
       </c>
       <c r="G50" t="n">
+        <v>7518.666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>7494.75</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>12.9279</v>
       </c>
       <c r="G51" t="n">
+        <v>7516.333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>7494.75</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>66.96850000000001</v>
       </c>
       <c r="G52" t="n">
+        <v>7516.333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>7494.75</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>70</v>
       </c>
       <c r="G53" t="n">
+        <v>7520</v>
+      </c>
+      <c r="H53" t="n">
         <v>7495.583333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>3</v>
       </c>
       <c r="G54" t="n">
+        <v>7527.666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>7496.416666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>15</v>
       </c>
       <c r="G55" t="n">
+        <v>7531.666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>7497.25</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>235.0091</v>
       </c>
       <c r="G56" t="n">
+        <v>7533.333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>7497.416666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>79.81999999999999</v>
       </c>
       <c r="G57" t="n">
+        <v>7533.333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>7497.583333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>15</v>
       </c>
       <c r="G58" t="n">
+        <v>7534.333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>7498.333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>228</v>
       </c>
       <c r="G59" t="n">
+        <v>7535.666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>7499.166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>20.21</v>
       </c>
       <c r="G60" t="n">
+        <v>7534</v>
+      </c>
+      <c r="H60" t="n">
         <v>7499.416666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>12.07</v>
       </c>
       <c r="G61" t="n">
+        <v>7533.333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>7500.333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>37.34</v>
       </c>
       <c r="G62" t="n">
+        <v>7530</v>
+      </c>
+      <c r="H62" t="n">
         <v>7500.916666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>96.7226</v>
       </c>
       <c r="G63" t="n">
+        <v>7526.333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>7501.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>361.0968</v>
       </c>
       <c r="G64" t="n">
+        <v>7522.666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>7502.666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>307.8804</v>
       </c>
       <c r="G65" t="n">
+        <v>7518.666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>7503.583333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>270.56</v>
       </c>
       <c r="G66" t="n">
+        <v>7518.666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>7504.916666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>24.27</v>
       </c>
       <c r="G67" t="n">
+        <v>7518</v>
+      </c>
+      <c r="H67" t="n">
         <v>7506.083333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>187.16</v>
       </c>
       <c r="G68" t="n">
+        <v>7513.666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>7507</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>254.2349</v>
       </c>
       <c r="G69" t="n">
+        <v>7507.666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>7507.5</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,25 @@
         <v>96.77</v>
       </c>
       <c r="G70" t="n">
+        <v>7501.666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>7508</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>7460</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3079,29 @@
         <v>216.42</v>
       </c>
       <c r="G71" t="n">
+        <v>7497.666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>7507.416666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>7460</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3125,29 @@
         <v>15.7</v>
       </c>
       <c r="G72" t="n">
+        <v>7494.333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>7507</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>7450</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3171,29 @@
         <v>125.3892</v>
       </c>
       <c r="G73" t="n">
+        <v>7487</v>
+      </c>
+      <c r="H73" t="n">
         <v>7506.083333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>7450</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,22 +3217,29 @@
         <v>96.90000000000001</v>
       </c>
       <c r="G74" t="n">
+        <v>7479.333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>7506</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>7430</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>7430</v>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3007,26 +3263,29 @@
         <v>68.1662</v>
       </c>
       <c r="G75" t="n">
+        <v>7474</v>
+      </c>
+      <c r="H75" t="n">
         <v>7505.916666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>7430</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>7430</v>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3050,24 +3309,29 @@
         <v>62.8585</v>
       </c>
       <c r="G76" t="n">
+        <v>7465.666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>7505</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+        <v>7425</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,26 +3355,29 @@
         <v>226.4981</v>
       </c>
       <c r="G77" t="n">
+        <v>7459</v>
+      </c>
+      <c r="H77" t="n">
         <v>7503.666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
         <v>7420</v>
       </c>
-      <c r="K77" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,26 +3401,29 @@
         <v>107.5405</v>
       </c>
       <c r="G78" t="n">
+        <v>7452.333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>7502.25</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
         <v>7400</v>
       </c>
-      <c r="K78" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,26 +3447,29 @@
         <v>328.7285</v>
       </c>
       <c r="G79" t="n">
+        <v>7443.666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>7500.25</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
         <v>7400</v>
       </c>
-      <c r="K79" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,26 +3493,29 @@
         <v>0.1084</v>
       </c>
       <c r="G80" t="n">
+        <v>7438</v>
+      </c>
+      <c r="H80" t="n">
         <v>7498.75</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
         <v>7370</v>
       </c>
-      <c r="K80" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3263,26 +3539,29 @@
         <v>170</v>
       </c>
       <c r="G81" t="n">
+        <v>7431.333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>7497.25</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
         <v>7400</v>
       </c>
-      <c r="K81" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,24 +3585,29 @@
         <v>641.8061</v>
       </c>
       <c r="G82" t="n">
+        <v>7430.666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>7496.333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>7400</v>
+      </c>
+      <c r="L82" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,26 +3631,27 @@
         <v>71.5</v>
       </c>
       <c r="G83" t="n">
+        <v>7431</v>
+      </c>
+      <c r="H83" t="n">
         <v>7495.833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>7480</v>
-      </c>
-      <c r="K83" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,24 +3675,27 @@
         <v>57.964</v>
       </c>
       <c r="G84" t="n">
+        <v>7429</v>
+      </c>
+      <c r="H84" t="n">
         <v>7494.666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3431,24 +3719,27 @@
         <v>5.7145</v>
       </c>
       <c r="G85" t="n">
+        <v>7428</v>
+      </c>
+      <c r="H85" t="n">
         <v>7493.25</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,24 +3763,27 @@
         <v>22.711</v>
       </c>
       <c r="G86" t="n">
+        <v>7427</v>
+      </c>
+      <c r="H86" t="n">
         <v>7491.666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,24 +3807,27 @@
         <v>51.5643</v>
       </c>
       <c r="G87" t="n">
+        <v>7425.666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>7490.083333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,24 +3851,27 @@
         <v>2.2094</v>
       </c>
       <c r="G88" t="n">
+        <v>7427.333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>7488.833333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3595,24 +3895,27 @@
         <v>21.35</v>
       </c>
       <c r="G89" t="n">
+        <v>7429</v>
+      </c>
+      <c r="H89" t="n">
         <v>7487.5</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,24 +3939,27 @@
         <v>28.593</v>
       </c>
       <c r="G90" t="n">
+        <v>7431</v>
+      </c>
+      <c r="H90" t="n">
         <v>7486.25</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,24 +3983,27 @@
         <v>495.5321</v>
       </c>
       <c r="G91" t="n">
+        <v>7435</v>
+      </c>
+      <c r="H91" t="n">
         <v>7485.333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,24 +4027,27 @@
         <v>90</v>
       </c>
       <c r="G92" t="n">
+        <v>7441.666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>7484.916666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3759,24 +4071,27 @@
         <v>93</v>
       </c>
       <c r="G93" t="n">
+        <v>7448</v>
+      </c>
+      <c r="H93" t="n">
         <v>7484.75</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,24 +4115,27 @@
         <v>130.8</v>
       </c>
       <c r="G94" t="n">
+        <v>7457.333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>7484.75</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3841,24 +4159,27 @@
         <v>33</v>
       </c>
       <c r="G95" t="n">
+        <v>7466.333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>7485.416666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,24 +4203,27 @@
         <v>641.1168</v>
       </c>
       <c r="G96" t="n">
+        <v>7475.666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>7485.5</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,24 +4247,27 @@
         <v>4.13</v>
       </c>
       <c r="G97" t="n">
+        <v>7479.666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>7486.166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,24 +4291,27 @@
         <v>265.8559</v>
       </c>
       <c r="G98" t="n">
+        <v>7483</v>
+      </c>
+      <c r="H98" t="n">
         <v>7486.916666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4005,24 +4335,27 @@
         <v>1931.9218</v>
       </c>
       <c r="G99" t="n">
+        <v>7488.666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>7488.25</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,24 +4379,27 @@
         <v>201.4</v>
       </c>
       <c r="G100" t="n">
+        <v>7491.666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>7488.25</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,24 +4423,27 @@
         <v>43.0656</v>
       </c>
       <c r="G101" t="n">
+        <v>7494.666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>7488.166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,24 +4467,27 @@
         <v>610.7525000000001</v>
       </c>
       <c r="G102" t="n">
+        <v>7499</v>
+      </c>
+      <c r="H102" t="n">
         <v>7488.083333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,24 +4511,27 @@
         <v>7.1811</v>
       </c>
       <c r="G103" t="n">
+        <v>7498.333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>7486.75</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,24 +4555,27 @@
         <v>94.7409</v>
       </c>
       <c r="G104" t="n">
+        <v>7501</v>
+      </c>
+      <c r="H104" t="n">
         <v>7486.25</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4251,24 +4599,27 @@
         <v>86.00729333</v>
       </c>
       <c r="G105" t="n">
+        <v>7504</v>
+      </c>
+      <c r="H105" t="n">
         <v>7485.75</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,24 +4643,27 @@
         <v>2</v>
       </c>
       <c r="G106" t="n">
+        <v>7505</v>
+      </c>
+      <c r="H106" t="n">
         <v>7484.75</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,24 +4687,27 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
+        <v>7504.666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>7483.833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,24 +4731,27 @@
         <v>50</v>
       </c>
       <c r="G108" t="n">
+        <v>7501</v>
+      </c>
+      <c r="H108" t="n">
         <v>7481.916666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4415,24 +4775,27 @@
         <v>75</v>
       </c>
       <c r="G109" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H109" t="n">
         <v>7480.916666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,24 +4819,27 @@
         <v>90</v>
       </c>
       <c r="G110" t="n">
+        <v>7497.666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>7480.166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4497,24 +4863,27 @@
         <v>90</v>
       </c>
       <c r="G111" t="n">
+        <v>7495.333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>7480.25</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,24 +4907,27 @@
         <v>3</v>
       </c>
       <c r="G112" t="n">
+        <v>7494.666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>7480.75</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,24 +4951,27 @@
         <v>33</v>
       </c>
       <c r="G113" t="n">
+        <v>7493.333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>7480.25</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,24 +4995,27 @@
         <v>39</v>
       </c>
       <c r="G114" t="n">
+        <v>7492.333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>7479.416666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4661,24 +5039,27 @@
         <v>15</v>
       </c>
       <c r="G115" t="n">
+        <v>7494</v>
+      </c>
+      <c r="H115" t="n">
         <v>7478.833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,24 +5083,27 @@
         <v>15</v>
       </c>
       <c r="G116" t="n">
+        <v>7496.333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>7478.916666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,24 +5127,27 @@
         <v>47</v>
       </c>
       <c r="G117" t="n">
+        <v>7497.333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>7479.083333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,24 +5171,27 @@
         <v>30.6161</v>
       </c>
       <c r="G118" t="n">
+        <v>7499.333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>7478</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4825,24 +5215,27 @@
         <v>26</v>
       </c>
       <c r="G119" t="n">
+        <v>7500.666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>7477.5</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4866,24 +5259,27 @@
         <v>258</v>
       </c>
       <c r="G120" t="n">
+        <v>7502</v>
+      </c>
+      <c r="H120" t="n">
         <v>7477.75</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4907,24 +5303,27 @@
         <v>166.0626</v>
       </c>
       <c r="G121" t="n">
+        <v>7505.666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>7477.833333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,24 +5347,27 @@
         <v>25.4641</v>
       </c>
       <c r="G122" t="n">
+        <v>7506.666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>7478</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,24 +5391,27 @@
         <v>83</v>
       </c>
       <c r="G123" t="n">
+        <v>7511</v>
+      </c>
+      <c r="H123" t="n">
         <v>7478.083333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,24 +5435,27 @@
         <v>19</v>
       </c>
       <c r="G124" t="n">
+        <v>7511.333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>7478.083333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,24 +5479,27 @@
         <v>25.667</v>
       </c>
       <c r="G125" t="n">
+        <v>7511.333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>7478.333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,24 +5523,27 @@
         <v>29</v>
       </c>
       <c r="G126" t="n">
+        <v>7511</v>
+      </c>
+      <c r="H126" t="n">
         <v>7478.333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5153,24 +5567,27 @@
         <v>51.0258</v>
       </c>
       <c r="G127" t="n">
+        <v>7510.333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>7478.833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,24 +5611,27 @@
         <v>581.7155</v>
       </c>
       <c r="G128" t="n">
+        <v>7512</v>
+      </c>
+      <c r="H128" t="n">
         <v>7479.833333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5235,24 +5655,27 @@
         <v>25.4732</v>
       </c>
       <c r="G129" t="n">
+        <v>7515.333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>7481.333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5276,24 +5699,27 @@
         <v>71.4509</v>
       </c>
       <c r="G130" t="n">
+        <v>7517.666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>7482.833333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,24 +5743,27 @@
         <v>301.7682</v>
       </c>
       <c r="G131" t="n">
+        <v>7521</v>
+      </c>
+      <c r="H131" t="n">
         <v>7484.75</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,24 +5787,27 @@
         <v>140.4571</v>
       </c>
       <c r="G132" t="n">
+        <v>7525.333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>7486.833333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,24 +5831,27 @@
         <v>119.5744</v>
       </c>
       <c r="G133" t="n">
+        <v>7532.333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>7489.333333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,24 +5875,27 @@
         <v>278.4529</v>
       </c>
       <c r="G134" t="n">
+        <v>7537</v>
+      </c>
+      <c r="H134" t="n">
         <v>7491.916666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5481,24 +5919,27 @@
         <v>200</v>
       </c>
       <c r="G135" t="n">
+        <v>7541.333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>7494.583333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,24 +5963,27 @@
         <v>222.5292</v>
       </c>
       <c r="G136" t="n">
+        <v>7544.333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>7497.5</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5563,24 +6007,27 @@
         <v>378.54248823</v>
       </c>
       <c r="G137" t="n">
+        <v>7553</v>
+      </c>
+      <c r="H137" t="n">
         <v>7501.5</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5604,24 +6051,27 @@
         <v>1807.11631177</v>
       </c>
       <c r="G138" t="n">
+        <v>7563</v>
+      </c>
+      <c r="H138" t="n">
         <v>7505.75</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,25 +6095,28 @@
         <v>129.555</v>
       </c>
       <c r="G139" t="n">
+        <v>7574</v>
+      </c>
+      <c r="H139" t="n">
         <v>7510.666666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>7430</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1.026628532974428</v>
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -5686,18 +6139,27 @@
         <v>100</v>
       </c>
       <c r="G140" t="n">
+        <v>7578.333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>7513.416666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,18 +6183,27 @@
         <v>20.07</v>
       </c>
       <c r="G141" t="n">
+        <v>7588</v>
+      </c>
+      <c r="H141" t="n">
         <v>7517.5</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5756,18 +6227,27 @@
         <v>45.2117</v>
       </c>
       <c r="G142" t="n">
+        <v>7596.333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>7520.25</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5791,18 +6271,27 @@
         <v>41.1084</v>
       </c>
       <c r="G143" t="n">
+        <v>7600.333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>7522.166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,18 +6315,27 @@
         <v>146.2529</v>
       </c>
       <c r="G144" t="n">
+        <v>7604</v>
+      </c>
+      <c r="H144" t="n">
         <v>7525.083333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,18 +6359,27 @@
         <v>159</v>
       </c>
       <c r="G145" t="n">
+        <v>7607.666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>7527.75</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5896,18 +6403,27 @@
         <v>20</v>
       </c>
       <c r="G146" t="n">
+        <v>7611.333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>7530.833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5931,18 +6447,27 @@
         <v>667.7368</v>
       </c>
       <c r="G147" t="n">
+        <v>7617.333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>7534.75</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,18 +6491,27 @@
         <v>294.487</v>
       </c>
       <c r="G148" t="n">
+        <v>7623.333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>7538.333333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6001,18 +6535,27 @@
         <v>282.3359</v>
       </c>
       <c r="G149" t="n">
+        <v>7623.333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>7540.5</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6036,18 +6579,27 @@
         <v>12.1511</v>
       </c>
       <c r="G150" t="n">
+        <v>7623.333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>7542.666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6071,18 +6623,27 @@
         <v>51.7591</v>
       </c>
       <c r="G151" t="n">
+        <v>7623.333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>7544.583333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,18 +6667,27 @@
         <v>358.6658</v>
       </c>
       <c r="G152" t="n">
+        <v>7620.333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>7546.166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6141,18 +6711,27 @@
         <v>34.0941</v>
       </c>
       <c r="G153" t="n">
+        <v>7616.333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>7547.833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,18 +6755,27 @@
         <v>109.7854</v>
       </c>
       <c r="G154" t="n">
+        <v>7613.333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>7549.666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,18 +6799,27 @@
         <v>76.47629999999999</v>
       </c>
       <c r="G155" t="n">
+        <v>7617.666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>7551.25</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,18 +6843,27 @@
         <v>12.0993</v>
       </c>
       <c r="G156" t="n">
+        <v>7616.666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>7552.75</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6281,18 +6887,27 @@
         <v>57.05</v>
       </c>
       <c r="G157" t="n">
+        <v>7617.666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>7554.75</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6316,18 +6931,27 @@
         <v>4.23</v>
       </c>
       <c r="G158" t="n">
+        <v>7621</v>
+      </c>
+      <c r="H158" t="n">
         <v>7556.666666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6351,18 +6975,27 @@
         <v>300.9974</v>
       </c>
       <c r="G159" t="n">
+        <v>7626</v>
+      </c>
+      <c r="H159" t="n">
         <v>7559.416666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6386,19 +7019,28 @@
         <v>6</v>
       </c>
       <c r="G160" t="n">
+        <v>7630.333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>7562.416666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
+      <c r="L160" t="n">
+        <v>7460</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1.023150134048257</v>
       </c>
     </row>
     <row r="161">
@@ -6421,18 +7063,21 @@
         <v>98</v>
       </c>
       <c r="G161" t="n">
+        <v>7633.666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>7565.583333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6456,18 +7101,21 @@
         <v>32</v>
       </c>
       <c r="G162" t="n">
+        <v>7630.333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>7567.583333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6491,18 +7139,21 @@
         <v>0.1868</v>
       </c>
       <c r="G163" t="n">
+        <v>7627.666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>7570.666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6526,18 +7177,21 @@
         <v>132.5762</v>
       </c>
       <c r="G164" t="n">
+        <v>7631</v>
+      </c>
+      <c r="H164" t="n">
         <v>7573</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6561,18 +7215,21 @@
         <v>68</v>
       </c>
       <c r="G165" t="n">
+        <v>7631</v>
+      </c>
+      <c r="H165" t="n">
         <v>7574.416666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6596,18 +7253,21 @@
         <v>130.5646</v>
       </c>
       <c r="G166" t="n">
+        <v>7635</v>
+      </c>
+      <c r="H166" t="n">
         <v>7577.083333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6631,18 +7291,21 @@
         <v>25.4412</v>
       </c>
       <c r="G167" t="n">
+        <v>7638.666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>7579.666666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6666,18 +7329,21 @@
         <v>4.83</v>
       </c>
       <c r="G168" t="n">
+        <v>7642</v>
+      </c>
+      <c r="H168" t="n">
         <v>7583.083333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6701,18 +7367,21 @@
         <v>62</v>
       </c>
       <c r="G169" t="n">
+        <v>7643.666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>7585.583333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6736,18 +7405,21 @@
         <v>0.2094</v>
       </c>
       <c r="G170" t="n">
+        <v>7644.666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>7588</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6771,18 +7443,21 @@
         <v>2.7906</v>
       </c>
       <c r="G171" t="n">
+        <v>7645.666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>7590.333333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6806,18 +7481,21 @@
         <v>21</v>
       </c>
       <c r="G172" t="n">
+        <v>7645</v>
+      </c>
+      <c r="H172" t="n">
         <v>7592.333333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6841,18 +7519,21 @@
         <v>49.99</v>
       </c>
       <c r="G173" t="n">
+        <v>7643</v>
+      </c>
+      <c r="H173" t="n">
         <v>7594.083333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6876,18 +7557,21 @@
         <v>0.5506</v>
       </c>
       <c r="G174" t="n">
+        <v>7639.333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>7596.166666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6911,18 +7595,21 @@
         <v>217.6112</v>
       </c>
       <c r="G175" t="n">
+        <v>7638.666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>7598.583333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6946,18 +7633,21 @@
         <v>326.5</v>
       </c>
       <c r="G176" t="n">
+        <v>7639.666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>7601.416666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6981,18 +7671,21 @@
         <v>75.2153</v>
       </c>
       <c r="G177" t="n">
+        <v>7644.333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>7604.333333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7016,18 +7709,21 @@
         <v>46.5</v>
       </c>
       <c r="G178" t="n">
+        <v>7646.333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>7607.416666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7051,18 +7747,21 @@
         <v>12.1506</v>
       </c>
       <c r="G179" t="n">
+        <v>7650.666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>7610.5</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7086,18 +7785,21 @@
         <v>689.241</v>
       </c>
       <c r="G180" t="n">
+        <v>7656</v>
+      </c>
+      <c r="H180" t="n">
         <v>7612.916666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7121,18 +7823,21 @@
         <v>1.35</v>
       </c>
       <c r="G181" t="n">
+        <v>7658.666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>7615.333333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7156,18 +7861,21 @@
         <v>25.29</v>
       </c>
       <c r="G182" t="n">
+        <v>7661.666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>7618.416666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7191,18 +7899,21 @@
         <v>31.5</v>
       </c>
       <c r="G183" t="n">
+        <v>7663</v>
+      </c>
+      <c r="H183" t="n">
         <v>7621.083333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7226,18 +7937,21 @@
         <v>1.9928</v>
       </c>
       <c r="G184" t="n">
+        <v>7664.333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>7623.833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7261,18 +7975,21 @@
         <v>195.8873</v>
       </c>
       <c r="G185" t="n">
+        <v>7667.666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>7627.083333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7296,18 +8013,21 @@
         <v>2</v>
       </c>
       <c r="G186" t="n">
+        <v>7671</v>
+      </c>
+      <c r="H186" t="n">
         <v>7630.333333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7331,18 +8051,21 @@
         <v>5.2823</v>
       </c>
       <c r="G187" t="n">
+        <v>7674</v>
+      </c>
+      <c r="H187" t="n">
         <v>7633.25</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7366,18 +8089,21 @@
         <v>30.5</v>
       </c>
       <c r="G188" t="n">
+        <v>7679</v>
+      </c>
+      <c r="H188" t="n">
         <v>7635.833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7401,18 +8127,21 @@
         <v>267.65</v>
       </c>
       <c r="G189" t="n">
+        <v>7684.666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>7638.5</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7436,18 +8165,21 @@
         <v>626.9894</v>
       </c>
       <c r="G190" t="n">
+        <v>7687.333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>7641</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7471,18 +8203,21 @@
         <v>58.53</v>
       </c>
       <c r="G191" t="n">
+        <v>7688.333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>7643.25</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7506,18 +8241,21 @@
         <v>666.5</v>
       </c>
       <c r="G192" t="n">
+        <v>7684.333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>7644.083333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7541,18 +8279,21 @@
         <v>4.6804</v>
       </c>
       <c r="G193" t="n">
+        <v>7683.333333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>7645.166666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7576,18 +8317,21 @@
         <v>667.7368</v>
       </c>
       <c r="G194" t="n">
+        <v>7675.333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>7645.083333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7611,18 +8355,21 @@
         <v>39.0954</v>
       </c>
       <c r="G195" t="n">
+        <v>7673</v>
+      </c>
+      <c r="H195" t="n">
         <v>7645.833333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7646,18 +8393,21 @@
         <v>30</v>
       </c>
       <c r="G196" t="n">
+        <v>7667.333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>7646.083333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7681,18 +8431,21 @@
         <v>60</v>
       </c>
       <c r="G197" t="n">
+        <v>7661</v>
+      </c>
+      <c r="H197" t="n">
         <v>7645.416666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7716,18 +8469,21 @@
         <v>89.4233</v>
       </c>
       <c r="G198" t="n">
+        <v>7656.666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>7644.5</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7751,18 +8507,21 @@
         <v>147.7702</v>
       </c>
       <c r="G199" t="n">
+        <v>7651.666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>7643.25</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7786,18 +8545,21 @@
         <v>13.6027</v>
       </c>
       <c r="G200" t="n">
+        <v>7645</v>
+      </c>
+      <c r="H200" t="n">
         <v>7643.75</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7821,18 +8583,21 @@
         <v>6</v>
       </c>
       <c r="G201" t="n">
+        <v>7637.666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>7642.75</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7856,18 +8621,21 @@
         <v>44.47</v>
       </c>
       <c r="G202" t="n">
+        <v>7631</v>
+      </c>
+      <c r="H202" t="n">
         <v>7641.916666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7891,18 +8659,21 @@
         <v>36.95</v>
       </c>
       <c r="G203" t="n">
+        <v>7624.333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>7641.833333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7926,18 +8697,21 @@
         <v>38.8005</v>
       </c>
       <c r="G204" t="n">
+        <v>7615.333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>7641.333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7961,18 +8735,21 @@
         <v>589.7027</v>
       </c>
       <c r="G205" t="n">
+        <v>7609.333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>7641.416666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,18 +8773,21 @@
         <v>23</v>
       </c>
       <c r="G206" t="n">
+        <v>7601.333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>7640.75</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8031,18 +8811,21 @@
         <v>11.5</v>
       </c>
       <c r="G207" t="n">
+        <v>7599</v>
+      </c>
+      <c r="H207" t="n">
         <v>7639.5</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8066,18 +8849,21 @@
         <v>21</v>
       </c>
       <c r="G208" t="n">
+        <v>7595.666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>7638.25</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8101,18 +8887,21 @@
         <v>15.56</v>
       </c>
       <c r="G209" t="n">
+        <v>7597.333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>7638.583333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8136,18 +8925,21 @@
         <v>75.7122</v>
       </c>
       <c r="G210" t="n">
+        <v>7595.666666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>7638.916666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8171,18 +8963,21 @@
         <v>167</v>
       </c>
       <c r="G211" t="n">
+        <v>7595.666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>7639.166666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8206,18 +9001,21 @@
         <v>169</v>
       </c>
       <c r="G212" t="n">
+        <v>7596.333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>7639.416666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8241,18 +9039,21 @@
         <v>382.9229</v>
       </c>
       <c r="G213" t="n">
+        <v>7597.333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>7639.75</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8276,18 +9077,21 @@
         <v>295.4961</v>
       </c>
       <c r="G214" t="n">
+        <v>7599</v>
+      </c>
+      <c r="H214" t="n">
         <v>7639.666666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8311,18 +9115,21 @@
         <v>102</v>
       </c>
       <c r="G215" t="n">
+        <v>7597.666666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>7638.75</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8346,18 +9153,21 @@
         <v>89.5</v>
       </c>
       <c r="G216" t="n">
+        <v>7597.666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>7638</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8381,18 +9191,21 @@
         <v>62.7389</v>
       </c>
       <c r="G217" t="n">
+        <v>7598.666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>7637.166666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8416,18 +9229,21 @@
         <v>14.6</v>
       </c>
       <c r="G218" t="n">
+        <v>7599.333333333333</v>
+      </c>
+      <c r="H218" t="n">
         <v>7636.416666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8451,18 +9267,21 @@
         <v>7.54</v>
       </c>
       <c r="G219" t="n">
+        <v>7601.666666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>7635.25</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8486,18 +9305,21 @@
         <v>365.8647</v>
       </c>
       <c r="G220" t="n">
+        <v>7602</v>
+      </c>
+      <c r="H220" t="n">
         <v>7634.333333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8521,18 +9343,21 @@
         <v>70.17</v>
       </c>
       <c r="G221" t="n">
+        <v>7603</v>
+      </c>
+      <c r="H221" t="n">
         <v>7633.083333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8556,18 +9381,21 @@
         <v>74.02509999999999</v>
       </c>
       <c r="G222" t="n">
+        <v>7603</v>
+      </c>
+      <c r="H222" t="n">
         <v>7632.666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8591,18 +9419,21 @@
         <v>44.05</v>
       </c>
       <c r="G223" t="n">
+        <v>7602.666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>7632</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8626,18 +9457,21 @@
         <v>5</v>
       </c>
       <c r="G224" t="n">
+        <v>7603.333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>7631.666666666667</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8661,18 +9495,21 @@
         <v>2</v>
       </c>
       <c r="G225" t="n">
+        <v>7604</v>
+      </c>
+      <c r="H225" t="n">
         <v>7632.166666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8696,18 +9533,21 @@
         <v>87.2037</v>
       </c>
       <c r="G226" t="n">
+        <v>7605</v>
+      </c>
+      <c r="H226" t="n">
         <v>7631.666666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8731,18 +9571,21 @@
         <v>285.5819</v>
       </c>
       <c r="G227" t="n">
+        <v>7606.333333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>7631.333333333333</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8766,18 +9609,21 @@
         <v>15.7484</v>
       </c>
       <c r="G228" t="n">
+        <v>7607.333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>7631.083333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8801,18 +9647,21 @@
         <v>6.6758</v>
       </c>
       <c r="G229" t="n">
+        <v>7608.666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>7630.916666666667</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8836,18 +9685,21 @@
         <v>61.791</v>
       </c>
       <c r="G230" t="n">
+        <v>7612.333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>7630.666666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8871,18 +9723,401 @@
         <v>52.47</v>
       </c>
       <c r="G231" t="n">
+        <v>7612.333333333333</v>
+      </c>
+      <c r="H231" t="n">
         <v>7629.666666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>7585</v>
+      </c>
+      <c r="C232" t="n">
+        <v>7585</v>
+      </c>
+      <c r="D232" t="n">
+        <v>7585</v>
+      </c>
+      <c r="E232" t="n">
+        <v>7585</v>
+      </c>
+      <c r="F232" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="G232" t="n">
+        <v>7610.666666666667</v>
+      </c>
+      <c r="H232" t="n">
+        <v>7628.583333333333</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>7595</v>
+      </c>
+      <c r="C233" t="n">
+        <v>7595</v>
+      </c>
+      <c r="D233" t="n">
+        <v>7595</v>
+      </c>
+      <c r="E233" t="n">
+        <v>7595</v>
+      </c>
+      <c r="F233" t="n">
+        <v>7</v>
+      </c>
+      <c r="G233" t="n">
+        <v>7609.666666666667</v>
+      </c>
+      <c r="H233" t="n">
+        <v>7628.083333333333</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>7615</v>
+      </c>
+      <c r="C234" t="n">
+        <v>7615</v>
+      </c>
+      <c r="D234" t="n">
+        <v>7615</v>
+      </c>
+      <c r="E234" t="n">
+        <v>7615</v>
+      </c>
+      <c r="F234" t="n">
+        <v>51.06</v>
+      </c>
+      <c r="G234" t="n">
+        <v>7610</v>
+      </c>
+      <c r="H234" t="n">
+        <v>7627.916666666667</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>7615</v>
+      </c>
+      <c r="C235" t="n">
+        <v>7615</v>
+      </c>
+      <c r="D235" t="n">
+        <v>7615</v>
+      </c>
+      <c r="E235" t="n">
+        <v>7615</v>
+      </c>
+      <c r="F235" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="G235" t="n">
+        <v>7610</v>
+      </c>
+      <c r="H235" t="n">
+        <v>7627.166666666667</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>7625</v>
+      </c>
+      <c r="C236" t="n">
+        <v>7625</v>
+      </c>
+      <c r="D236" t="n">
+        <v>7625</v>
+      </c>
+      <c r="E236" t="n">
+        <v>7625</v>
+      </c>
+      <c r="F236" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="G236" t="n">
+        <v>7612</v>
+      </c>
+      <c r="H236" t="n">
+        <v>7626.166666666667</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>7625</v>
+      </c>
+      <c r="C237" t="n">
+        <v>7625</v>
+      </c>
+      <c r="D237" t="n">
+        <v>7625</v>
+      </c>
+      <c r="E237" t="n">
+        <v>7625</v>
+      </c>
+      <c r="F237" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="G237" t="n">
+        <v>7614.333333333333</v>
+      </c>
+      <c r="H237" t="n">
+        <v>7625.166666666667</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C238" t="n">
+        <v>7625</v>
+      </c>
+      <c r="D238" t="n">
+        <v>7625</v>
+      </c>
+      <c r="E238" t="n">
+        <v>7600</v>
+      </c>
+      <c r="F238" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="G238" t="n">
+        <v>7616.666666666667</v>
+      </c>
+      <c r="H238" t="n">
+        <v>7624.583333333333</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C239" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D239" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E239" t="n">
+        <v>7600</v>
+      </c>
+      <c r="F239" t="n">
+        <v>7</v>
+      </c>
+      <c r="G239" t="n">
+        <v>7615.666666666667</v>
+      </c>
+      <c r="H239" t="n">
+        <v>7622.916666666667</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>7625</v>
+      </c>
+      <c r="C240" t="n">
+        <v>7625</v>
+      </c>
+      <c r="D240" t="n">
+        <v>7625</v>
+      </c>
+      <c r="E240" t="n">
+        <v>7625</v>
+      </c>
+      <c r="F240" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="G240" t="n">
+        <v>7616.333333333333</v>
+      </c>
+      <c r="H240" t="n">
+        <v>7622.25</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>7630</v>
+      </c>
+      <c r="C241" t="n">
+        <v>7630</v>
+      </c>
+      <c r="D241" t="n">
+        <v>7635</v>
+      </c>
+      <c r="E241" t="n">
+        <v>7580</v>
+      </c>
+      <c r="F241" t="n">
+        <v>410.1049</v>
+      </c>
+      <c r="G241" t="n">
+        <v>7616.666666666667</v>
+      </c>
+      <c r="H241" t="n">
+        <v>7621.166666666667</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest BTG.xlsx
+++ b/BackTest/2020-01-14 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N299"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>64.13700000000011</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>260.7603000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>203.9130000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>203.9130000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>163.9130000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>191.0773000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>191.0773000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>59.62430000000012</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-13.72009999999989</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-13.88179999999989</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-30.50029999999989</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-30.50029999999989</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-191.2215999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>56.32030000000012</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>56.32030000000012</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-395.7440999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-395.7440999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-408.9386999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-408.9386999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-1066.1495</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-1066.1495</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,22 +2499,13 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>7430</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2732,22 +2532,13 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7420</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2774,22 +2565,13 @@
       <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7420</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,24 +2596,15 @@
         <v>-1052.8838</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2856,24 +2629,15 @@
         <v>-1052.8838</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2898,24 +2662,15 @@
         <v>-979.3578999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>7430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2940,24 +2695,15 @@
         <v>-980.3578999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2984,20 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3024,20 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3064,20 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3102,24 +2827,21 @@
         <v>-1148.2237</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>7430</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3144,24 +2866,19 @@
         <v>-1089.0537</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7475</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,20 +2905,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3226,24 +2940,19 @@
         <v>-891.0936999999997</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7485</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3270,20 +2979,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3310,20 +3016,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3350,20 +3053,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3390,20 +3090,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3430,20 +3127,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3470,20 +3164,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3510,20 +3201,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3550,20 +3238,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3590,20 +3275,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3630,20 +3312,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3670,20 +3349,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3710,20 +3386,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3750,20 +3423,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3790,20 +3460,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3830,20 +3497,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3870,20 +3534,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3908,22 +3569,21 @@
         <v>-1055.374199999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>7495</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3948,22 +3608,21 @@
         <v>-1136.226299999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>7535</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3990,20 +3649,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4028,22 +3684,21 @@
         <v>-1223.856299999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>7495</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4068,22 +3723,21 @@
         <v>-1208.030199999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>7435</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4108,22 +3762,21 @@
         <v>-1218.850199999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>7490</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4148,22 +3801,21 @@
         <v>-1218.850099999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>7485</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4188,22 +3840,21 @@
         <v>-1215.607099999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4228,22 +3879,21 @@
         <v>-1215.607099999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>7525</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4268,22 +3918,21 @@
         <v>-1209.607099999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>7525</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4310,20 +3959,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4350,20 +3996,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4390,20 +4033,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4430,20 +4070,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4470,20 +4107,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4510,20 +4144,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4548,22 +4179,21 @@
         <v>-1112.594799999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4588,22 +4218,21 @@
         <v>-1042.594799999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4628,22 +4257,21 @@
         <v>-1042.594799999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>7550</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4668,22 +4296,21 @@
         <v>-1042.594799999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>7550</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4708,22 +4335,21 @@
         <v>-1277.603899999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>7550</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4748,22 +4374,21 @@
         <v>-1357.423899999999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>7510</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4788,22 +4413,21 @@
         <v>-1342.423899999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4830,20 +4454,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4870,20 +4491,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4908,22 +4526,21 @@
         <v>-1122.563899999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>7505</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4950,20 +4567,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4988,22 +4602,21 @@
         <v>-1159.903899999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5028,22 +4641,21 @@
         <v>-1159.903899999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5070,20 +4682,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5108,22 +4717,21 @@
         <v>-1197.224299999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>7485</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5150,20 +4758,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5188,22 +4793,21 @@
         <v>-1408.654299999999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>7490</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5228,22 +4832,21 @@
         <v>-1662.889199999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>7485</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5268,22 +4871,21 @@
         <v>-1662.889199999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>7460</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5308,22 +4910,21 @@
         <v>-1879.309199999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>7460</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5348,22 +4949,21 @@
         <v>-1879.309199999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>7450</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5388,22 +4988,21 @@
         <v>-2004.6984</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>7450</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5428,24 +5027,21 @@
         <v>-2004.6984</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
         <v>7430</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5470,24 +5066,19 @@
         <v>-2072.864599999999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>7430</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5512,24 +5103,21 @@
         <v>-2135.723099999999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
         <v>7425</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5554,24 +5142,21 @@
         <v>-2362.221199999999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
         <v>7420</v>
       </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5596,24 +5181,21 @@
         <v>-2362.221199999999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
         <v>7400</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5638,24 +5220,21 @@
         <v>-2690.949699999999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
         <v>7400</v>
       </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5680,24 +5259,21 @@
         <v>-2690.841299999999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
         <v>7370</v>
       </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5722,24 +5298,21 @@
         <v>-2690.841299999999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
         <v>7400</v>
       </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5764,24 +5337,21 @@
         <v>-2049.035199999999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
         <v>7400</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5806,24 +5376,21 @@
         <v>-1977.535199999999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
         <v>7480</v>
       </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5848,22 +5415,21 @@
         <v>-2035.499199999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>7490</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5888,24 +5454,21 @@
         <v>-2029.784699999999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
         <v>7430</v>
       </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5930,24 +5493,21 @@
         <v>-2052.495699999999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
         <v>7445</v>
       </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5972,24 +5532,21 @@
         <v>-2104.059999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
         <v>7435</v>
       </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6014,24 +5571,21 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
         <v>7430</v>
       </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6056,24 +5610,21 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
         <v>7455</v>
       </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6098,24 +5649,21 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
         <v>7455</v>
       </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6140,24 +5688,21 @@
         <v>-1606.318499999999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
         <v>7455</v>
       </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6182,24 +5727,21 @@
         <v>-1516.318499999999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
         <v>7480</v>
       </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6224,24 +5766,19 @@
         <v>-1609.318499999999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6266,24 +5803,19 @@
         <v>-1478.518499999999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>7495</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6310,20 +5842,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6350,20 +5879,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6390,20 +5916,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6430,20 +5953,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6470,20 +5990,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6510,20 +6027,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6550,20 +6064,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6590,20 +6101,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6630,20 +6138,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6670,20 +6175,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6710,20 +6212,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6750,20 +6249,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6790,20 +6286,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6830,20 +6323,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6870,20 +6360,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6910,20 +6397,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6950,20 +6434,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6990,20 +6471,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7030,20 +6508,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7070,20 +6545,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7110,20 +6582,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7150,20 +6619,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7188,24 +6654,19 @@
         <v>-2094.469506669999</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>7515</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7230,24 +6691,19 @@
         <v>-2125.085606669999</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>7510</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7272,24 +6728,21 @@
         <v>-2099.085606669999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
         <v>7475</v>
       </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7314,24 +6767,19 @@
         <v>-1841.085606669999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>7515</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7358,20 +6806,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7398,20 +6843,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7438,20 +6880,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7478,20 +6917,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7518,20 +6954,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7558,20 +6991,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7598,20 +7028,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7638,20 +7065,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7678,20 +7102,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7718,20 +7139,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7758,20 +7176,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7798,20 +7213,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7838,20 +7250,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7878,20 +7287,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7918,20 +7324,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7958,20 +7361,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7998,20 +7398,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8038,20 +7435,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8078,20 +7472,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8118,20 +7509,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8158,20 +7546,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8198,20 +7583,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8238,20 +7620,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8278,20 +7657,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8318,20 +7694,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8358,20 +7731,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8398,20 +7768,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8438,20 +7805,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8478,20 +7842,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8518,20 +7879,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8558,20 +7916,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8598,20 +7953,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8638,20 +7990,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8678,20 +8027,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8718,20 +8064,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8758,20 +8101,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8798,20 +8138,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8838,20 +8175,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8876,22 +8210,17 @@
         <v>3404.410693330001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8918,18 +8247,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L218" t="n">
+        <v>1</v>
       </c>
       <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8956,16 +8280,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8992,16 +8313,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9028,16 +8346,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9064,16 +8379,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9100,16 +8412,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9136,16 +8445,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9172,16 +8478,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9208,16 +8511,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9244,16 +8544,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9280,16 +8577,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9316,16 +8610,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9350,18 +8641,15 @@
         <v>3552.467093330001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9388,16 +8676,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9424,16 +8709,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9460,16 +8742,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9496,16 +8775,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9532,16 +8808,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9568,16 +8841,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9604,16 +8874,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9640,16 +8907,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9676,16 +8940,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9710,18 +8971,15 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9746,18 +9004,15 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9782,18 +9037,15 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9818,18 +9070,15 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9854,18 +9103,15 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9890,18 +9136,15 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9928,16 +9171,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9964,16 +9204,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10000,16 +9237,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>1</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10036,16 +9270,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10070,18 +9301,15 @@
         <v>2493.395793330001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10106,18 +9334,15 @@
         <v>2498.076193330001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10142,18 +9367,15 @@
         <v>1830.339393330001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10178,18 +9400,15 @@
         <v>1869.434793330001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10216,16 +9435,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10252,16 +9468,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10286,18 +9499,15 @@
         <v>1779.434793330001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10322,18 +9532,15 @@
         <v>1631.664593330001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10360,16 +9567,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10396,16 +9600,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10432,16 +9633,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10466,18 +9664,15 @@
         <v>1720.687293330001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10504,16 +9699,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10540,16 +9732,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10574,18 +9763,15 @@
         <v>2248.589493330001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10610,18 +9796,15 @@
         <v>2260.089493330001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10646,18 +9829,15 @@
         <v>2281.089493330001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10684,16 +9864,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10718,18 +9895,15 @@
         <v>2296.649493330001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10754,18 +9928,15 @@
         <v>2463.649493330001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10792,16 +9963,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10828,16 +9996,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10862,18 +10027,15 @@
         <v>2846.572393330001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10900,16 +10062,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10936,16 +10095,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10972,16 +10128,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11006,18 +10159,15 @@
         <v>2896.811293330001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11044,16 +10194,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11078,18 +10225,15 @@
         <v>3262.675993330001</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11116,16 +10260,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11150,18 +10291,15 @@
         <v>3118.480893330001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11188,16 +10326,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11224,16 +10359,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11260,16 +10392,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11294,18 +10423,15 @@
         <v>3210.684593330001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11330,18 +10456,15 @@
         <v>3496.266493330002</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11366,18 +10489,15 @@
         <v>3496.266493330002</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11402,18 +10522,15 @@
         <v>3502.942293330002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11438,18 +10555,15 @@
         <v>3441.151293330001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11474,18 +10588,15 @@
         <v>3388.681293330002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11510,18 +10621,15 @@
         <v>3388.681293330002</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11546,18 +10654,15 @@
         <v>3395.681293330002</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11582,18 +10687,15 @@
         <v>3446.741293330002</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11618,18 +10720,15 @@
         <v>3446.741293330002</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11654,18 +10753,15 @@
         <v>3533.541293330002</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11690,18 +10786,15 @@
         <v>3533.541293330002</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11726,18 +10819,15 @@
         <v>3533.541293330002</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11762,18 +10852,15 @@
         <v>3526.541293330002</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11798,18 +10885,15 @@
         <v>3563.941293330002</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11836,18 +10920,15 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BTG.xlsx
+++ b/BackTest/2020-01-14 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>64.13700000000011</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>260.7603000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>203.9130000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>203.9130000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>163.9130000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>191.0773000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>191.0773000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>59.62430000000012</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-13.72009999999989</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-13.88179999999989</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-30.50029999999989</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-30.50029999999989</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-169.3389999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-191.2215999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>56.32030000000012</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>56.32030000000012</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-395.7440999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-395.7440999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-408.9386999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-408.9386999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1066.1495</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1066.1495</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1113.8122</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1113.8122</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1052.8838</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2827,17 +2827,11 @@
         <v>-1148.2237</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2870,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2907,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2981,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3018,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3055,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3092,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3129,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3166,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3203,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3240,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3277,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3351,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3425,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3462,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3499,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3569,17 +3487,11 @@
         <v>-1055.374199999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>7495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3608,17 +3520,11 @@
         <v>-1136.226299999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>7535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3651,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3684,17 +3586,11 @@
         <v>-1223.856299999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3723,17 +3619,11 @@
         <v>-1208.030199999999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3762,17 +3652,11 @@
         <v>-1218.850199999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3801,17 +3685,11 @@
         <v>-1218.850099999999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3840,17 +3718,11 @@
         <v>-1215.607099999999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3879,17 +3751,11 @@
         <v>-1215.607099999999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>7525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3918,17 +3784,11 @@
         <v>-1209.607099999999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>7525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3961,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4035,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4072,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4146,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4179,17 +4015,11 @@
         <v>-1112.594799999999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>7500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4218,17 +4048,11 @@
         <v>-1042.594799999999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>7500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4257,17 +4081,11 @@
         <v>-1042.594799999999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>7550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4296,17 +4114,11 @@
         <v>-1042.594799999999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>7550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4335,17 +4147,11 @@
         <v>-1277.603899999999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>7550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4374,17 +4180,11 @@
         <v>-1357.423899999999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>7510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4413,17 +4213,11 @@
         <v>-1342.423899999999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>7500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4452,13 +4246,15 @@
         <v>-1114.423899999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7540</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4526,11 +4322,9 @@
         <v>-1122.563899999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>7505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4602,11 +4396,9 @@
         <v>-1159.903899999999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>7500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4641,11 +4433,9 @@
         <v>-1159.903899999999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>7500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4717,11 +4507,9 @@
         <v>-1197.224299999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>7485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4756,9 +4544,11 @@
         <v>-1221.494299999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>7500</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4793,7 +4583,7 @@
         <v>-1408.654299999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>7490</v>
@@ -4832,7 +4622,7 @@
         <v>-1662.889199999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>7485</v>
@@ -4871,11 +4661,9 @@
         <v>-1662.889199999999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>7460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4910,7 +4698,7 @@
         <v>-1879.309199999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>7460</v>
@@ -4949,11 +4737,9 @@
         <v>-1879.309199999999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>7450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4988,7 +4774,7 @@
         <v>-2004.6984</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>7450</v>
@@ -5027,11 +4813,9 @@
         <v>-2004.6984</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>7430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5103,7 +4887,7 @@
         <v>-2135.723099999999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>7425</v>
@@ -5142,7 +4926,7 @@
         <v>-2362.221199999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>7420</v>
@@ -5181,7 +4965,7 @@
         <v>-2362.221199999999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>7400</v>
@@ -5220,7 +5004,7 @@
         <v>-2690.949699999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>7400</v>
@@ -5259,7 +5043,7 @@
         <v>-2690.841299999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>7370</v>
@@ -5298,7 +5082,7 @@
         <v>-2690.841299999999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>7400</v>
@@ -5337,7 +5121,7 @@
         <v>-2049.035199999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>7400</v>
@@ -5376,7 +5160,7 @@
         <v>-1977.535199999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>7480</v>
@@ -5415,7 +5199,7 @@
         <v>-2035.499199999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>7490</v>
@@ -5454,7 +5238,7 @@
         <v>-2029.784699999999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>7430</v>
@@ -5493,7 +5277,7 @@
         <v>-2052.495699999999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>7445</v>
@@ -5532,7 +5316,7 @@
         <v>-2104.059999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>7435</v>
@@ -5571,7 +5355,7 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>7430</v>
@@ -5610,7 +5394,7 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>7455</v>
@@ -5649,7 +5433,7 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>7455</v>
@@ -5688,7 +5472,7 @@
         <v>-1606.318499999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>7455</v>
@@ -5727,7 +5511,7 @@
         <v>-1516.318499999999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>7480</v>
@@ -5766,9 +5550,11 @@
         <v>-1609.318499999999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>7500</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5840,9 +5626,11 @@
         <v>-1445.518499999999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>7510</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6284,9 +6072,11 @@
         <v>-2198.469506669999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>7495</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6728,11 +6518,9 @@
         <v>-2099.085606669999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>7475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -8210,16 +7998,18 @@
         <v>3404.410693330001</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
       <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
@@ -8249,7 +8039,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8282,7 +8076,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8315,7 +8113,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8348,7 +8150,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8381,7 +8187,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8414,7 +8224,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8447,7 +8261,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8480,7 +8298,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8513,7 +8335,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8546,7 +8372,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8579,7 +8409,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8612,7 +8446,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8641,11 +8479,15 @@
         <v>3552.467093330001</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8678,7 +8520,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8711,7 +8557,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8744,7 +8594,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8777,7 +8631,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8810,7 +8668,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8843,7 +8705,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8876,7 +8742,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8909,7 +8779,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8942,7 +8816,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8971,14 +8849,16 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
@@ -9004,7 +8884,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9037,7 +8917,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9070,7 +8950,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9103,7 +8983,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9136,7 +9016,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9169,7 +9049,7 @@
         <v>3519.235193330001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9202,7 +9082,7 @@
         <v>3786.885193330001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9301,7 +9181,7 @@
         <v>2493.395793330001</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9334,7 +9214,7 @@
         <v>2498.076193330001</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9367,7 +9247,7 @@
         <v>1830.339393330001</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9400,7 +9280,7 @@
         <v>1869.434793330001</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9433,7 +9313,7 @@
         <v>1839.434793330001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9466,7 +9346,7 @@
         <v>1779.434793330001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9499,7 +9379,7 @@
         <v>1779.434793330001</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9532,7 +9412,7 @@
         <v>1631.664593330001</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9565,7 +9445,7 @@
         <v>1645.267293330001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9598,7 +9478,7 @@
         <v>1639.267293330001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9631,7 +9511,7 @@
         <v>1683.737293330001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9664,7 +9544,7 @@
         <v>1720.687293330001</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9697,7 +9577,7 @@
         <v>1681.886793330001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9730,7 +9610,7 @@
         <v>2271.589493330001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9763,7 +9643,7 @@
         <v>2248.589493330001</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9796,7 +9676,7 @@
         <v>2260.089493330001</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9829,7 +9709,7 @@
         <v>2281.089493330001</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9862,7 +9742,7 @@
         <v>2296.649493330001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9895,7 +9775,7 @@
         <v>2296.649493330001</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9928,7 +9808,7 @@
         <v>2463.649493330001</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10027,7 +9907,7 @@
         <v>2846.572393330001</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10159,7 +10039,7 @@
         <v>2896.811293330001</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10225,7 +10105,7 @@
         <v>3262.675993330001</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10291,7 +10171,7 @@
         <v>3118.480893330001</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10423,7 +10303,7 @@
         <v>3210.684593330001</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10456,7 +10336,7 @@
         <v>3496.266493330002</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10489,7 +10369,7 @@
         <v>3496.266493330002</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10522,7 +10402,7 @@
         <v>3502.942293330002</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10555,7 +10435,7 @@
         <v>3441.151293330001</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10588,7 +10468,7 @@
         <v>3388.681293330002</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10621,7 +10501,7 @@
         <v>3388.681293330002</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10654,7 +10534,7 @@
         <v>3395.681293330002</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10687,7 +10567,7 @@
         <v>3446.741293330002</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10720,7 +10600,7 @@
         <v>3446.741293330002</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10753,7 +10633,7 @@
         <v>3533.541293330002</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10786,7 +10666,7 @@
         <v>3533.541293330002</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10819,7 +10699,7 @@
         <v>3533.541293330002</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10852,7 +10732,7 @@
         <v>3526.541293330002</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10885,7 +10765,7 @@
         <v>3563.941293330002</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10929,6 +10809,6 @@
       <c r="M299" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BTG.xlsx
+++ b/BackTest/2020-01-14 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4246,17 +4246,11 @@
         <v>-1114.423899999999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>7540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4289,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4326,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4363,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4400,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4437,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4474,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4511,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4544,17 +4510,11 @@
         <v>-1221.494299999999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>7500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4583,17 +4543,11 @@
         <v>-1408.654299999999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>7490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4622,17 +4576,11 @@
         <v>-1662.889199999999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>7485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4698,17 +4642,11 @@
         <v>-1879.309199999999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>7460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4774,17 +4708,11 @@
         <v>-2004.6984</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>7450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4817,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4887,17 +4807,11 @@
         <v>-2135.723099999999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4934,7 +4848,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -5199,11 +5113,9 @@
         <v>-2035.499199999999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>7490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5238,11 +5150,9 @@
         <v>-2029.784699999999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>7430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5277,11 +5187,9 @@
         <v>-2052.495699999999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5316,11 +5224,9 @@
         <v>-2104.059999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>7435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5355,11 +5261,9 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>7430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5394,11 +5298,9 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>7455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5433,11 +5335,9 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>7455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5472,11 +5372,9 @@
         <v>-1606.318499999999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>7455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5511,11 +5409,9 @@
         <v>-1516.318499999999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>7480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5550,11 +5446,9 @@
         <v>-1609.318499999999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5626,11 +5520,9 @@
         <v>-1445.518499999999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>7510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6072,11 +5964,9 @@
         <v>-2198.469506669999</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>7495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6814,18 +6704,16 @@
         <v>-1751.461306669999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -6851,15 +6739,11 @@
         <v>-1169.745806669999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6888,15 +6772,11 @@
         <v>-1144.27260667</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6925,15 +6805,11 @@
         <v>-1144.27260667</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6962,15 +6838,11 @@
         <v>-842.5044066699995</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7003,11 +6875,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7040,11 +6908,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7077,11 +6941,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7114,11 +6974,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7151,11 +7007,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7188,11 +7040,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7225,11 +7073,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7262,11 +7106,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7299,11 +7139,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7336,11 +7172,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7373,11 +7205,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7410,11 +7238,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7271,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7484,11 +7304,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7521,11 +7337,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7558,11 +7370,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7595,11 +7403,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7632,11 +7436,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7669,11 +7469,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7706,11 +7502,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7743,11 +7535,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7780,11 +7568,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7817,11 +7601,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7854,11 +7634,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7891,11 +7667,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7928,11 +7700,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7965,11 +7733,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8002,11 +7766,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8039,11 +7799,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8076,11 +7832,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8113,11 +7865,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8150,11 +7898,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8187,11 +7931,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8224,11 +7964,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8261,11 +7997,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8298,11 +8030,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8335,11 +8063,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8372,11 +8096,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8409,11 +8129,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8446,11 +8162,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8483,11 +8195,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8520,11 +8228,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8557,11 +8261,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8594,11 +8294,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8631,11 +8327,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8360,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8705,11 +8393,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8742,11 +8426,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8779,11 +8459,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8816,11 +8492,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8849,16 +8521,14 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
       <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
@@ -8884,7 +8554,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8917,7 +8587,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8950,7 +8620,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8983,7 +8653,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9016,7 +8686,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9049,7 +8719,7 @@
         <v>3519.235193330001</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9082,7 +8752,7 @@
         <v>3786.885193330001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9214,7 +8884,7 @@
         <v>2498.076193330001</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9247,7 +8917,7 @@
         <v>1830.339393330001</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9280,7 +8950,7 @@
         <v>1869.434793330001</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9313,7 +8983,7 @@
         <v>1839.434793330001</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9346,7 +9016,7 @@
         <v>1779.434793330001</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9379,7 +9049,7 @@
         <v>1779.434793330001</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9412,7 +9082,7 @@
         <v>1631.664593330001</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9445,7 +9115,7 @@
         <v>1645.267293330001</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9478,7 +9148,7 @@
         <v>1639.267293330001</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9511,7 +9181,7 @@
         <v>1683.737293330001</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9544,7 +9214,7 @@
         <v>1720.687293330001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9577,7 +9247,7 @@
         <v>1681.886793330001</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9610,7 +9280,7 @@
         <v>2271.589493330001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9643,7 +9313,7 @@
         <v>2248.589493330001</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9676,7 +9346,7 @@
         <v>2260.089493330001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9709,7 +9379,7 @@
         <v>2281.089493330001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9742,7 +9412,7 @@
         <v>2296.649493330001</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9775,7 +9445,7 @@
         <v>2296.649493330001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9808,7 +9478,7 @@
         <v>2463.649493330001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10809,6 +10479,6 @@
       <c r="M299" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BTG.xlsx
+++ b/BackTest/2020-01-14 BackTest BTG.xlsx
@@ -4213,10 +4213,14 @@
         <v>-1342.423899999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J116" t="n">
+        <v>7500</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4246,11 +4250,19 @@
         <v>-1114.423899999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7540</v>
+      </c>
+      <c r="J117" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4330,19 @@
         <v>-1122.563899999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7505</v>
+      </c>
+      <c r="J119" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4374,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4413,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4452,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4491,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4530,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4569,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4608,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4647,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4686,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4725,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4764,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4803,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4842,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4881,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4917,19 @@
         <v>-2135.723099999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>7425</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4845,10 +4963,12 @@
       <c r="I135" t="n">
         <v>7420</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>7500</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4884,7 +5004,9 @@
       <c r="I136" t="n">
         <v>7400</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>7500</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4923,7 +5045,9 @@
       <c r="I137" t="n">
         <v>7400</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>7500</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,7 +5086,9 @@
       <c r="I138" t="n">
         <v>7370</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>7500</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5001,7 +5127,9 @@
       <c r="I139" t="n">
         <v>7400</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>7500</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,7 +5168,9 @@
       <c r="I140" t="n">
         <v>7400</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>7500</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5079,7 +5209,9 @@
       <c r="I141" t="n">
         <v>7480</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>7500</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5116,7 +5248,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>7500</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,10 +5284,14 @@
         <v>-2029.784699999999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>7430</v>
+      </c>
+      <c r="J143" t="n">
+        <v>7500</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5187,10 +5325,14 @@
         <v>-2052.495699999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>7445</v>
+      </c>
+      <c r="J144" t="n">
+        <v>7500</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5224,10 +5366,14 @@
         <v>-2104.059999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>7435</v>
+      </c>
+      <c r="J145" t="n">
+        <v>7500</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,10 +5407,14 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>7430</v>
+      </c>
+      <c r="J146" t="n">
+        <v>7500</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,10 +5448,14 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>7455</v>
+      </c>
+      <c r="J147" t="n">
+        <v>7500</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5335,10 +5489,14 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7455</v>
+      </c>
+      <c r="J148" t="n">
+        <v>7500</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5372,10 +5530,14 @@
         <v>-1606.318499999999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>7455</v>
+      </c>
+      <c r="J149" t="n">
+        <v>7500</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5409,10 +5571,14 @@
         <v>-1516.318499999999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7480</v>
+      </c>
+      <c r="J150" t="n">
+        <v>7500</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5446,10 +5612,14 @@
         <v>-1609.318499999999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J151" t="n">
+        <v>7500</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5483,10 +5653,14 @@
         <v>-1478.518499999999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>7495</v>
+      </c>
+      <c r="J152" t="n">
+        <v>7500</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5523,7 +5697,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>7500</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,10 +5733,14 @@
         <v>-804.401699999999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>7535</v>
+      </c>
+      <c r="J154" t="n">
+        <v>7500</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5597,7 +5777,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>7500</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5634,7 +5816,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>7500</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5668,10 +5852,14 @@
         <v>-2736.323499999999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>7540</v>
+      </c>
+      <c r="J157" t="n">
+        <v>7500</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5708,7 +5896,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>7500</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5745,7 +5935,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>7500</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5782,7 +5974,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>7500</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5819,7 +6013,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>7500</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5856,7 +6052,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>7500</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,10 +6088,14 @@
         <v>-2196.469506669999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>7495</v>
+      </c>
+      <c r="J163" t="n">
+        <v>7500</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5930,7 +6132,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>7500</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5967,7 +6171,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>7500</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6004,7 +6210,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>7500</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,10 +6246,14 @@
         <v>-2173.469506669999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>7440</v>
+      </c>
+      <c r="J167" t="n">
+        <v>7500</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,7 +6290,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>7500</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6115,7 +6329,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>7500</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,7 +6368,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>7500</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6189,7 +6407,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>7500</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6226,7 +6446,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>7500</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6263,7 +6485,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>7500</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6300,7 +6524,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>7500</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6337,7 +6563,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>7500</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6374,7 +6602,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>7500</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6408,10 +6638,14 @@
         <v>-2099.085606669999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>7475</v>
+      </c>
+      <c r="J177" t="n">
+        <v>7500</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6448,7 +6682,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>7500</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6482,10 +6718,14 @@
         <v>-1675.023006669999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>7520</v>
+      </c>
+      <c r="J179" t="n">
+        <v>7500</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6522,7 +6762,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>7500</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6556,10 +6798,14 @@
         <v>-1783.487106669999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>7510</v>
+      </c>
+      <c r="J181" t="n">
+        <v>7500</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6593,10 +6839,14 @@
         <v>-1802.487106669999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>7505</v>
+      </c>
+      <c r="J182" t="n">
+        <v>7500</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,10 +6880,14 @@
         <v>-1802.487106669999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J183" t="n">
+        <v>7500</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6667,10 +6921,14 @@
         <v>-1802.487106669999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J184" t="n">
+        <v>7500</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6704,16 +6962,22 @@
         <v>-1751.461306669999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J185" t="n">
+        <v>7500</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
       <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -6739,11 +7003,19 @@
         <v>-1169.745806669999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>7520</v>
+      </c>
+      <c r="J186" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +7044,19 @@
         <v>-1144.27260667</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>7545</v>
+      </c>
+      <c r="J187" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6805,11 +7085,19 @@
         <v>-1144.27260667</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>7550</v>
+      </c>
+      <c r="J188" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6838,11 +7126,19 @@
         <v>-842.5044066699995</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>7550</v>
+      </c>
+      <c r="J189" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +7170,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +7209,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +7248,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +7287,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7006,8 +7326,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7365,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7404,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7105,8 +7443,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7138,8 +7482,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7171,8 +7521,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7204,8 +7560,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7237,8 +7599,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7270,8 +7638,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7303,8 +7677,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7336,8 +7716,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7369,8 +7755,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7402,8 +7794,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7435,8 +7833,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7468,8 +7872,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7501,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7534,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7567,8 +7989,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7600,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7633,8 +8067,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7666,8 +8106,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7699,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7732,8 +8184,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7765,8 +8223,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7798,8 +8262,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7828,13 +8298,19 @@
         <v>3398.410693330001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L219" t="n">
-        <v>1</v>
+        <v>1.017666666666667</v>
       </c>
       <c r="M219" t="inlineStr"/>
     </row>
@@ -7861,7 +8337,7 @@
         <v>3366.410693330001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7894,7 +8370,7 @@
         <v>3366.597493330001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7960,7 +8436,7 @@
         <v>3431.173693330001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8026,7 +8502,7 @@
         <v>3536.297093330001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8059,7 +8535,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8092,7 +8568,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8125,7 +8601,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8158,7 +8634,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8191,7 +8667,7 @@
         <v>3552.467093330001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8224,7 +8700,7 @@
         <v>3502.477093330001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8257,7 +8733,7 @@
         <v>3502.477093330001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8290,7 +8766,7 @@
         <v>3720.088293330001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8323,7 +8799,7 @@
         <v>4046.588293330001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8356,7 +8832,7 @@
         <v>4046.588293330001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8389,7 +8865,7 @@
         <v>4000.088293330001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8422,7 +8898,7 @@
         <v>4012.238893330001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8455,7 +8931,7 @@
         <v>3322.997893330001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8488,7 +8964,7 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8521,7 +8997,7 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8554,7 +9030,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8587,7 +9063,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8620,7 +9096,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8653,7 +9129,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8686,7 +9162,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8719,7 +9195,7 @@
         <v>3519.235193330001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8752,7 +9228,7 @@
         <v>3786.885193330001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8785,7 +9261,7 @@
         <v>3159.895793330001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8818,7 +9294,7 @@
         <v>3159.895793330001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8851,7 +9327,7 @@
         <v>2493.395793330001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8884,7 +9360,7 @@
         <v>2498.076193330001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8917,7 +9393,7 @@
         <v>1830.339393330001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8983,7 +9459,7 @@
         <v>1839.434793330001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10369,7 +10845,7 @@
         <v>3533.541293330002</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>

--- a/BackTest/2020-01-14 BackTest BTG.xlsx
+++ b/BackTest/2020-01-14 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>90.54050000000009</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>132.0609</v>
       </c>
       <c r="G3" t="n">
-        <v>90.54050000000009</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>0.5067</v>
       </c>
       <c r="G4" t="n">
-        <v>90.0338000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1.6849</v>
       </c>
       <c r="G5" t="n">
-        <v>91.7187000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>91.7187000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4.17</v>
       </c>
       <c r="G7" t="n">
-        <v>87.5487000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>5.8664</v>
       </c>
       <c r="G8" t="n">
-        <v>81.6823000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>274.3041</v>
       </c>
       <c r="G9" t="n">
-        <v>-192.6217999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>190.2696</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.352199999999897</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>185</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.352199999999897</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>50.8598</v>
       </c>
       <c r="G12" t="n">
-        <v>48.5076000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>32.4494</v>
       </c>
       <c r="G13" t="n">
-        <v>80.95700000000011</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>29.2045</v>
       </c>
       <c r="G14" t="n">
-        <v>80.95700000000011</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>58.95700000000011</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>5.18</v>
       </c>
       <c r="G16" t="n">
-        <v>64.13700000000011</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>217.6233</v>
       </c>
       <c r="G17" t="n">
-        <v>281.7603000000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>260.7603000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>14.7947</v>
       </c>
       <c r="G19" t="n">
-        <v>260.7603000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>9.042999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>251.7173000000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>47.8043</v>
       </c>
       <c r="G21" t="n">
-        <v>203.9130000000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>0.964</v>
       </c>
       <c r="G22" t="n">
-        <v>203.9130000000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>200.9130000000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>163.9130000000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>27.1643</v>
       </c>
       <c r="G25" t="n">
-        <v>191.0773000000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>191.0773000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>0.1619</v>
       </c>
       <c r="G27" t="n">
-        <v>191.0773000000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>16.9598</v>
       </c>
       <c r="G28" t="n">
-        <v>174.1175000000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>78.1893</v>
       </c>
       <c r="G29" t="n">
-        <v>95.92820000000012</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>97.92820000000012</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>101.3039</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.375699999999881</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>17.62430000000012</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>42</v>
       </c>
       <c r="G33" t="n">
-        <v>59.62430000000012</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>42</v>
       </c>
       <c r="G34" t="n">
-        <v>59.62430000000012</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>59.62430000000012</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>36</v>
       </c>
       <c r="G36" t="n">
-        <v>59.62430000000012</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>16.6185</v>
       </c>
       <c r="G37" t="n">
-        <v>59.62430000000012</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>58.62430000000012</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>7.7823</v>
       </c>
       <c r="G39" t="n">
-        <v>50.84200000000012</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>115.9662</v>
       </c>
       <c r="G40" t="n">
-        <v>-65.12419999999989</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>-65.12419999999989</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>51.4041</v>
       </c>
       <c r="G42" t="n">
-        <v>-13.72009999999989</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>38.11</v>
       </c>
       <c r="G43" t="n">
-        <v>-13.72009999999989</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>18.08</v>
       </c>
       <c r="G44" t="n">
-        <v>-31.80009999999989</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>17.9183</v>
       </c>
       <c r="G45" t="n">
-        <v>-13.88179999999989</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>16.6185</v>
       </c>
       <c r="G46" t="n">
-        <v>-30.50029999999989</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>30.6502</v>
       </c>
       <c r="G47" t="n">
-        <v>-30.50029999999989</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>138.8387</v>
       </c>
       <c r="G48" t="n">
-        <v>-169.3389999999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>81</v>
       </c>
       <c r="G49" t="n">
-        <v>-169.3389999999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>12</v>
       </c>
       <c r="G50" t="n">
-        <v>-169.3389999999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>113.6182</v>
       </c>
       <c r="G51" t="n">
-        <v>-169.3389999999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>15</v>
       </c>
       <c r="G52" t="n">
-        <v>-169.3389999999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>-169.3389999999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>5.31</v>
       </c>
       <c r="G54" t="n">
-        <v>-169.3389999999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>21.8826</v>
       </c>
       <c r="G55" t="n">
-        <v>-191.2215999999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>247.5419</v>
       </c>
       <c r="G56" t="n">
-        <v>56.32030000000012</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>82.4817</v>
       </c>
       <c r="G57" t="n">
-        <v>56.32030000000012</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>452.0644</v>
       </c>
       <c r="G58" t="n">
-        <v>-395.7440999999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>33</v>
       </c>
       <c r="G59" t="n">
-        <v>-395.7440999999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>13.1946</v>
       </c>
       <c r="G60" t="n">
-        <v>-408.9386999999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1028.0003</v>
       </c>
       <c r="G61" t="n">
-        <v>-408.9386999999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>657.2107999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>-1066.1495</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>45.8283</v>
       </c>
       <c r="G63" t="n">
-        <v>-1066.1495</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>47.6627</v>
       </c>
       <c r="G64" t="n">
-        <v>-1113.8122</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>20.27</v>
       </c>
       <c r="G65" t="n">
-        <v>-1113.8122</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>60.9284</v>
       </c>
       <c r="G66" t="n">
-        <v>-1052.8838</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>10.25</v>
       </c>
       <c r="G67" t="n">
-        <v>-1052.8838</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>134.388</v>
       </c>
       <c r="G68" t="n">
-        <v>-1052.8838</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,21 @@
         <v>73.52589999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>-979.3578999999999</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>7430</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2489,19 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>-980.3578999999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2523,19 @@
         <v>10.99</v>
       </c>
       <c r="G71" t="n">
-        <v>-969.3678999999998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2557,19 @@
         <v>34.5966</v>
       </c>
       <c r="G72" t="n">
-        <v>-1003.9645</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2591,21 @@
         <v>207.6892</v>
       </c>
       <c r="G73" t="n">
-        <v>-1211.6537</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>7435</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2627,21 @@
         <v>63.43</v>
       </c>
       <c r="G74" t="n">
-        <v>-1148.2237</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>7430</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2663,19 @@
         <v>59.17</v>
       </c>
       <c r="G75" t="n">
-        <v>-1089.0537</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2697,19 @@
         <v>133.5</v>
       </c>
       <c r="G76" t="n">
-        <v>-955.5536999999997</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2731,19 @@
         <v>64.45999999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-891.0936999999997</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2765,19 @@
         <v>46.76</v>
       </c>
       <c r="G78" t="n">
-        <v>-891.0936999999997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2799,19 @@
         <v>0.0092</v>
       </c>
       <c r="G79" t="n">
-        <v>-891.0936999999997</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2833,19 @@
         <v>0.9796</v>
       </c>
       <c r="G80" t="n">
-        <v>-890.1140999999997</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2867,19 @@
         <v>25.6</v>
       </c>
       <c r="G81" t="n">
-        <v>-915.7140999999997</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2901,19 @@
         <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>-920.7140999999997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2935,19 @@
         <v>15.6</v>
       </c>
       <c r="G83" t="n">
-        <v>-905.1140999999997</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2969,19 @@
         <v>15.6</v>
       </c>
       <c r="G84" t="n">
-        <v>-905.1140999999997</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3003,19 @@
         <v>31.2</v>
       </c>
       <c r="G85" t="n">
-        <v>-936.3140999999997</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3037,19 @@
         <v>15.6</v>
       </c>
       <c r="G86" t="n">
-        <v>-920.7140999999997</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3071,19 @@
         <v>23.4391</v>
       </c>
       <c r="G87" t="n">
-        <v>-897.2749999999996</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3105,19 @@
         <v>15.6</v>
       </c>
       <c r="G88" t="n">
-        <v>-912.8749999999997</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3139,19 @@
         <v>49.8978</v>
       </c>
       <c r="G89" t="n">
-        <v>-862.9771999999997</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3173,19 @@
         <v>740.8869999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-1603.8642</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3207,19 @@
         <v>15.6</v>
       </c>
       <c r="G91" t="n">
-        <v>-1619.464199999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3241,19 @@
         <v>7.3</v>
       </c>
       <c r="G92" t="n">
-        <v>-1612.164199999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3275,19 @@
         <v>7.31</v>
       </c>
       <c r="G93" t="n">
-        <v>-1619.474199999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3309,19 @@
         <v>564.1</v>
       </c>
       <c r="G94" t="n">
-        <v>-1055.374199999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3343,19 @@
         <v>80.85209999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-1136.226299999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3377,19 @@
         <v>17.63</v>
       </c>
       <c r="G96" t="n">
-        <v>-1153.856299999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3411,19 @@
         <v>70</v>
       </c>
       <c r="G97" t="n">
-        <v>-1223.856299999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3445,19 @@
         <v>15.8261</v>
       </c>
       <c r="G98" t="n">
-        <v>-1208.030199999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3479,19 @@
         <v>10.82</v>
       </c>
       <c r="G99" t="n">
-        <v>-1218.850199999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3513,19 @@
         <v>0.0001</v>
       </c>
       <c r="G100" t="n">
-        <v>-1218.850099999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3547,19 @@
         <v>3.243</v>
       </c>
       <c r="G101" t="n">
-        <v>-1215.607099999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3581,19 @@
         <v>51</v>
       </c>
       <c r="G102" t="n">
-        <v>-1215.607099999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3615,19 @@
         <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>-1209.607099999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3649,19 @@
         <v>224</v>
       </c>
       <c r="G104" t="n">
-        <v>-985.6070999999995</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3683,19 @@
         <v>66.0598</v>
       </c>
       <c r="G105" t="n">
-        <v>-1051.666899999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3717,19 @@
         <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>-1045.666899999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3751,19 @@
         <v>75</v>
       </c>
       <c r="G107" t="n">
-        <v>-1045.666899999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3785,19 @@
         <v>54</v>
       </c>
       <c r="G108" t="n">
-        <v>-1099.666899999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3819,19 @@
         <v>12.9279</v>
       </c>
       <c r="G109" t="n">
-        <v>-1112.594799999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3853,19 @@
         <v>66.96850000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>-1112.594799999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3887,19 @@
         <v>70</v>
       </c>
       <c r="G111" t="n">
-        <v>-1042.594799999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3921,19 @@
         <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>-1042.594799999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3955,19 @@
         <v>15</v>
       </c>
       <c r="G113" t="n">
-        <v>-1042.594799999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3989,19 @@
         <v>235.0091</v>
       </c>
       <c r="G114" t="n">
-        <v>-1277.603899999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4023,19 @@
         <v>79.81999999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>-1357.423899999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,22 +4057,19 @@
         <v>15</v>
       </c>
       <c r="G116" t="n">
-        <v>-1342.423899999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>7500</v>
-      </c>
-      <c r="J116" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4247,26 +4091,19 @@
         <v>228</v>
       </c>
       <c r="G117" t="n">
-        <v>-1114.423899999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>7540</v>
-      </c>
-      <c r="J117" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4288,24 +4125,19 @@
         <v>20.21</v>
       </c>
       <c r="G118" t="n">
-        <v>-1134.633899999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4327,26 +4159,19 @@
         <v>12.07</v>
       </c>
       <c r="G119" t="n">
-        <v>-1122.563899999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>7505</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4368,24 +4193,19 @@
         <v>37.34</v>
       </c>
       <c r="G120" t="n">
-        <v>-1159.903899999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4407,24 +4227,19 @@
         <v>96.7226</v>
       </c>
       <c r="G121" t="n">
-        <v>-1159.903899999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4446,24 +4261,19 @@
         <v>361.0968</v>
       </c>
       <c r="G122" t="n">
-        <v>-1159.903899999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4485,24 +4295,19 @@
         <v>307.8804</v>
       </c>
       <c r="G123" t="n">
-        <v>-1467.784299999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4524,24 +4329,19 @@
         <v>270.56</v>
       </c>
       <c r="G124" t="n">
-        <v>-1197.224299999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4563,24 +4363,19 @@
         <v>24.27</v>
       </c>
       <c r="G125" t="n">
-        <v>-1221.494299999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4602,24 +4397,19 @@
         <v>187.16</v>
       </c>
       <c r="G126" t="n">
-        <v>-1408.654299999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4641,24 +4431,19 @@
         <v>254.2349</v>
       </c>
       <c r="G127" t="n">
-        <v>-1662.889199999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4680,24 +4465,19 @@
         <v>96.77</v>
       </c>
       <c r="G128" t="n">
-        <v>-1662.889199999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4719,24 +4499,19 @@
         <v>216.42</v>
       </c>
       <c r="G129" t="n">
-        <v>-1879.309199999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4758,24 +4533,19 @@
         <v>15.7</v>
       </c>
       <c r="G130" t="n">
-        <v>-1879.309199999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4797,24 +4567,19 @@
         <v>125.3892</v>
       </c>
       <c r="G131" t="n">
-        <v>-2004.6984</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4836,24 +4601,19 @@
         <v>96.90000000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>-2004.6984</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4875,24 +4635,19 @@
         <v>68.1662</v>
       </c>
       <c r="G133" t="n">
-        <v>-2072.864599999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4914,26 +4669,19 @@
         <v>62.8585</v>
       </c>
       <c r="G134" t="n">
-        <v>-2135.723099999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7425</v>
-      </c>
-      <c r="J134" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4955,26 +4703,19 @@
         <v>226.4981</v>
       </c>
       <c r="G135" t="n">
-        <v>-2362.221199999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>7420</v>
-      </c>
-      <c r="J135" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4996,26 +4737,19 @@
         <v>107.5405</v>
       </c>
       <c r="G136" t="n">
-        <v>-2362.221199999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>7400</v>
-      </c>
-      <c r="J136" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5037,26 +4771,19 @@
         <v>328.7285</v>
       </c>
       <c r="G137" t="n">
-        <v>-2690.949699999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>7400</v>
-      </c>
-      <c r="J137" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5078,26 +4805,19 @@
         <v>0.1084</v>
       </c>
       <c r="G138" t="n">
-        <v>-2690.841299999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>7370</v>
-      </c>
-      <c r="J138" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5119,26 +4839,19 @@
         <v>170</v>
       </c>
       <c r="G139" t="n">
-        <v>-2690.841299999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>7400</v>
-      </c>
-      <c r="J139" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5160,26 +4873,19 @@
         <v>641.8061</v>
       </c>
       <c r="G140" t="n">
-        <v>-2049.035199999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>7400</v>
-      </c>
-      <c r="J140" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5201,26 +4907,19 @@
         <v>71.5</v>
       </c>
       <c r="G141" t="n">
-        <v>-1977.535199999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>7480</v>
-      </c>
-      <c r="J141" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5242,24 +4941,19 @@
         <v>57.964</v>
       </c>
       <c r="G142" t="n">
-        <v>-2035.499199999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5281,26 +4975,19 @@
         <v>5.7145</v>
       </c>
       <c r="G143" t="n">
-        <v>-2029.784699999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>7430</v>
-      </c>
-      <c r="J143" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5322,26 +5009,19 @@
         <v>22.711</v>
       </c>
       <c r="G144" t="n">
-        <v>-2052.495699999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7445</v>
-      </c>
-      <c r="J144" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5363,26 +5043,19 @@
         <v>51.5643</v>
       </c>
       <c r="G145" t="n">
-        <v>-2104.059999999999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>7435</v>
-      </c>
-      <c r="J145" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5404,26 +5077,19 @@
         <v>2.2094</v>
       </c>
       <c r="G146" t="n">
-        <v>-2101.850599999999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>7430</v>
-      </c>
-      <c r="J146" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5445,26 +5111,19 @@
         <v>21.35</v>
       </c>
       <c r="G147" t="n">
-        <v>-2101.850599999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>7455</v>
-      </c>
-      <c r="J147" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5486,26 +5145,19 @@
         <v>28.593</v>
       </c>
       <c r="G148" t="n">
-        <v>-2101.850599999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>7455</v>
-      </c>
-      <c r="J148" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5527,26 +5179,19 @@
         <v>495.5321</v>
       </c>
       <c r="G149" t="n">
-        <v>-1606.318499999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>7455</v>
-      </c>
-      <c r="J149" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5568,26 +5213,19 @@
         <v>90</v>
       </c>
       <c r="G150" t="n">
-        <v>-1516.318499999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>7480</v>
-      </c>
-      <c r="J150" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5609,26 +5247,19 @@
         <v>93</v>
       </c>
       <c r="G151" t="n">
-        <v>-1609.318499999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7500</v>
-      </c>
-      <c r="J151" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5650,26 +5281,19 @@
         <v>130.8</v>
       </c>
       <c r="G152" t="n">
-        <v>-1478.518499999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>7495</v>
-      </c>
-      <c r="J152" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5691,24 +5315,19 @@
         <v>33</v>
       </c>
       <c r="G153" t="n">
-        <v>-1445.518499999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5730,26 +5349,19 @@
         <v>641.1168</v>
       </c>
       <c r="G154" t="n">
-        <v>-804.401699999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>7535</v>
-      </c>
-      <c r="J154" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5771,24 +5383,19 @@
         <v>4.13</v>
       </c>
       <c r="G155" t="n">
-        <v>-804.401699999999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5810,24 +5417,19 @@
         <v>265.8559</v>
       </c>
       <c r="G156" t="n">
-        <v>-804.401699999999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5849,26 +5451,19 @@
         <v>1931.9218</v>
       </c>
       <c r="G157" t="n">
-        <v>-2736.323499999999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>7540</v>
-      </c>
-      <c r="J157" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5890,24 +5485,19 @@
         <v>201.4</v>
       </c>
       <c r="G158" t="n">
-        <v>-2937.723499999999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5929,24 +5519,19 @@
         <v>43.0656</v>
       </c>
       <c r="G159" t="n">
-        <v>-2980.789099999999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5968,24 +5553,19 @@
         <v>610.7525000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>-2370.036599999999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6007,24 +5587,19 @@
         <v>7.1811</v>
       </c>
       <c r="G161" t="n">
-        <v>-2377.217699999999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6046,24 +5621,19 @@
         <v>94.7409</v>
       </c>
       <c r="G162" t="n">
-        <v>-2282.476799999999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6085,26 +5655,19 @@
         <v>86.00729333</v>
       </c>
       <c r="G163" t="n">
-        <v>-2196.469506669999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>7495</v>
-      </c>
-      <c r="J163" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6126,24 +5689,19 @@
         <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>-2198.469506669999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6165,24 +5723,19 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-2198.469506669999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6204,24 +5757,19 @@
         <v>50</v>
       </c>
       <c r="G166" t="n">
-        <v>-2248.469506669999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6243,26 +5791,19 @@
         <v>75</v>
       </c>
       <c r="G167" t="n">
-        <v>-2173.469506669999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>7440</v>
-      </c>
-      <c r="J167" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6284,24 +5825,19 @@
         <v>90</v>
       </c>
       <c r="G168" t="n">
-        <v>-2083.469506669999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6323,24 +5859,19 @@
         <v>90</v>
       </c>
       <c r="G169" t="n">
-        <v>-1993.469506669999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6362,24 +5893,19 @@
         <v>3</v>
       </c>
       <c r="G170" t="n">
-        <v>-1990.469506669999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6401,24 +5927,19 @@
         <v>33</v>
       </c>
       <c r="G171" t="n">
-        <v>-2023.469506669999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6440,24 +5961,19 @@
         <v>39</v>
       </c>
       <c r="G172" t="n">
-        <v>-2062.469506669999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6479,24 +5995,19 @@
         <v>15</v>
       </c>
       <c r="G173" t="n">
-        <v>-2047.469506669999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6518,24 +6029,19 @@
         <v>15</v>
       </c>
       <c r="G174" t="n">
-        <v>-2047.469506669999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6557,24 +6063,19 @@
         <v>47</v>
       </c>
       <c r="G175" t="n">
-        <v>-2094.469506669999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6596,24 +6097,19 @@
         <v>30.6161</v>
       </c>
       <c r="G176" t="n">
-        <v>-2125.085606669999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6635,26 +6131,19 @@
         <v>26</v>
       </c>
       <c r="G177" t="n">
-        <v>-2099.085606669999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>7475</v>
-      </c>
-      <c r="J177" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6676,24 +6165,19 @@
         <v>258</v>
       </c>
       <c r="G178" t="n">
-        <v>-1841.085606669999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6715,26 +6199,19 @@
         <v>166.0626</v>
       </c>
       <c r="G179" t="n">
-        <v>-1675.023006669999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>7520</v>
-      </c>
-      <c r="J179" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6756,24 +6233,19 @@
         <v>25.4641</v>
       </c>
       <c r="G180" t="n">
-        <v>-1700.487106669999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6795,26 +6267,19 @@
         <v>83</v>
       </c>
       <c r="G181" t="n">
-        <v>-1783.487106669999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>7510</v>
-      </c>
-      <c r="J181" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6836,26 +6301,19 @@
         <v>19</v>
       </c>
       <c r="G182" t="n">
-        <v>-1802.487106669999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>7505</v>
-      </c>
-      <c r="J182" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6877,26 +6335,19 @@
         <v>25.667</v>
       </c>
       <c r="G183" t="n">
-        <v>-1802.487106669999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>7500</v>
-      </c>
-      <c r="J183" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6918,26 +6369,19 @@
         <v>29</v>
       </c>
       <c r="G184" t="n">
-        <v>-1802.487106669999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>7500</v>
-      </c>
-      <c r="J184" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6959,26 +6403,19 @@
         <v>51.0258</v>
       </c>
       <c r="G185" t="n">
-        <v>-1751.461306669999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>7500</v>
-      </c>
-      <c r="J185" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7000,26 +6437,19 @@
         <v>581.7155</v>
       </c>
       <c r="G186" t="n">
-        <v>-1169.745806669999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>7520</v>
-      </c>
-      <c r="J186" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7041,26 +6471,19 @@
         <v>25.4732</v>
       </c>
       <c r="G187" t="n">
-        <v>-1144.27260667</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>7545</v>
-      </c>
-      <c r="J187" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7082,26 +6505,19 @@
         <v>71.4509</v>
       </c>
       <c r="G188" t="n">
-        <v>-1144.27260667</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>7550</v>
-      </c>
-      <c r="J188" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7123,26 +6539,19 @@
         <v>301.7682</v>
       </c>
       <c r="G189" t="n">
-        <v>-842.5044066699995</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>7550</v>
-      </c>
-      <c r="J189" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7164,24 +6573,19 @@
         <v>140.4571</v>
       </c>
       <c r="G190" t="n">
-        <v>-702.0473066699996</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7203,24 +6607,19 @@
         <v>119.5744</v>
       </c>
       <c r="G191" t="n">
-        <v>-582.4729066699996</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7242,24 +6641,19 @@
         <v>278.4529</v>
       </c>
       <c r="G192" t="n">
-        <v>-304.0200066699996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7281,24 +6675,19 @@
         <v>200</v>
       </c>
       <c r="G193" t="n">
-        <v>-304.0200066699996</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7320,24 +6709,19 @@
         <v>222.5292</v>
       </c>
       <c r="G194" t="n">
-        <v>-81.49080666999959</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7359,24 +6743,19 @@
         <v>378.54248823</v>
       </c>
       <c r="G195" t="n">
-        <v>297.0516815600004</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7398,24 +6777,19 @@
         <v>1807.11631177</v>
       </c>
       <c r="G196" t="n">
-        <v>2104.167993330001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7437,24 +6811,19 @@
         <v>129.555</v>
       </c>
       <c r="G197" t="n">
-        <v>2233.72299333</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7476,24 +6845,19 @@
         <v>100</v>
       </c>
       <c r="G198" t="n">
-        <v>2133.72299333</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7515,24 +6879,19 @@
         <v>20.07</v>
       </c>
       <c r="G199" t="n">
-        <v>2153.792993330001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7554,24 +6913,19 @@
         <v>45.2117</v>
       </c>
       <c r="G200" t="n">
-        <v>2153.792993330001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7593,24 +6947,19 @@
         <v>41.1084</v>
       </c>
       <c r="G201" t="n">
-        <v>2112.684593330001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7632,24 +6981,19 @@
         <v>146.2529</v>
       </c>
       <c r="G202" t="n">
-        <v>2112.684593330001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7671,24 +7015,19 @@
         <v>159</v>
       </c>
       <c r="G203" t="n">
-        <v>2112.684593330001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7710,24 +7049,19 @@
         <v>20</v>
       </c>
       <c r="G204" t="n">
-        <v>2132.684593330001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7749,24 +7083,19 @@
         <v>667.7368</v>
       </c>
       <c r="G205" t="n">
-        <v>2800.421393330001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7788,24 +7117,19 @@
         <v>294.487</v>
       </c>
       <c r="G206" t="n">
-        <v>3094.908393330001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7827,24 +7151,19 @@
         <v>282.3359</v>
       </c>
       <c r="G207" t="n">
-        <v>2812.572493330001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7866,24 +7185,19 @@
         <v>12.1511</v>
       </c>
       <c r="G208" t="n">
-        <v>2812.572493330001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7905,24 +7219,19 @@
         <v>51.7591</v>
       </c>
       <c r="G209" t="n">
-        <v>2864.331593330001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7944,24 +7253,19 @@
         <v>358.6658</v>
       </c>
       <c r="G210" t="n">
-        <v>2864.331593330001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7983,24 +7287,19 @@
         <v>34.0941</v>
       </c>
       <c r="G211" t="n">
-        <v>2864.331593330001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8022,24 +7321,19 @@
         <v>109.7854</v>
       </c>
       <c r="G212" t="n">
-        <v>2974.116993330001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8061,24 +7355,19 @@
         <v>76.47629999999999</v>
       </c>
       <c r="G213" t="n">
-        <v>3050.593293330001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8100,24 +7389,19 @@
         <v>12.0993</v>
       </c>
       <c r="G214" t="n">
-        <v>3050.593293330001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8139,24 +7423,19 @@
         <v>57.05</v>
       </c>
       <c r="G215" t="n">
-        <v>3107.643293330001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8178,24 +7457,19 @@
         <v>4.23</v>
       </c>
       <c r="G216" t="n">
-        <v>3103.413293330001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8217,24 +7491,19 @@
         <v>300.9974</v>
       </c>
       <c r="G217" t="n">
-        <v>3404.410693330001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8256,24 +7525,19 @@
         <v>6</v>
       </c>
       <c r="G218" t="n">
-        <v>3398.410693330001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8295,24 +7559,19 @@
         <v>98</v>
       </c>
       <c r="G219" t="n">
-        <v>3398.410693330001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1.017666666666667</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8334,18 +7593,17 @@
         <v>32</v>
       </c>
       <c r="G220" t="n">
-        <v>3366.410693330001</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8367,18 +7625,15 @@
         <v>0.1868</v>
       </c>
       <c r="G221" t="n">
-        <v>3366.597493330001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8400,18 +7655,15 @@
         <v>132.5762</v>
       </c>
       <c r="G222" t="n">
-        <v>3499.173693330001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8433,18 +7685,15 @@
         <v>68</v>
       </c>
       <c r="G223" t="n">
-        <v>3431.173693330001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8466,18 +7715,15 @@
         <v>130.5646</v>
       </c>
       <c r="G224" t="n">
-        <v>3561.738293330001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8499,18 +7745,15 @@
         <v>25.4412</v>
       </c>
       <c r="G225" t="n">
-        <v>3536.297093330001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8532,18 +7775,15 @@
         <v>4.83</v>
       </c>
       <c r="G226" t="n">
-        <v>3531.467093330001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8565,18 +7805,15 @@
         <v>62</v>
       </c>
       <c r="G227" t="n">
-        <v>3531.467093330001</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8598,18 +7835,15 @@
         <v>0.2094</v>
       </c>
       <c r="G228" t="n">
-        <v>3531.467093330001</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8631,18 +7865,15 @@
         <v>2.7906</v>
       </c>
       <c r="G229" t="n">
-        <v>3531.467093330001</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8664,18 +7895,15 @@
         <v>21</v>
       </c>
       <c r="G230" t="n">
-        <v>3552.467093330001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8697,18 +7925,15 @@
         <v>49.99</v>
       </c>
       <c r="G231" t="n">
-        <v>3502.477093330001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8730,18 +7955,15 @@
         <v>0.5506</v>
       </c>
       <c r="G232" t="n">
-        <v>3502.477093330001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8763,18 +7985,15 @@
         <v>217.6112</v>
       </c>
       <c r="G233" t="n">
-        <v>3720.088293330001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8796,18 +8015,15 @@
         <v>326.5</v>
       </c>
       <c r="G234" t="n">
-        <v>4046.588293330001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8829,18 +8045,15 @@
         <v>75.2153</v>
       </c>
       <c r="G235" t="n">
-        <v>4046.588293330001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8862,18 +8075,15 @@
         <v>46.5</v>
       </c>
       <c r="G236" t="n">
-        <v>4000.088293330001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8895,18 +8105,15 @@
         <v>12.1506</v>
       </c>
       <c r="G237" t="n">
-        <v>4012.238893330001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8928,18 +8135,15 @@
         <v>689.241</v>
       </c>
       <c r="G238" t="n">
-        <v>3322.997893330001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8961,18 +8165,15 @@
         <v>1.35</v>
       </c>
       <c r="G239" t="n">
-        <v>3324.347893330001</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8994,18 +8195,15 @@
         <v>25.29</v>
       </c>
       <c r="G240" t="n">
-        <v>3324.347893330001</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9027,18 +8225,15 @@
         <v>31.5</v>
       </c>
       <c r="G241" t="n">
-        <v>3292.847893330001</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9060,18 +8255,15 @@
         <v>1.9928</v>
       </c>
       <c r="G242" t="n">
-        <v>3292.847893330001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9093,18 +8285,15 @@
         <v>195.8873</v>
       </c>
       <c r="G243" t="n">
-        <v>3488.735193330001</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9126,18 +8315,15 @@
         <v>2</v>
       </c>
       <c r="G244" t="n">
-        <v>3488.735193330001</v>
-      </c>
-      <c r="H244" t="n">
         <v>2</v>
       </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9159,18 +8345,15 @@
         <v>5.2823</v>
       </c>
       <c r="G245" t="n">
-        <v>3488.735193330001</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9192,18 +8375,15 @@
         <v>30.5</v>
       </c>
       <c r="G246" t="n">
-        <v>3519.235193330001</v>
-      </c>
-      <c r="H246" t="n">
         <v>2</v>
       </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9225,18 +8405,15 @@
         <v>267.65</v>
       </c>
       <c r="G247" t="n">
-        <v>3786.885193330001</v>
-      </c>
-      <c r="H247" t="n">
         <v>2</v>
       </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9258,18 +8435,15 @@
         <v>626.9894</v>
       </c>
       <c r="G248" t="n">
-        <v>3159.895793330001</v>
-      </c>
-      <c r="H248" t="n">
         <v>2</v>
       </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9291,18 +8465,15 @@
         <v>58.53</v>
       </c>
       <c r="G249" t="n">
-        <v>3159.895793330001</v>
-      </c>
-      <c r="H249" t="n">
         <v>2</v>
       </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9324,18 +8495,15 @@
         <v>666.5</v>
       </c>
       <c r="G250" t="n">
-        <v>2493.395793330001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9357,18 +8525,15 @@
         <v>4.6804</v>
       </c>
       <c r="G251" t="n">
-        <v>2498.076193330001</v>
-      </c>
-      <c r="H251" t="n">
         <v>2</v>
       </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9390,18 +8555,15 @@
         <v>667.7368</v>
       </c>
       <c r="G252" t="n">
-        <v>1830.339393330001</v>
-      </c>
-      <c r="H252" t="n">
         <v>2</v>
       </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9423,18 +8585,15 @@
         <v>39.0954</v>
       </c>
       <c r="G253" t="n">
-        <v>1869.434793330001</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9456,18 +8615,15 @@
         <v>30</v>
       </c>
       <c r="G254" t="n">
-        <v>1839.434793330001</v>
-      </c>
-      <c r="H254" t="n">
         <v>2</v>
       </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9489,18 +8645,15 @@
         <v>60</v>
       </c>
       <c r="G255" t="n">
-        <v>1779.434793330001</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9522,18 +8675,15 @@
         <v>89.4233</v>
       </c>
       <c r="G256" t="n">
-        <v>1779.434793330001</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9555,18 +8705,15 @@
         <v>147.7702</v>
       </c>
       <c r="G257" t="n">
-        <v>1631.664593330001</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9588,18 +8735,15 @@
         <v>13.6027</v>
       </c>
       <c r="G258" t="n">
-        <v>1645.267293330001</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9621,18 +8765,15 @@
         <v>6</v>
       </c>
       <c r="G259" t="n">
-        <v>1639.267293330001</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9654,18 +8795,15 @@
         <v>44.47</v>
       </c>
       <c r="G260" t="n">
-        <v>1683.737293330001</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9687,18 +8825,15 @@
         <v>36.95</v>
       </c>
       <c r="G261" t="n">
-        <v>1720.687293330001</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9720,18 +8855,15 @@
         <v>38.8005</v>
       </c>
       <c r="G262" t="n">
-        <v>1681.886793330001</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9753,18 +8885,15 @@
         <v>589.7027</v>
       </c>
       <c r="G263" t="n">
-        <v>2271.589493330001</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9786,18 +8915,15 @@
         <v>23</v>
       </c>
       <c r="G264" t="n">
-        <v>2248.589493330001</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9819,18 +8945,15 @@
         <v>11.5</v>
       </c>
       <c r="G265" t="n">
-        <v>2260.089493330001</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9852,18 +8975,15 @@
         <v>21</v>
       </c>
       <c r="G266" t="n">
-        <v>2281.089493330001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9885,18 +9005,15 @@
         <v>15.56</v>
       </c>
       <c r="G267" t="n">
-        <v>2296.649493330001</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9918,18 +9035,15 @@
         <v>75.7122</v>
       </c>
       <c r="G268" t="n">
-        <v>2296.649493330001</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9951,18 +9065,15 @@
         <v>167</v>
       </c>
       <c r="G269" t="n">
-        <v>2463.649493330001</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9984,18 +9095,15 @@
         <v>169</v>
       </c>
       <c r="G270" t="n">
-        <v>2463.649493330001</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10017,18 +9125,15 @@
         <v>382.9229</v>
       </c>
       <c r="G271" t="n">
-        <v>2846.572393330001</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10050,18 +9155,15 @@
         <v>295.4961</v>
       </c>
       <c r="G272" t="n">
-        <v>2846.572393330001</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10083,18 +9185,15 @@
         <v>102</v>
       </c>
       <c r="G273" t="n">
-        <v>2744.572393330001</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10116,18 +9215,15 @@
         <v>89.5</v>
       </c>
       <c r="G274" t="n">
-        <v>2834.072393330001</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10149,18 +9245,15 @@
         <v>62.7389</v>
       </c>
       <c r="G275" t="n">
-        <v>2896.811293330001</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10182,18 +9275,15 @@
         <v>14.6</v>
       </c>
       <c r="G276" t="n">
-        <v>2896.811293330001</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10215,18 +9305,15 @@
         <v>7.54</v>
       </c>
       <c r="G277" t="n">
-        <v>2896.811293330001</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10248,18 +9335,15 @@
         <v>365.8647</v>
       </c>
       <c r="G278" t="n">
-        <v>3262.675993330001</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10281,18 +9365,15 @@
         <v>70.17</v>
       </c>
       <c r="G279" t="n">
-        <v>3192.505993330001</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10314,18 +9395,15 @@
         <v>74.02509999999999</v>
       </c>
       <c r="G280" t="n">
-        <v>3118.480893330001</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10347,18 +9425,15 @@
         <v>44.05</v>
       </c>
       <c r="G281" t="n">
-        <v>3118.480893330001</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10380,18 +9455,15 @@
         <v>5</v>
       </c>
       <c r="G282" t="n">
-        <v>3123.480893330001</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10413,18 +9485,15 @@
         <v>2</v>
       </c>
       <c r="G283" t="n">
-        <v>3123.480893330001</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10446,18 +9515,15 @@
         <v>87.2037</v>
       </c>
       <c r="G284" t="n">
-        <v>3210.684593330001</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10479,18 +9545,15 @@
         <v>285.5819</v>
       </c>
       <c r="G285" t="n">
-        <v>3496.266493330002</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10512,18 +9575,15 @@
         <v>15.7484</v>
       </c>
       <c r="G286" t="n">
-        <v>3496.266493330002</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10545,18 +9605,15 @@
         <v>6.6758</v>
       </c>
       <c r="G287" t="n">
-        <v>3502.942293330002</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10578,18 +9635,15 @@
         <v>61.791</v>
       </c>
       <c r="G288" t="n">
-        <v>3441.151293330001</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10611,18 +9665,15 @@
         <v>52.47</v>
       </c>
       <c r="G289" t="n">
-        <v>3388.681293330002</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10644,18 +9695,15 @@
         <v>13.64</v>
       </c>
       <c r="G290" t="n">
-        <v>3388.681293330002</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10677,18 +9725,15 @@
         <v>7</v>
       </c>
       <c r="G291" t="n">
-        <v>3395.681293330002</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10710,18 +9755,15 @@
         <v>51.06</v>
       </c>
       <c r="G292" t="n">
-        <v>3446.741293330002</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10743,18 +9785,15 @@
         <v>43.4</v>
       </c>
       <c r="G293" t="n">
-        <v>3446.741293330002</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10776,18 +9815,15 @@
         <v>86.8</v>
       </c>
       <c r="G294" t="n">
-        <v>3533.541293330002</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10809,18 +9845,15 @@
         <v>43.4</v>
       </c>
       <c r="G295" t="n">
-        <v>3533.541293330002</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10842,18 +9875,15 @@
         <v>50.4</v>
       </c>
       <c r="G296" t="n">
-        <v>3533.541293330002</v>
-      </c>
-      <c r="H296" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10875,18 +9905,15 @@
         <v>7</v>
       </c>
       <c r="G297" t="n">
-        <v>3526.541293330002</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10908,18 +9935,15 @@
         <v>37.4</v>
       </c>
       <c r="G298" t="n">
-        <v>3563.941293330002</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10941,18 +9965,15 @@
         <v>410.1049</v>
       </c>
       <c r="G299" t="n">
-        <v>3974.046193330002</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
